--- a/Gantt onlinestss.com.xlsx
+++ b/Gantt onlinestss.com.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discovery-air/Dropbox/Work/MUGI/SS/stssonline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setiawan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573CC68-F256-3244-957E-4FF92C15A41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="35960" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="task_start" localSheetId="0">'Project schedule'!$K1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Theo Darmawan</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{C55DF099-DB51-9143-89FE-70D53E3CEDA5}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{E0291CE9-D34C-6840-9E61-84ECC5186F27}">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,108 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{B33F0D5A-58B4-164C-A431-1E03C312FF6B}">
+    <comment ref="C29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">set up lagi kalo pindah hosting
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">pindah hosting hrs diulang
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jangan lupa merubah field / halaman sesuai tipe user</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +255,108 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{1D5D9DEA-CC0E-CA47-8A9A-55CE2229A885}">
+    <comment ref="C41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sedang dicek apa daftar bisa diurutkan
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sudah jalan untuk user terbatas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">hrs set meeting sama keuangan, daftar pertanyaan terkait alur penjualan </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,214 +390,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{E48CF6FD-3DE3-A742-9F80-48D6039EDD32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">pindah hosting hrs diulang
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{A0510CEC-6055-3F4B-966A-7D549003A848}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>jangan lupa merubah field / halaman sesuai tipe user</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{D709CFE1-21F0-6C45-8EAD-651F34644C6F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">hrs set meeting sama keuangan, daftar pertanyaan terkait alur penjualan </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{E1EA5362-C17C-E145-A97D-89ADFA73E599}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">sudah jalan untuk user terbatas
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{DD682FC1-CE00-BE4E-B19E-30720D705022}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">sedang dicek apa daftar bisa diurutkan
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{FD3E44BD-53F0-3E44-A49F-8EEBBFC75610}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">set up lagi kalo pindah hosting
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -994,37 +993,16 @@
     <t>ES</t>
   </si>
   <si>
-    <t>ES,BP</t>
-  </si>
-  <si>
     <t>START (Actual)</t>
   </si>
   <si>
     <t>END (Actual)</t>
-  </si>
-  <si>
-    <t>2/26/25</t>
-  </si>
-  <si>
-    <t>2/27/25</t>
-  </si>
-  <si>
-    <t>5/15/25</t>
-  </si>
-  <si>
-    <t>6/18/25</t>
-  </si>
-  <si>
-    <t>6/19/25</t>
-  </si>
-  <si>
-    <t>6/23/25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -1032,7 +1010,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,7 +1628,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1913,69 +1891,194 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1984,15 +2087,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,90 +2130,24 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="10"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Name" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Project Start" xfId="9"/>
+    <cellStyle name="Task" xfId="12"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -2286,7 +2345,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -2410,7 +2469,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,41 +2710,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:EX74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="147" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="38.125" style="114" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="8" width="6.875" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="6" hidden="1" customWidth="1"/>
-    <col min="15" max="38" width="2.6640625" customWidth="1"/>
-    <col min="39" max="39" width="6" customWidth="1"/>
-    <col min="40" max="154" width="2.6640625" customWidth="1"/>
+    <col min="15" max="38" width="2.625" customWidth="1"/>
+    <col min="39" max="39" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="154" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" ht="74" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:154" ht="74.099999999999994" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="78"/>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="99" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="78"/>
@@ -2698,52 +2757,52 @@
       <c r="K1" s="16"/>
       <c r="L1" s="21"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="111" t="s">
+      <c r="O1" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
       <c r="V1" s="19"/>
-      <c r="W1" s="110">
+      <c r="W1" s="156">
         <v>45705</v>
       </c>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="111" t="s">
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
       <c r="AN1" s="19"/>
-      <c r="AO1" s="110">
+      <c r="AO1" s="156">
         <v>45838</v>
       </c>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="157"/>
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
     </row>
-    <row r="2" spans="1:154" ht="23" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:154" ht="23.1" customHeight="1">
       <c r="B2" s="66"/>
       <c r="C2" s="79" t="s">
         <v>19</v>
@@ -2753,307 +2812,307 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
-      <c r="O2" s="111" t="s">
+      <c r="O2" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
       <c r="V2" s="19"/>
-      <c r="W2" s="108">
+      <c r="W2" s="165">
         <v>1</v>
       </c>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="117" t="s">
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="159"/>
       <c r="AN2" s="19"/>
-      <c r="AO2" s="119">
+      <c r="AO2" s="160">
         <f ca="1">NETWORKDAYS(TODAY(),  Project_End, Holidays)</f>
-        <v>75</v>
-      </c>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="120"/>
-      <c r="AX2" s="120"/>
+        <v>74</v>
+      </c>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
     </row>
-    <row r="3" spans="1:154" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:154" s="21" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="20"/>
       <c r="C3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
     </row>
-    <row r="4" spans="1:154" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:154" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="22"/>
-      <c r="C4" s="129"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="I4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="O4" s="116">
+      <c r="O4" s="162">
         <f>O5</f>
         <v>45705</v>
       </c>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114">
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152">
         <f>V5</f>
         <v>45712</v>
       </c>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114">
+      <c r="W4" s="152"/>
+      <c r="X4" s="152"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="152">
         <f>AC5</f>
         <v>45719</v>
       </c>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114">
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152">
         <f>AJ5</f>
         <v>45726</v>
       </c>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114">
+      <c r="AK4" s="152"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="152"/>
+      <c r="AN4" s="152"/>
+      <c r="AO4" s="152"/>
+      <c r="AP4" s="152"/>
+      <c r="AQ4" s="152">
         <f>AQ5</f>
         <v>45733</v>
       </c>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="114">
+      <c r="AR4" s="152"/>
+      <c r="AS4" s="152"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="152"/>
+      <c r="AV4" s="152"/>
+      <c r="AW4" s="152"/>
+      <c r="AX4" s="152">
         <f>AX5</f>
         <v>45740</v>
       </c>
-      <c r="AY4" s="114"/>
-      <c r="AZ4" s="114"/>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="114"/>
-      <c r="BE4" s="114">
+      <c r="AY4" s="152"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="152"/>
+      <c r="BB4" s="152"/>
+      <c r="BC4" s="152"/>
+      <c r="BD4" s="152"/>
+      <c r="BE4" s="152">
         <f>BE5</f>
         <v>45747</v>
       </c>
-      <c r="BF4" s="114"/>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
-      <c r="BJ4" s="114"/>
-      <c r="BK4" s="114"/>
-      <c r="BL4" s="114">
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="152"/>
+      <c r="BH4" s="152"/>
+      <c r="BI4" s="152"/>
+      <c r="BJ4" s="152"/>
+      <c r="BK4" s="152"/>
+      <c r="BL4" s="152">
         <f>BL5</f>
         <v>45754</v>
       </c>
-      <c r="BM4" s="114"/>
-      <c r="BN4" s="114"/>
-      <c r="BO4" s="114"/>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="114">
+      <c r="BM4" s="152"/>
+      <c r="BN4" s="152"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="152"/>
+      <c r="BQ4" s="152"/>
+      <c r="BR4" s="153"/>
+      <c r="BS4" s="152">
         <f>BS5</f>
         <v>45761</v>
       </c>
-      <c r="BT4" s="114"/>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="114"/>
-      <c r="BX4" s="114"/>
-      <c r="BY4" s="115"/>
-      <c r="BZ4" s="114">
+      <c r="BT4" s="152"/>
+      <c r="BU4" s="152"/>
+      <c r="BV4" s="152"/>
+      <c r="BW4" s="152"/>
+      <c r="BX4" s="152"/>
+      <c r="BY4" s="153"/>
+      <c r="BZ4" s="152">
         <f>BZ5</f>
         <v>45768</v>
       </c>
-      <c r="CA4" s="114"/>
-      <c r="CB4" s="114"/>
-      <c r="CC4" s="114"/>
-      <c r="CD4" s="114"/>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="115"/>
-      <c r="CG4" s="114">
+      <c r="CA4" s="152"/>
+      <c r="CB4" s="152"/>
+      <c r="CC4" s="152"/>
+      <c r="CD4" s="152"/>
+      <c r="CE4" s="152"/>
+      <c r="CF4" s="153"/>
+      <c r="CG4" s="152">
         <f>CG5</f>
         <v>45775</v>
       </c>
-      <c r="CH4" s="114"/>
-      <c r="CI4" s="114"/>
-      <c r="CJ4" s="114"/>
-      <c r="CK4" s="114"/>
-      <c r="CL4" s="114"/>
-      <c r="CM4" s="115"/>
-      <c r="CN4" s="114">
+      <c r="CH4" s="152"/>
+      <c r="CI4" s="152"/>
+      <c r="CJ4" s="152"/>
+      <c r="CK4" s="152"/>
+      <c r="CL4" s="152"/>
+      <c r="CM4" s="153"/>
+      <c r="CN4" s="152">
         <f>CN5</f>
         <v>45782</v>
       </c>
-      <c r="CO4" s="114"/>
-      <c r="CP4" s="114"/>
-      <c r="CQ4" s="114"/>
-      <c r="CR4" s="114"/>
-      <c r="CS4" s="114"/>
-      <c r="CT4" s="115"/>
-      <c r="CU4" s="114">
+      <c r="CO4" s="152"/>
+      <c r="CP4" s="152"/>
+      <c r="CQ4" s="152"/>
+      <c r="CR4" s="152"/>
+      <c r="CS4" s="152"/>
+      <c r="CT4" s="153"/>
+      <c r="CU4" s="152">
         <f>CU5</f>
         <v>45789</v>
       </c>
-      <c r="CV4" s="114"/>
-      <c r="CW4" s="114"/>
-      <c r="CX4" s="114"/>
-      <c r="CY4" s="114"/>
-      <c r="CZ4" s="114"/>
-      <c r="DA4" s="115"/>
-      <c r="DB4" s="114">
+      <c r="CV4" s="152"/>
+      <c r="CW4" s="152"/>
+      <c r="CX4" s="152"/>
+      <c r="CY4" s="152"/>
+      <c r="CZ4" s="152"/>
+      <c r="DA4" s="153"/>
+      <c r="DB4" s="152">
         <f>DB5</f>
         <v>45796</v>
       </c>
-      <c r="DC4" s="114"/>
-      <c r="DD4" s="114"/>
-      <c r="DE4" s="114"/>
-      <c r="DF4" s="114"/>
-      <c r="DG4" s="114"/>
-      <c r="DH4" s="115"/>
-      <c r="DI4" s="114">
+      <c r="DC4" s="152"/>
+      <c r="DD4" s="152"/>
+      <c r="DE4" s="152"/>
+      <c r="DF4" s="152"/>
+      <c r="DG4" s="152"/>
+      <c r="DH4" s="153"/>
+      <c r="DI4" s="152">
         <f>DI5</f>
         <v>45803</v>
       </c>
-      <c r="DJ4" s="114"/>
-      <c r="DK4" s="114"/>
-      <c r="DL4" s="114"/>
-      <c r="DM4" s="114"/>
-      <c r="DN4" s="114"/>
-      <c r="DO4" s="115"/>
-      <c r="DP4" s="114">
+      <c r="DJ4" s="152"/>
+      <c r="DK4" s="152"/>
+      <c r="DL4" s="152"/>
+      <c r="DM4" s="152"/>
+      <c r="DN4" s="152"/>
+      <c r="DO4" s="153"/>
+      <c r="DP4" s="152">
         <f>DP5</f>
         <v>45810</v>
       </c>
-      <c r="DQ4" s="114"/>
-      <c r="DR4" s="114"/>
-      <c r="DS4" s="114"/>
-      <c r="DT4" s="114"/>
-      <c r="DU4" s="114"/>
-      <c r="DV4" s="115"/>
-      <c r="DW4" s="114">
+      <c r="DQ4" s="152"/>
+      <c r="DR4" s="152"/>
+      <c r="DS4" s="152"/>
+      <c r="DT4" s="152"/>
+      <c r="DU4" s="152"/>
+      <c r="DV4" s="153"/>
+      <c r="DW4" s="152">
         <f>DW5</f>
         <v>45817</v>
       </c>
-      <c r="DX4" s="114"/>
-      <c r="DY4" s="114"/>
-      <c r="DZ4" s="114"/>
-      <c r="EA4" s="114"/>
-      <c r="EB4" s="114"/>
-      <c r="EC4" s="115"/>
-      <c r="ED4" s="114">
+      <c r="DX4" s="152"/>
+      <c r="DY4" s="152"/>
+      <c r="DZ4" s="152"/>
+      <c r="EA4" s="152"/>
+      <c r="EB4" s="152"/>
+      <c r="EC4" s="153"/>
+      <c r="ED4" s="152">
         <f>ED5</f>
         <v>45824</v>
       </c>
-      <c r="EE4" s="114"/>
-      <c r="EF4" s="114"/>
-      <c r="EG4" s="114"/>
-      <c r="EH4" s="114"/>
-      <c r="EI4" s="114"/>
-      <c r="EJ4" s="115"/>
-      <c r="EK4" s="114">
+      <c r="EE4" s="152"/>
+      <c r="EF4" s="152"/>
+      <c r="EG4" s="152"/>
+      <c r="EH4" s="152"/>
+      <c r="EI4" s="152"/>
+      <c r="EJ4" s="153"/>
+      <c r="EK4" s="152">
         <f>EK5</f>
         <v>45831</v>
       </c>
-      <c r="EL4" s="114"/>
-      <c r="EM4" s="114"/>
-      <c r="EN4" s="114"/>
-      <c r="EO4" s="114"/>
-      <c r="EP4" s="114"/>
-      <c r="EQ4" s="115"/>
-      <c r="ER4" s="114">
+      <c r="EL4" s="152"/>
+      <c r="EM4" s="152"/>
+      <c r="EN4" s="152"/>
+      <c r="EO4" s="152"/>
+      <c r="EP4" s="152"/>
+      <c r="EQ4" s="153"/>
+      <c r="ER4" s="152">
         <f>ER5</f>
         <v>45838</v>
       </c>
-      <c r="ES4" s="114"/>
-      <c r="ET4" s="114"/>
-      <c r="EU4" s="114"/>
-      <c r="EV4" s="114"/>
-      <c r="EW4" s="114"/>
-      <c r="EX4" s="115"/>
+      <c r="ES4" s="152"/>
+      <c r="ET4" s="152"/>
+      <c r="EU4" s="152"/>
+      <c r="EV4" s="152"/>
+      <c r="EW4" s="152"/>
+      <c r="EX4" s="153"/>
     </row>
-    <row r="5" spans="1:154" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="126" t="s">
+    <row r="5" spans="1:154" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="167"/>
+      <c r="B5" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="175" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="175" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="163" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="24">
@@ -3617,19 +3676,19 @@
         <v>45844</v>
       </c>
     </row>
-    <row r="6" spans="1:154" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
+    <row r="6" spans="1:154" s="21" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A6" s="167"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="164"/>
       <c r="O6" s="27" t="str">
         <f t="shared" ref="O6:AT6" si="63">LEFT(TEXT(O5,"ddd"),1)</f>
         <v>M</v>
@@ -4191,10 +4250,10 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="83"/>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="101" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="83"/>
@@ -4352,12 +4411,12 @@
       <c r="EW7" s="32"/>
       <c r="EX7" s="32"/>
     </row>
-    <row r="8" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="12"/>
       <c r="B8" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="102" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="34"/>
@@ -4387,8 +4446,8 @@
       <c r="L8" s="37">
         <v>45709</v>
       </c>
-      <c r="M8" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L8, H8&lt;1), -1, IF(H8=1, 1, 0))</f>
+      <c r="M8" s="115">
+        <f t="shared" ref="M8:M16" ca="1" si="69">IF(AND(TODAY()&gt;L8, H8&lt;1), -1, IF(H8=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="N8" s="3">
@@ -4536,12 +4595,12 @@
       <c r="EW8" s="38"/>
       <c r="EX8" s="38"/>
     </row>
-    <row r="9" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="103" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="34"/>
@@ -4566,8 +4625,8 @@
       <c r="L9" s="37">
         <v>45709</v>
       </c>
-      <c r="M9" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L9, H9&lt;1), -1, IF(H9=1, 1, 0))</f>
+      <c r="M9" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>-1</v>
       </c>
       <c r="N9" s="3">
@@ -4715,12 +4774,12 @@
       <c r="EW9" s="38"/>
       <c r="EX9" s="38"/>
     </row>
-    <row r="10" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="11"/>
       <c r="B10" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="103" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="34"/>
@@ -4736,19 +4795,15 @@
       <c r="H10" s="40">
         <v>0</v>
       </c>
-      <c r="I10" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="150" t="s">
-        <v>201</v>
-      </c>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
       <c r="K10" s="37">
         <v>45712</v>
       </c>
       <c r="L10" s="37">
         <v>45719</v>
       </c>
-      <c r="M10" s="148">
+      <c r="M10" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L10, H10&lt;1), -1, IF(H10=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -4897,12 +4952,12 @@
       <c r="EW10" s="38"/>
       <c r="EX10" s="38"/>
     </row>
-    <row r="11" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="11"/>
       <c r="B11" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="103" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="34"/>
@@ -4926,8 +4981,8 @@
       <c r="L11" s="41">
         <v>45808</v>
       </c>
-      <c r="M11" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L11, H11&lt;1), -1, IF(H11=1, 1, 0))</f>
+      <c r="M11" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
@@ -5075,12 +5130,12 @@
       <c r="EW11" s="38"/>
       <c r="EX11" s="38"/>
     </row>
-    <row r="12" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="34"/>
@@ -5110,8 +5165,8 @@
       <c r="L12" s="37">
         <v>45709</v>
       </c>
-      <c r="M12" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L12, H12&lt;1), -1, IF(H12=1, 1, 0))</f>
+      <c r="M12" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>1</v>
       </c>
       <c r="N12" s="3">
@@ -5259,12 +5314,12 @@
       <c r="EW12" s="38"/>
       <c r="EX12" s="38"/>
     </row>
-    <row r="13" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="34"/>
@@ -5294,8 +5349,8 @@
       <c r="L13" s="41">
         <v>45709</v>
       </c>
-      <c r="M13" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L13, H13&lt;1), -1, IF(H13=1, 1, 0))</f>
+      <c r="M13" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>1</v>
       </c>
       <c r="N13" s="3">
@@ -5443,12 +5498,12 @@
       <c r="EW13" s="38"/>
       <c r="EX13" s="38"/>
     </row>
-    <row r="14" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="34"/>
@@ -5478,8 +5533,8 @@
       <c r="L14" s="37">
         <v>45709</v>
       </c>
-      <c r="M14" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L14, H14&lt;1), -1, IF(H14=1, 1, 0))</f>
+      <c r="M14" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>1</v>
       </c>
       <c r="N14" s="3"/>
@@ -5624,12 +5679,12 @@
       <c r="EW14" s="38"/>
       <c r="EX14" s="38"/>
     </row>
-    <row r="15" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="103" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="34"/>
@@ -5659,8 +5714,8 @@
       <c r="L15" s="37">
         <v>45709</v>
       </c>
-      <c r="M15" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L15, H15&lt;1), -1, IF(H15=1, 1, 0))</f>
+      <c r="M15" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>1</v>
       </c>
       <c r="N15" s="3"/>
@@ -5805,12 +5860,12 @@
       <c r="EW15" s="38"/>
       <c r="EX15" s="38"/>
     </row>
-    <row r="16" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="103" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="34"/>
@@ -5840,8 +5895,8 @@
       <c r="L16" s="37">
         <v>45709</v>
       </c>
-      <c r="M16" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L16, H16&lt;1), -1, IF(H16=1, 1, 0))</f>
+      <c r="M16" s="115">
+        <f t="shared" ca="1" si="69"/>
         <v>1</v>
       </c>
       <c r="N16" s="3"/>
@@ -5986,13 +6041,13 @@
       <c r="EW16" s="38"/>
       <c r="EX16" s="38"/>
     </row>
-    <row r="17" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="121"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="39"/>
@@ -6001,7 +6056,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="148"/>
+      <c r="M17" s="115"/>
       <c r="N17" s="3"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
@@ -6144,15 +6199,15 @@
       <c r="EW17" s="38"/>
       <c r="EX17" s="38"/>
     </row>
-    <row r="18" spans="1:154" s="33" customFormat="1" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:154" s="33" customFormat="1" ht="36.950000000000003" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="122"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="34" t="s">
         <v>71</v>
       </c>
@@ -6177,7 +6232,7 @@
       <c r="L18" s="37">
         <v>45716</v>
       </c>
-      <c r="M18" s="148">
+      <c r="M18" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L18, H18&lt;1), -1, IF(H18=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -6323,15 +6378,15 @@
       <c r="EW18" s="38"/>
       <c r="EX18" s="38"/>
     </row>
-    <row r="19" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -6356,7 +6411,7 @@
       <c r="L19" s="37">
         <v>45709</v>
       </c>
-      <c r="M19" s="148">
+      <c r="M19" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L19, H19&lt;1), -1, IF(H19=1, 1, 0))</f>
         <v>-1</v>
       </c>
@@ -6502,42 +6557,42 @@
       <c r="EW19" s="38"/>
       <c r="EX19" s="38"/>
     </row>
-    <row r="20" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="39" t="s">
+      <c r="B20" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="40">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>45740</v>
-      </c>
-      <c r="J20" s="37">
-        <v>45744</v>
-      </c>
-      <c r="K20" s="37">
-        <v>45707</v>
-      </c>
-      <c r="L20" s="37">
-        <v>45735</v>
-      </c>
-      <c r="M20" s="148">
+      <c r="H20" s="149">
+        <v>1</v>
+      </c>
+      <c r="I20" s="150">
+        <v>45705</v>
+      </c>
+      <c r="J20" s="150">
+        <v>45709</v>
+      </c>
+      <c r="K20" s="48">
+        <v>45705</v>
+      </c>
+      <c r="L20" s="48">
+        <v>45709</v>
+      </c>
+      <c r="M20" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L20, H20&lt;1), -1, IF(H20=1, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="38"/>
@@ -6681,42 +6736,42 @@
       <c r="EW20" s="38"/>
       <c r="EX20" s="38"/>
     </row>
-    <row r="21" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="34" t="s">
+      <c r="B21" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="40">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>45784</v>
-      </c>
-      <c r="J21" s="37">
-        <v>45791</v>
-      </c>
-      <c r="K21" s="37">
-        <v>45712</v>
-      </c>
-      <c r="L21" s="37">
-        <v>45721</v>
-      </c>
-      <c r="M21" s="148">
+      <c r="F21" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="149">
+        <v>1</v>
+      </c>
+      <c r="I21" s="150">
+        <v>45710</v>
+      </c>
+      <c r="J21" s="150">
+        <v>45711</v>
+      </c>
+      <c r="K21" s="150">
+        <v>45710</v>
+      </c>
+      <c r="L21" s="150">
+        <v>45711</v>
+      </c>
+      <c r="M21" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L21, H21&lt;1), -1, IF(H21=1, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="38"/>
@@ -6860,15 +6915,15 @@
       <c r="EW21" s="38"/>
       <c r="EX21" s="38"/>
     </row>
-    <row r="22" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="11"/>
       <c r="B22" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="34" t="s">
         <v>97</v>
       </c>
@@ -6893,7 +6948,7 @@
       <c r="L22" s="37">
         <v>45730</v>
       </c>
-      <c r="M22" s="148">
+      <c r="M22" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L22, H22&lt;1), -1, IF(H22=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -7039,13 +7094,13 @@
       <c r="EW22" s="38"/>
       <c r="EX22" s="38"/>
     </row>
-    <row r="23" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="11"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="39"/>
@@ -7054,7 +7109,7 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="148"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="3"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
@@ -7197,15 +7252,15 @@
       <c r="EW23" s="38"/>
       <c r="EX23" s="38"/>
     </row>
-    <row r="24" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="34" t="s">
         <v>60</v>
       </c>
@@ -7218,19 +7273,15 @@
       <c r="H24" s="40">
         <v>0</v>
       </c>
-      <c r="I24" s="37">
-        <v>45748</v>
-      </c>
-      <c r="J24" s="37">
-        <v>45809</v>
-      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="37">
         <v>45712</v>
       </c>
       <c r="L24" s="37">
         <v>45714</v>
       </c>
-      <c r="M24" s="148">
+      <c r="M24" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L24, H24&lt;1), -1, IF(H24=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -7376,15 +7427,15 @@
       <c r="EW24" s="38"/>
       <c r="EX24" s="38"/>
     </row>
-    <row r="25" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="123"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="34" t="s">
         <v>60</v>
       </c>
@@ -7397,19 +7448,15 @@
       <c r="H25" s="40">
         <v>0</v>
       </c>
-      <c r="I25" s="37">
-        <v>45748</v>
-      </c>
-      <c r="J25" s="37">
-        <v>45809</v>
-      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="37">
         <v>45712</v>
       </c>
       <c r="L25" s="37">
         <v>45714</v>
       </c>
-      <c r="M25" s="148">
+      <c r="M25" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L25, H25&lt;1), -1, IF(H25=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -7555,15 +7602,15 @@
       <c r="EW25" s="38"/>
       <c r="EX25" s="38"/>
     </row>
-    <row r="26" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="34" t="s">
         <v>60</v>
       </c>
@@ -7576,19 +7623,15 @@
       <c r="H26" s="40">
         <v>0</v>
       </c>
-      <c r="I26" s="37">
-        <v>45748</v>
-      </c>
-      <c r="J26" s="37">
-        <v>45809</v>
-      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="37">
         <v>45712</v>
       </c>
       <c r="L26" s="37">
         <v>45714</v>
       </c>
-      <c r="M26" s="148">
+      <c r="M26" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L26, H26&lt;1), -1, IF(H26=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -7737,10 +7780,10 @@
       <c r="EW26" s="38"/>
       <c r="EX26" s="38"/>
     </row>
-    <row r="27" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="12"/>
       <c r="B27" s="85"/>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="107" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="85"/>
@@ -7752,19 +7795,19 @@
       <c r="J27" s="91"/>
       <c r="K27" s="88"/>
       <c r="L27" s="91"/>
-      <c r="M27" s="148"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="3" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="139" t="s">
+      <c r="B28" s="95"/>
+      <c r="C28" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
@@ -7773,7 +7816,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
-      <c r="M28" s="148"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="3" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -7919,22 +7962,22 @@
       <c r="EW28" s="38"/>
       <c r="EX28" s="38"/>
     </row>
-    <row r="29" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="140" t="s">
-        <v>111</v>
+      <c r="B29" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>67</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="81" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="F29" s="130" t="s">
+        <v>87</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>196</v>
@@ -7944,13 +7987,13 @@
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
-      <c r="K29" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="M29" s="148">
+      <c r="K29" s="48">
+        <v>45712</v>
+      </c>
+      <c r="L29" s="48">
+        <v>45714</v>
+      </c>
+      <c r="M29" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L29, H29&lt;1), -1, IF(H29=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -8096,12 +8139,12 @@
       <c r="EW29" s="38"/>
       <c r="EX29" s="38"/>
     </row>
-    <row r="30" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="12"/>
       <c r="B30" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="109" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="80" t="s">
@@ -8125,9 +8168,9 @@
         <v>45712</v>
       </c>
       <c r="L30" s="48">
-        <v>45713</v>
-      </c>
-      <c r="M30" s="148">
+        <v>45714</v>
+      </c>
+      <c r="M30" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L30, H30&lt;1), -1, IF(H30=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -8273,12 +8316,12 @@
       <c r="EW30" s="38"/>
       <c r="EX30" s="38"/>
     </row>
-    <row r="31" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="12"/>
       <c r="B31" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="109" t="s">
         <v>178</v>
       </c>
       <c r="D31" s="80"/>
@@ -8302,7 +8345,7 @@
       <c r="L31" s="48">
         <v>45716</v>
       </c>
-      <c r="M31" s="148">
+      <c r="M31" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L31, H31&lt;1), -1, IF(H31=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -8448,22 +8491,22 @@
       <c r="EW31" s="38"/>
       <c r="EX31" s="38"/>
     </row>
-    <row r="32" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="140" t="s">
-        <v>106</v>
+      <c r="B32" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="80"/>
       <c r="E32" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="135" t="s">
         <v>196</v>
       </c>
       <c r="H32" s="47">
@@ -8472,12 +8515,12 @@
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48">
-        <v>45762</v>
+        <v>45714</v>
       </c>
       <c r="L32" s="48">
-        <v>45763</v>
-      </c>
-      <c r="M32" s="148">
+        <v>45716</v>
+      </c>
+      <c r="M32" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L32, H32&lt;1), -1, IF(H32=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -8623,13 +8666,13 @@
       <c r="EW32" s="38"/>
       <c r="EX32" s="38"/>
     </row>
-    <row r="33" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="139" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
       <c r="G33" s="46"/>
@@ -8638,7 +8681,7 @@
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
-      <c r="M33" s="148"/>
+      <c r="M33" s="115"/>
       <c r="N33" s="3" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -8784,39 +8827,37 @@
       <c r="EW33" s="38"/>
       <c r="EX33" s="38"/>
     </row>
-    <row r="34" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="141" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="130" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="137">
         <v>0</v>
       </c>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="L34" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="M34" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L34, H34&lt;1), -1, IF(H34=1, 1, 0))</f>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="48">
+        <v>45719</v>
+      </c>
+      <c r="L34" s="48">
+        <v>45721</v>
+      </c>
+      <c r="M34" s="115">
+        <f t="shared" ref="M34:M41" ca="1" si="70">IF(AND(TODAY()&gt;L34, H34&lt;1), -1, IF(H34=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N34" s="3"/>
@@ -8961,39 +9002,37 @@
       <c r="EW34" s="38"/>
       <c r="EX34" s="38"/>
     </row>
-    <row r="35" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="97" t="s">
-        <v>96</v>
+      <c r="B35" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="120"/>
+      <c r="E35" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="132" t="s">
+        <v>87</v>
       </c>
       <c r="G35" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="139">
         <v>0</v>
       </c>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L35, H35&lt;1), -1, IF(H35=1, 1, 0))</f>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="48">
+        <v>45722</v>
+      </c>
+      <c r="L35" s="48">
+        <v>45727</v>
+      </c>
+      <c r="M35" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N35" s="3"/>
@@ -9138,46 +9177,42 @@
       <c r="EW35" s="38"/>
       <c r="EX35" s="38"/>
     </row>
-    <row r="36" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="140" t="s">
-        <v>41</v>
+      <c r="B36" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>186</v>
       </c>
       <c r="D36" s="80"/>
       <c r="E36" s="45" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G36" s="93" t="s">
         <v>196</v>
       </c>
       <c r="H36" s="47">
-        <v>1</v>
-      </c>
-      <c r="I36" s="48">
-        <v>45705</v>
-      </c>
-      <c r="J36" s="48">
-        <v>45709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="48">
-        <v>45714</v>
+        <v>45727</v>
       </c>
       <c r="L36" s="48">
-        <v>45716</v>
-      </c>
-      <c r="M36" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L36, H36&lt;1), -1, IF(H36=1, 1, 0))</f>
-        <v>1</v>
+        <v>45737</v>
+      </c>
+      <c r="M36" s="115">
+        <f t="shared" ca="1" si="70"/>
+        <v>0</v>
       </c>
       <c r="N36" s="3">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
@@ -9320,22 +9355,20 @@
       <c r="EW36" s="38"/>
       <c r="EX36" s="38"/>
     </row>
-    <row r="37" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="140" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>144</v>
-      </c>
+      <c r="B37" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="80"/>
       <c r="E37" s="45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G37" s="93" t="s">
         <v>196</v>
@@ -9346,13 +9379,13 @@
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
       <c r="K37" s="48">
-        <v>45769</v>
+        <v>45737</v>
       </c>
       <c r="L37" s="48">
-        <v>45772</v>
-      </c>
-      <c r="M37" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L37, H37&lt;1), -1, IF(H37=1, 1, 0))</f>
+        <v>45744</v>
+      </c>
+      <c r="M37" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N37" s="3"/>
@@ -9497,41 +9530,39 @@
       <c r="EW37" s="38"/>
       <c r="EX37" s="38"/>
     </row>
-    <row r="38" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="80"/>
+      <c r="B38" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>184</v>
+      </c>
       <c r="E38" s="45" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H38" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="I38" s="48">
-        <v>45705</v>
-      </c>
-      <c r="J38" s="48">
-        <v>45709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="48">
-        <v>45719</v>
+        <v>45747</v>
       </c>
       <c r="L38" s="48">
-        <v>45721</v>
-      </c>
-      <c r="M38" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L38, H38&lt;1), -1, IF(H38=1, 1, 0))</f>
+        <v>45758</v>
+      </c>
+      <c r="M38" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N38" s="3"/>
@@ -9676,39 +9707,37 @@
       <c r="EW38" s="38"/>
       <c r="EX38" s="38"/>
     </row>
-    <row r="39" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="12"/>
-      <c r="B39" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="140" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="45" t="s">
+      <c r="B39" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="128"/>
+      <c r="E39" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="93" t="s">
+      <c r="F39" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="140">
         <v>0</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48">
-        <v>45722</v>
-      </c>
-      <c r="L39" s="48">
-        <v>45723</v>
-      </c>
-      <c r="M39" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L39, H39&lt;1), -1, IF(H39=1, 1, 0))</f>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144">
+        <v>45761</v>
+      </c>
+      <c r="L39" s="144">
+        <v>45765</v>
+      </c>
+      <c r="M39" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N39" s="3"/>
@@ -9853,22 +9882,22 @@
       <c r="EW39" s="38"/>
       <c r="EX39" s="38"/>
     </row>
-    <row r="40" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="80"/>
+      <c r="B40" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="94"/>
       <c r="E40" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H40" s="47">
@@ -9877,13 +9906,13 @@
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48">
-        <v>45712</v>
+        <v>45768</v>
       </c>
       <c r="L40" s="48">
-        <v>45713</v>
-      </c>
-      <c r="M40" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L40, H40&lt;1), -1, IF(H40=1, 1, 0))</f>
+        <v>45772</v>
+      </c>
+      <c r="M40" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N40" s="3"/>
@@ -10028,42 +10057,42 @@
       <c r="EW40" s="38"/>
       <c r="EX40" s="38"/>
     </row>
-    <row r="41" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="80"/>
+      <c r="B41" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="94"/>
       <c r="E41" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H41" s="47">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="48"/>
       <c r="K41" s="48">
-        <v>45712</v>
+        <v>45775</v>
       </c>
       <c r="L41" s="48">
-        <v>45713</v>
-      </c>
-      <c r="M41" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L41, H41&lt;1), -1, IF(H41=1, 1, 0))</f>
+        <v>45777</v>
+      </c>
+      <c r="M41" s="115">
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N41" s="3">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
@@ -10206,13 +10235,13 @@
       <c r="EW41" s="38"/>
       <c r="EX41" s="38"/>
     </row>
-    <row r="42" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="12"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="139" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="101"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
       <c r="G42" s="46"/>
@@ -10221,7 +10250,7 @@
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
-      <c r="M42" s="148"/>
+      <c r="M42" s="115"/>
       <c r="N42" s="3" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -10367,13 +10396,13 @@
       <c r="EW42" s="38"/>
       <c r="EX42" s="38"/>
     </row>
-    <row r="43" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="12"/>
       <c r="B43" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="140" t="s">
-        <v>46</v>
+        <v>152</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>47</v>
       </c>
       <c r="D43" s="80"/>
       <c r="E43" s="45" t="s">
@@ -10391,18 +10420,18 @@
       <c r="I43" s="48"/>
       <c r="J43" s="48"/>
       <c r="K43" s="48">
-        <v>45710</v>
+        <v>45777</v>
       </c>
       <c r="L43" s="48">
-        <v>45711</v>
-      </c>
-      <c r="M43" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L43, H43&lt;1), -1, IF(H43=1, 1, 0))</f>
+        <v>45777</v>
+      </c>
+      <c r="M43" s="115">
+        <f t="shared" ref="M43:M51" ca="1" si="71">IF(AND(TODAY()&gt;L43, H43&lt;1), -1, IF(H43=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="N43" s="3">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
@@ -10545,15 +10574,15 @@
       <c r="EW43" s="38"/>
       <c r="EX43" s="38"/>
     </row>
-    <row r="44" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
-      <c r="B44" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="100"/>
+      <c r="B44" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="80"/>
       <c r="E44" s="45" t="s">
         <v>33</v>
       </c>
@@ -10564,19 +10593,19 @@
         <v>196</v>
       </c>
       <c r="H44" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
       <c r="K44" s="48">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="L44" s="48">
-        <v>45751</v>
-      </c>
-      <c r="M44" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L44, H44&lt;1), -1, IF(H44=1, 1, 0))</f>
-        <v>0</v>
+        <v>45777</v>
+      </c>
+      <c r="M44" s="115">
+        <f t="shared" ca="1" si="71"/>
+        <v>1</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="38"/>
@@ -10720,42 +10749,42 @@
       <c r="EW44" s="38"/>
       <c r="EX44" s="38"/>
     </row>
-    <row r="45" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="140" t="s">
-        <v>47</v>
+        <v>156</v>
+      </c>
+      <c r="C45" s="109" t="s">
+        <v>188</v>
       </c>
       <c r="D45" s="80"/>
       <c r="E45" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="81" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="F45" s="130" t="s">
+        <v>87</v>
       </c>
       <c r="G45" s="46" t="s">
         <v>196</v>
       </c>
       <c r="H45" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="48"/>
       <c r="K45" s="48">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="L45" s="48">
-        <v>45763</v>
-      </c>
-      <c r="M45" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L45, H45&lt;1), -1, IF(H45=1, 1, 0))</f>
-        <v>1</v>
+        <v>45779</v>
+      </c>
+      <c r="M45" s="115">
+        <f t="shared" ca="1" si="71"/>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" ref="N45:N51" si="69">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <f t="shared" ref="N45:N51" si="72">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>3</v>
       </c>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
@@ -10898,42 +10927,42 @@
       <c r="EW45" s="38"/>
       <c r="EX45" s="38"/>
     </row>
-    <row r="46" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="140" t="s">
-        <v>48</v>
+      <c r="B46" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="109" t="s">
+        <v>191</v>
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="130" t="s">
         <v>103</v>
       </c>
       <c r="G46" s="46" t="s">
         <v>196</v>
       </c>
       <c r="H46" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="48"/>
       <c r="J46" s="48"/>
       <c r="K46" s="48">
-        <v>45761</v>
+        <v>45777</v>
       </c>
       <c r="L46" s="48">
-        <v>45761</v>
-      </c>
-      <c r="M46" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L46, H46&lt;1), -1, IF(H46=1, 1, 0))</f>
-        <v>1</v>
+        <v>45780</v>
+      </c>
+      <c r="M46" s="115">
+        <f t="shared" ca="1" si="71"/>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <f t="shared" si="72"/>
+        <v>4</v>
       </c>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
@@ -11076,15 +11105,15 @@
       <c r="EW46" s="38"/>
       <c r="EX46" s="38"/>
     </row>
-    <row r="47" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A47" s="12"/>
       <c r="B47" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="140" t="s">
+      <c r="C47" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="100"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="45" t="s">
         <v>70</v>
       </c>
@@ -11100,18 +11129,18 @@
       <c r="I47" s="48"/>
       <c r="J47" s="48"/>
       <c r="K47" s="48">
-        <v>45765</v>
+        <v>45779</v>
       </c>
       <c r="L47" s="48">
-        <v>45768</v>
-      </c>
-      <c r="M47" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L47, H47&lt;1), -1, IF(H47=1, 1, 0))</f>
+        <v>45789</v>
+      </c>
+      <c r="M47" s="115">
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="69"/>
-        <v>4</v>
+        <f t="shared" si="72"/>
+        <v>11</v>
       </c>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
@@ -11254,42 +11283,46 @@
       <c r="EW47" s="38"/>
       <c r="EX47" s="38"/>
     </row>
-    <row r="48" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="100"/>
+      <c r="B48" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="80"/>
       <c r="E48" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="135" t="s">
         <v>196</v>
       </c>
       <c r="H48" s="47">
         <v>0.8</v>
       </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="I48" s="48">
+        <v>45705</v>
+      </c>
+      <c r="J48" s="48">
+        <v>45709</v>
+      </c>
       <c r="K48" s="48">
-        <v>45754</v>
+        <v>45786</v>
       </c>
       <c r="L48" s="48">
-        <v>45756</v>
-      </c>
-      <c r="M48" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L48, H48&lt;1), -1, IF(H48=1, 1, 0))</f>
+        <v>45790</v>
+      </c>
+      <c r="M48" s="115">
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="69"/>
-        <v>3</v>
+        <f t="shared" si="72"/>
+        <v>5</v>
       </c>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
@@ -11432,22 +11465,24 @@
       <c r="EW48" s="38"/>
       <c r="EX48" s="38"/>
     </row>
-    <row r="49" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A49" s="12"/>
-      <c r="B49" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="80"/>
+      <c r="B49" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>131</v>
+      </c>
       <c r="E49" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="135" t="s">
         <v>196</v>
       </c>
       <c r="H49" s="47">
@@ -11456,18 +11491,18 @@
       <c r="I49" s="48"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48">
-        <v>45757</v>
+        <v>45786</v>
       </c>
       <c r="L49" s="48">
-        <v>45758</v>
-      </c>
-      <c r="M49" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L49, H49&lt;1), -1, IF(H49=1, 1, 0))</f>
+        <v>45790</v>
+      </c>
+      <c r="M49" s="115">
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="69"/>
-        <v>2</v>
+        <f t="shared" si="72"/>
+        <v>5</v>
       </c>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
@@ -11610,20 +11645,20 @@
       <c r="EW49" s="38"/>
       <c r="EX49" s="38"/>
     </row>
-    <row r="50" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="12"/>
-      <c r="B50" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="140" t="s">
-        <v>189</v>
+      <c r="B50" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>106</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="45" t="s">
-        <v>87</v>
+      <c r="F50" s="131" t="s">
+        <v>103</v>
       </c>
       <c r="G50" s="46" t="s">
         <v>196</v>
@@ -11634,13 +11669,13 @@
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="48">
-        <v>45764</v>
+        <v>45787</v>
       </c>
       <c r="L50" s="48">
-        <v>45764</v>
-      </c>
-      <c r="M50" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L50, H50&lt;1), -1, IF(H50=1, 1, 0))</f>
+        <v>45789</v>
+      </c>
+      <c r="M50" s="115">
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="N50" s="3"/>
@@ -11785,20 +11820,20 @@
       <c r="EW50" s="38"/>
       <c r="EX50" s="38"/>
     </row>
-    <row r="51" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="12"/>
-      <c r="B51" s="100" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="140" t="s">
-        <v>191</v>
+      <c r="B51" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>189</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G51" s="46" t="s">
         <v>196</v>
@@ -11809,18 +11844,18 @@
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
       <c r="K51" s="48">
-        <v>45764</v>
+        <v>45789</v>
       </c>
       <c r="L51" s="48">
-        <v>45764</v>
-      </c>
-      <c r="M51" s="148">
-        <f ca="1">IF(AND(TODAY()&gt;L51, H51&lt;1), -1, IF(H51=1, 1, 0))</f>
+        <v>45792</v>
+      </c>
+      <c r="M51" s="115">
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <f t="shared" si="72"/>
+        <v>4</v>
       </c>
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
@@ -11963,13 +11998,13 @@
       <c r="EW51" s="38"/>
       <c r="EX51" s="38"/>
     </row>
-    <row r="52" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="12"/>
       <c r="B52" s="80"/>
-      <c r="C52" s="139" t="s">
+      <c r="C52" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="101"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="46"/>
@@ -11978,7 +12013,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="48"/>
       <c r="L52" s="48"/>
-      <c r="M52" s="148"/>
+      <c r="M52" s="115"/>
       <c r="N52" s="3"/>
       <c r="O52" s="38"/>
       <c r="P52" s="38"/>
@@ -12121,12 +12156,12 @@
       <c r="EW52" s="38"/>
       <c r="EX52" s="38"/>
     </row>
-    <row r="53" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A53" s="12"/>
       <c r="B53" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="109" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="80" t="s">
@@ -12152,7 +12187,7 @@
       <c r="L53" s="48">
         <v>45809</v>
       </c>
-      <c r="M53" s="148">
+      <c r="M53" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L53, H53&lt;1), -1, IF(H53=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -12298,12 +12333,12 @@
       <c r="EW53" s="38"/>
       <c r="EX53" s="38"/>
     </row>
-    <row r="54" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="12"/>
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="109" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="80" t="s">
@@ -12329,7 +12364,7 @@
       <c r="L54" s="48">
         <v>45809</v>
       </c>
-      <c r="M54" s="148">
+      <c r="M54" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L54, H54&lt;1), -1, IF(H54=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -12475,12 +12510,12 @@
       <c r="EW54" s="38"/>
       <c r="EX54" s="38"/>
     </row>
-    <row r="55" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="12"/>
       <c r="B55" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="140" t="s">
+      <c r="C55" s="109" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="80" t="s">
@@ -12506,7 +12541,7 @@
       <c r="L55" s="48">
         <v>45809</v>
       </c>
-      <c r="M55" s="148">
+      <c r="M55" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L55, H55&lt;1), -1, IF(H55=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -12652,13 +12687,13 @@
       <c r="EW55" s="38"/>
       <c r="EX55" s="38"/>
     </row>
-    <row r="56" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A56" s="12"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="139" t="s">
+      <c r="B56" s="94"/>
+      <c r="C56" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="101"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
       <c r="G56" s="46"/>
@@ -12667,7 +12702,7 @@
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
-      <c r="M56" s="148"/>
+      <c r="M56" s="115"/>
       <c r="N56" s="3"/>
       <c r="O56" s="38"/>
       <c r="P56" s="38"/>
@@ -12810,38 +12845,38 @@
       <c r="EW56" s="38"/>
       <c r="EX56" s="38"/>
     </row>
-    <row r="57" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="12"/>
-      <c r="B57" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>103</v>
+      <c r="B57" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="130" t="s">
+        <v>96</v>
       </c>
       <c r="G57" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="94">
+      <c r="H57" s="137">
         <v>0</v>
       </c>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="L57" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="M57" s="148">
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="48">
+        <v>45796</v>
+      </c>
+      <c r="L57" s="48">
+        <v>45800</v>
+      </c>
+      <c r="M57" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L57, H57&lt;1), -1, IF(H57=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -12987,22 +13022,24 @@
       <c r="EW57" s="38"/>
       <c r="EX57" s="38"/>
     </row>
-    <row r="58" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="12"/>
       <c r="B58" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="80"/>
+        <v>164</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>184</v>
+      </c>
       <c r="E58" s="45" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H58" s="47">
@@ -13011,12 +13048,12 @@
       <c r="I58" s="48"/>
       <c r="J58" s="48"/>
       <c r="K58" s="48">
-        <v>45714</v>
+        <v>45803</v>
       </c>
       <c r="L58" s="48">
-        <v>45716</v>
-      </c>
-      <c r="M58" s="148">
+        <v>45807</v>
+      </c>
+      <c r="M58" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L58, H58&lt;1), -1, IF(H58=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -13162,36 +13199,36 @@
       <c r="EW58" s="38"/>
       <c r="EX58" s="38"/>
     </row>
-    <row r="59" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="12"/>
-      <c r="B59" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="80"/>
-      <c r="E59" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="93" t="s">
+      <c r="B59" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="128"/>
+      <c r="E59" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="H59" s="47">
+      <c r="H59" s="140">
         <v>0</v>
       </c>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48">
-        <v>45714</v>
-      </c>
-      <c r="L59" s="48">
-        <v>45716</v>
-      </c>
-      <c r="M59" s="148">
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144">
+        <v>45810</v>
+      </c>
+      <c r="L59" s="144">
+        <v>45812</v>
+      </c>
+      <c r="M59" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L59, H59&lt;1), -1, IF(H59=1, 1, 0))</f>
         <v>0</v>
       </c>
@@ -13337,22 +13374,24 @@
       <c r="EW59" s="38"/>
       <c r="EX59" s="38"/>
     </row>
-    <row r="60" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A60" s="12"/>
-      <c r="B60" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="80"/>
+      <c r="B60" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>130</v>
+      </c>
       <c r="E60" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G60" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H60" s="47">
@@ -13361,18 +13400,18 @@
       <c r="I60" s="48"/>
       <c r="J60" s="48"/>
       <c r="K60" s="48">
-        <v>45714</v>
+        <v>45813</v>
       </c>
       <c r="L60" s="48">
-        <v>45716</v>
-      </c>
-      <c r="M60" s="148">
+        <v>45825</v>
+      </c>
+      <c r="M60" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L60, H60&lt;1), -1, IF(H60=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" ref="N60:N69" si="70">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <f t="shared" ref="N60:N69" si="73">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>13</v>
       </c>
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
@@ -13515,13 +13554,13 @@
       <c r="EW60" s="38"/>
       <c r="EX60" s="38"/>
     </row>
-    <row r="61" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A61" s="12"/>
       <c r="B61" s="80"/>
-      <c r="C61" s="139" t="s">
+      <c r="C61" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="101"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
       <c r="G61" s="46"/>
@@ -13530,9 +13569,9 @@
       <c r="J61" s="48"/>
       <c r="K61" s="48"/>
       <c r="L61" s="48"/>
-      <c r="M61" s="148"/>
+      <c r="M61" s="115"/>
       <c r="N61" s="3" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O61" s="38"/>
@@ -13676,44 +13715,44 @@
       <c r="EW61" s="38"/>
       <c r="EX61" s="38"/>
     </row>
-    <row r="62" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A62" s="12"/>
-      <c r="B62" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="46" t="s">
+      <c r="B62" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="H62" s="47">
+      <c r="H62" s="138">
         <v>0</v>
       </c>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
       <c r="K62" s="48">
-        <v>45705</v>
+        <v>45813</v>
       </c>
       <c r="L62" s="48">
-        <v>45711</v>
-      </c>
-      <c r="M62" s="148">
+        <v>45825</v>
+      </c>
+      <c r="M62" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L62, H62&lt;1), -1, IF(H62=1, 1, 0))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="70"/>
-        <v>7</v>
+        <f t="shared" si="73"/>
+        <v>13</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
@@ -13856,44 +13895,44 @@
       <c r="EW62" s="38"/>
       <c r="EX62" s="38"/>
     </row>
-    <row r="63" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="12"/>
-      <c r="B63" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="46" t="s">
+      <c r="B63" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="H63" s="47">
+      <c r="H63" s="138">
         <v>0</v>
       </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48">
-        <v>45726</v>
-      </c>
-      <c r="L63" s="48">
-        <v>45737</v>
-      </c>
-      <c r="M63" s="148">
+      <c r="I63" s="142"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="142">
+        <v>45826</v>
+      </c>
+      <c r="L63" s="142">
+        <v>45828</v>
+      </c>
+      <c r="M63" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L63, H63&lt;1), -1, IF(H63=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="70"/>
-        <v>12</v>
+        <f t="shared" si="73"/>
+        <v>3</v>
       </c>
       <c r="O63" s="38"/>
       <c r="P63" s="38"/>
@@ -14036,44 +14075,44 @@
       <c r="EW63" s="38"/>
       <c r="EX63" s="38"/>
     </row>
-    <row r="64" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="12"/>
-      <c r="B64" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="140" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="46" t="s">
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="H64" s="47">
+      <c r="H64" s="138">
         <v>0</v>
       </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48">
-        <v>45775</v>
-      </c>
-      <c r="L64" s="48">
-        <v>45777</v>
-      </c>
-      <c r="M64" s="148">
+      <c r="I64" s="142"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="142">
+        <v>45831</v>
+      </c>
+      <c r="L64" s="142">
+        <v>45838</v>
+      </c>
+      <c r="M64" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L64, H64&lt;1), -1, IF(H64=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="70"/>
-        <v>3</v>
+        <f t="shared" si="73"/>
+        <v>8</v>
       </c>
       <c r="O64" s="38"/>
       <c r="P64" s="38"/>
@@ -14216,13 +14255,13 @@
       <c r="EW64" s="38"/>
       <c r="EX64" s="38"/>
     </row>
-    <row r="65" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A65" s="12"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="139" t="s">
+      <c r="B65" s="95"/>
+      <c r="C65" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="101"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
       <c r="G65" s="46"/>
@@ -14231,9 +14270,9 @@
       <c r="J65" s="48"/>
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
-      <c r="M65" s="148"/>
+      <c r="M65" s="115"/>
       <c r="N65" s="3" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O65" s="38"/>
@@ -14377,12 +14416,12 @@
       <c r="EW65" s="38"/>
       <c r="EX65" s="38"/>
     </row>
-    <row r="66" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="12"/>
       <c r="B66" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="140" t="s">
+      <c r="C66" s="109" t="s">
         <v>185</v>
       </c>
       <c r="D66" s="80"/>
@@ -14410,12 +14449,12 @@
       <c r="L66" s="48">
         <v>45723</v>
       </c>
-      <c r="M66" s="148">
+      <c r="M66" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L66, H66&lt;1), -1, IF(H66=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>7</v>
       </c>
       <c r="O66" s="38"/>
@@ -14559,12 +14598,12 @@
       <c r="EW66" s="38"/>
       <c r="EX66" s="38"/>
     </row>
-    <row r="67" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="12"/>
       <c r="B67" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="140" t="s">
+      <c r="C67" s="109" t="s">
         <v>57</v>
       </c>
       <c r="D67" s="80" t="s">
@@ -14594,12 +14633,12 @@
       <c r="L67" s="48">
         <v>45730</v>
       </c>
-      <c r="M67" s="148">
+      <c r="M67" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L67, H67&lt;1), -1, IF(H67=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="O67" s="38"/>
@@ -14743,12 +14782,12 @@
       <c r="EW67" s="38"/>
       <c r="EX67" s="38"/>
     </row>
-    <row r="68" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="12"/>
       <c r="B68" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="140" t="s">
+      <c r="C68" s="109" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="80" t="s">
@@ -14778,12 +14817,12 @@
       <c r="L68" s="48">
         <v>45746</v>
       </c>
-      <c r="M68" s="148">
+      <c r="M68" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L68, H68&lt;1), -1, IF(H68=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>17</v>
       </c>
       <c r="O68" s="38"/>
@@ -14927,10 +14966,10 @@
       <c r="EW68" s="38"/>
       <c r="EX68" s="38"/>
     </row>
-    <row r="69" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A69" s="11"/>
       <c r="B69" s="84"/>
-      <c r="C69" s="143" t="s">
+      <c r="C69" s="110" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="84"/>
@@ -14942,9 +14981,9 @@
       <c r="J69" s="90"/>
       <c r="K69" s="87"/>
       <c r="L69" s="90"/>
-      <c r="M69" s="148"/>
+      <c r="M69" s="115"/>
       <c r="N69" s="3" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O69" s="51"/>
@@ -15088,12 +15127,12 @@
       <c r="EW69" s="51"/>
       <c r="EX69" s="51"/>
     </row>
-    <row r="70" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="11"/>
       <c r="B70" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="144" t="s">
+      <c r="C70" s="111" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -15123,12 +15162,12 @@
       <c r="L70" s="55">
         <v>45833</v>
       </c>
-      <c r="M70" s="148">
+      <c r="M70" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L70, H70&lt;1), -1, IF(H70=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" ref="N70:N74" si="71">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="N70:N74" si="74">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>25</v>
       </c>
       <c r="O70" s="38"/>
@@ -15272,12 +15311,12 @@
       <c r="EW70" s="38"/>
       <c r="EX70" s="38"/>
     </row>
-    <row r="71" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="11"/>
       <c r="B71" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="144" t="s">
+      <c r="C71" s="111" t="s">
         <v>62</v>
       </c>
       <c r="D71" s="52" t="s">
@@ -15307,12 +15346,12 @@
       <c r="L71" s="55">
         <v>45818</v>
       </c>
-      <c r="M71" s="148">
+      <c r="M71" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L71, H71&lt;1), -1, IF(H71=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="O71" s="38"/>
@@ -15456,12 +15495,12 @@
       <c r="EW71" s="38"/>
       <c r="EX71" s="38"/>
     </row>
-    <row r="72" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="11"/>
       <c r="B72" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="144" t="s">
+      <c r="C72" s="111" t="s">
         <v>109</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -15491,12 +15530,12 @@
       <c r="L72" s="55">
         <v>45825</v>
       </c>
-      <c r="M72" s="148">
+      <c r="M72" s="115">
         <f ca="1">IF(AND(TODAY()&gt;L72, H72&lt;1), -1, IF(H72=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>8</v>
       </c>
       <c r="O72" s="38"/>
@@ -15640,10 +15679,10 @@
       <c r="EW72" s="38"/>
       <c r="EX72" s="38"/>
     </row>
-    <row r="73" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A73" s="11"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="145"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56"/>
@@ -15655,7 +15694,7 @@
       <c r="L73" s="59"/>
       <c r="M73" s="13"/>
       <c r="N73" s="3" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O73" s="32"/>
@@ -15799,10 +15838,10 @@
       <c r="EW73" s="32"/>
       <c r="EX73" s="32"/>
     </row>
-    <row r="74" spans="1:154" s="33" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:154" s="33" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="12"/>
       <c r="B74" s="60"/>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="113" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="60"/>
@@ -15816,7 +15855,7 @@
       <c r="L74" s="64"/>
       <c r="M74" s="13"/>
       <c r="N74" s="4" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O74" s="65"/>
@@ -15961,13 +16000,45 @@
       <c r="EX74" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:M74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:L16">
+  <autoFilter ref="B5:M74">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ES"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="B20:M64">
+      <sortCondition ref="K5:K74"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="C9:L16">
     <sortCondition ref="H9:H16"/>
   </sortState>
   <mergeCells count="41">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="W2:AF2"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="EK4:EQ4"/>
     <mergeCell ref="ER4:EX4"/>
     <mergeCell ref="AG1:AM1"/>
@@ -15984,29 +16055,6 @@
     <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="W2:AF2"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H7:H33 H36:H56 H58:H74">
@@ -16070,21 +16118,21 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="12">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="12">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="W2">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1:B1" xr:uid="{D005F8F4-EA16-4627-8A05-1997BE425B88}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:B2" xr:uid="{75F274B0-5B30-4CC0-A53C-C012C0845179}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3:B3" xr:uid="{EEA7C783-457F-401F-98B9-9035587B9210}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4:B4" xr:uid="{43382715-6BC7-4B19-A31B-4B13A11ED166}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6 B5" xr:uid="{7A3789A6-A3FB-43B6-A4F7-8C0AC564F67E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A7:B7" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A8:B8 B10 B12 B14 B16:B17 B19 B21 B23 B25" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A9:B9 B11 B13 B15 B18 B20 B22 B24 B26" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A27:B27" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A69:B69" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A74:B74" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1:B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3:B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6 B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A7:B7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A8:B8 B10 B12 B14 B16:B17 B19 B21 B23 B25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A9:B9 B11 B13 B15 B18 B20 B22 B24 B26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A27:B27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A69:B69"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A74:B74"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -16118,16 +16166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78435F54-EC3A-3E43-A6C7-6CD96FCDDB61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="77">
         <f>DATE(2025,3,29)</f>
         <v>45745</v>
@@ -16201,42 +16249,42 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:8">
       <c r="H17" s="77"/>
     </row>
   </sheetData>
@@ -16246,128 +16294,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="87" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="69"/>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="8" customFormat="1" ht="31.5">
       <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1">
       <c r="A5" s="71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="204.95" customHeight="1">
       <c r="A7" s="72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="31.5">
       <c r="A8" s="70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="57">
       <c r="A9" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="27.95" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="8" customFormat="1" ht="31.5">
       <c r="A11" s="70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="28.5">
       <c r="A12" s="71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="27.95" customHeight="1">
       <c r="A13" s="73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="8" customFormat="1" ht="31.5">
       <c r="A14" s="70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="71.25">
       <c r="A16" s="71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="74"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="74"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="74"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="74"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="74" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="74"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -16376,35 +16424,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16716,34 +16735,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16764,6 +16785,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Gantt onlinestss.com.xlsx
+++ b/Gantt onlinestss.com.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discovery-air/Dropbox/Work/MUGI/SS/project/onlinestss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E307B4-7C40-DF46-B9F9-7267D270FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8913998-1C66-634C-9BEF-ECC4343FDB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19720" yWindow="500" windowWidth="26360" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
     <sheet name="Constants" sheetId="13" r:id="rId2"/>
-    <sheet name="About" sheetId="12" r:id="rId3"/>
+    <sheet name="wp theme " sheetId="14" r:id="rId3"/>
+    <sheet name="About" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project schedule'!$B$5:$O$74</definedName>
@@ -109,7 +110,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{A0510CEC-6055-3F4B-966A-7D549003A848}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{E0291CE9-D34C-6840-9E61-84ECC5186F27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>still need to look into splitting the database and multiple app servers, and whether the basic managed hosting single server architecture works for projected traffic..</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{A0510CEC-6055-3F4B-966A-7D549003A848}">
       <text>
         <r>
           <rPr>
@@ -142,7 +176,74 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{FD3E44BD-53F0-3E44-A49F-8EEBBFC75610}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{1D5D9DEA-CC0E-CA47-8A9A-55CE2229A885}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">refer ke google pagespeed insights, search google security checklist
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B33F0D5A-58B4-164C-A431-1E03C312FF6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>data pelangaan yang ada harus dibenerin dulu. tabel user db dan form registrasi diupdate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{FD3E44BD-53F0-3E44-A49F-8EEBBFC75610}">
       <text>
         <r>
           <rPr>
@@ -176,7 +277,143 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{E48CF6FD-3DE3-A742-9F80-48D6039EDD32}">
+    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{9E5BF11C-95DF-8A40-9FB0-75D5009BB113}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">on hold
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{E1EA5362-C17C-E145-A97D-89ADFA73E599}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sudah jalan untuk user terbatas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{DD682FC1-CE00-BE4E-B19E-30720D705022}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sedang dicek apa daftar bisa diurutkan
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{C55DF099-DB51-9143-89FE-70D53E3CEDA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">scaling hosting, server resources, databases, maintenance tasks, make a checklist. should be done progressively.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{E48CF6FD-3DE3-A742-9F80-48D6039EDD32}">
       <text>
         <r>
           <rPr>
@@ -210,142 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{9E5BF11C-95DF-8A40-9FB0-75D5009BB113}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">on hold
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{B33F0D5A-58B4-164C-A431-1E03C312FF6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>data pelangaan yang ada harus dibenerin dulu. tabel user db dan form registrasi diupdate.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{DD682FC1-CE00-BE4E-B19E-30720D705022}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">sedang dicek apa daftar bisa diurutkan
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{E1EA5362-C17C-E145-A97D-89ADFA73E599}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">sudah jalan untuk user terbatas
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{D709CFE1-21F0-6C45-8EAD-651F34644C6F}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{D709CFE1-21F0-6C45-8EAD-651F34644C6F}">
       <text>
         <r>
           <rPr>
@@ -378,113 +480,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{1D5D9DEA-CC0E-CA47-8A9A-55CE2229A885}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">refer ke google pagespeed insights, search google security checklist
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{E0291CE9-D34C-6840-9E61-84ECC5186F27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>database wp bisa dipisah?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{C55DF099-DB51-9143-89FE-70D53E3CEDA5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">scaling hosting, server resources, databases, maintenance tasks, make a checklist. should be done progressively.
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1092,6 +1093,275 @@
   </si>
   <si>
     <t>design &amp; implementasi caching system</t>
+  </si>
+  <si>
+    <t>ES,BP</t>
+  </si>
+  <si>
+    <t>ES,BP, TD</t>
+  </si>
+  <si>
+    <t>These ensure a theme is fast, secure, and user-friendly.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed &amp; Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Lightweight, fast-loading, optimized for Core Web Vitals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SEO-Friendly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Clean code, schema markup, and mobile optimization.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customization Options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Flexible design, page builders compatibility, and easy theme settings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Responsive Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Fully mobile-friendly and cross-browser compatible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security &amp; Updates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Regular updates, secure coding practices, and compatibility with the latest WordPress version.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plugin Compatibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Works well with major plugins (e.g., WooCommerce, SEO plugins, caching plugins).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support &amp; Documentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Reliable customer support and clear documentation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessibility &amp; UX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Good readability, easy navigation, and accessible design.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eCommerce Readiness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – WooCommerce support if needed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multilingual &amp; RTL Support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – If targeting international audiences.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1106,7 +1376,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,6 +1644,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1724,7 +2002,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,9 +2106,6 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1983,9 +2258,6 @@
     <xf numFmtId="168" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="4" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,15 +2269,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2025,20 +2288,8 @@
     <xf numFmtId="168" fontId="17" fillId="4" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,9 +2405,6 @@
     <xf numFmtId="164" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="30" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2196,59 +2444,50 @@
     <xf numFmtId="168" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="17" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2257,32 +2496,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2880,29 +3116,29 @@
   </sheetPr>
   <dimension ref="A1:EZ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="5" style="55" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="55" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="10" style="55" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="55" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="55" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="55" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="5" style="54" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="54" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10" style="54" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="54" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="54" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" style="54" customWidth="1"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
-    <col min="16" max="16" width="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.83203125" hidden="1" customWidth="1"/>
     <col min="17" max="40" width="2.6640625" customWidth="1"/>
     <col min="41" max="41" width="4.33203125" customWidth="1"/>
     <col min="42" max="156" width="2.6640625" customWidth="1"/>
@@ -2910,396 +3146,396 @@
   <sheetData>
     <row r="1" spans="1:156" ht="23" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="177">
+      <c r="Y1" s="160">
         <v>45705</v>
       </c>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="175" t="s">
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="162"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
       <c r="AP1" s="13"/>
-      <c r="AQ1" s="177">
+      <c r="AQ1" s="160">
         <v>45838</v>
       </c>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="159"/>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
+      <c r="AV1" s="159"/>
+      <c r="AW1" s="159"/>
+      <c r="AX1" s="159"/>
+      <c r="AY1" s="159"/>
+      <c r="AZ1" s="159"/>
     </row>
     <row r="2" spans="1:156" ht="23" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="Q2" s="175" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="Q2" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
       <c r="X2" s="13"/>
-      <c r="Y2" s="186">
+      <c r="Y2" s="158">
         <v>2</v>
       </c>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179" t="s">
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="180"/>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="167"/>
+      <c r="AO2" s="167"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="181">
+      <c r="AQ2" s="168">
         <f ca="1">NETWORKDAYS(TODAY(),  Project_End, Holidays)</f>
-        <v>72</v>
-      </c>
-      <c r="AR2" s="182"/>
-      <c r="AS2" s="182"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="182"/>
+        <v>68</v>
+      </c>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
     </row>
     <row r="3" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="Q4" s="183">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="Q4" s="165">
         <f>Q5</f>
         <v>45712</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163">
         <f>X5</f>
         <v>45719</v>
       </c>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173">
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163">
         <f>AE5</f>
         <v>45726</v>
       </c>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="173"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="173"/>
-      <c r="AK4" s="173"/>
-      <c r="AL4" s="173">
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163">
         <f>AL5</f>
         <v>45733</v>
       </c>
-      <c r="AM4" s="173"/>
-      <c r="AN4" s="173"/>
-      <c r="AO4" s="173"/>
-      <c r="AP4" s="173"/>
-      <c r="AQ4" s="173"/>
-      <c r="AR4" s="173"/>
-      <c r="AS4" s="173">
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163">
         <f>AS5</f>
         <v>45740</v>
       </c>
-      <c r="AT4" s="173"/>
-      <c r="AU4" s="173"/>
-      <c r="AV4" s="173"/>
-      <c r="AW4" s="173"/>
-      <c r="AX4" s="173"/>
-      <c r="AY4" s="173"/>
-      <c r="AZ4" s="173">
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163">
         <f>AZ5</f>
         <v>45747</v>
       </c>
-      <c r="BA4" s="173"/>
-      <c r="BB4" s="173"/>
-      <c r="BC4" s="173"/>
-      <c r="BD4" s="173"/>
-      <c r="BE4" s="173"/>
-      <c r="BF4" s="173"/>
-      <c r="BG4" s="173">
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163">
         <f>BG5</f>
         <v>45754</v>
       </c>
-      <c r="BH4" s="173"/>
-      <c r="BI4" s="173"/>
-      <c r="BJ4" s="173"/>
-      <c r="BK4" s="173"/>
-      <c r="BL4" s="173"/>
-      <c r="BM4" s="173"/>
-      <c r="BN4" s="173">
+      <c r="BH4" s="163"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="163">
         <f>BN5</f>
         <v>45761</v>
       </c>
-      <c r="BO4" s="173"/>
-      <c r="BP4" s="173"/>
-      <c r="BQ4" s="173"/>
-      <c r="BR4" s="173"/>
-      <c r="BS4" s="173"/>
-      <c r="BT4" s="174"/>
-      <c r="BU4" s="173">
+      <c r="BO4" s="163"/>
+      <c r="BP4" s="163"/>
+      <c r="BQ4" s="163"/>
+      <c r="BR4" s="163"/>
+      <c r="BS4" s="163"/>
+      <c r="BT4" s="164"/>
+      <c r="BU4" s="163">
         <f>BU5</f>
         <v>45768</v>
       </c>
-      <c r="BV4" s="173"/>
-      <c r="BW4" s="173"/>
-      <c r="BX4" s="173"/>
-      <c r="BY4" s="173"/>
-      <c r="BZ4" s="173"/>
-      <c r="CA4" s="174"/>
-      <c r="CB4" s="173">
+      <c r="BV4" s="163"/>
+      <c r="BW4" s="163"/>
+      <c r="BX4" s="163"/>
+      <c r="BY4" s="163"/>
+      <c r="BZ4" s="163"/>
+      <c r="CA4" s="164"/>
+      <c r="CB4" s="163">
         <f>CB5</f>
         <v>45775</v>
       </c>
-      <c r="CC4" s="173"/>
-      <c r="CD4" s="173"/>
-      <c r="CE4" s="173"/>
-      <c r="CF4" s="173"/>
-      <c r="CG4" s="173"/>
-      <c r="CH4" s="174"/>
-      <c r="CI4" s="173">
+      <c r="CC4" s="163"/>
+      <c r="CD4" s="163"/>
+      <c r="CE4" s="163"/>
+      <c r="CF4" s="163"/>
+      <c r="CG4" s="163"/>
+      <c r="CH4" s="164"/>
+      <c r="CI4" s="163">
         <f>CI5</f>
         <v>45782</v>
       </c>
-      <c r="CJ4" s="173"/>
-      <c r="CK4" s="173"/>
-      <c r="CL4" s="173"/>
-      <c r="CM4" s="173"/>
-      <c r="CN4" s="173"/>
-      <c r="CO4" s="174"/>
-      <c r="CP4" s="173">
+      <c r="CJ4" s="163"/>
+      <c r="CK4" s="163"/>
+      <c r="CL4" s="163"/>
+      <c r="CM4" s="163"/>
+      <c r="CN4" s="163"/>
+      <c r="CO4" s="164"/>
+      <c r="CP4" s="163">
         <f>CP5</f>
         <v>45789</v>
       </c>
-      <c r="CQ4" s="173"/>
-      <c r="CR4" s="173"/>
-      <c r="CS4" s="173"/>
-      <c r="CT4" s="173"/>
-      <c r="CU4" s="173"/>
-      <c r="CV4" s="174"/>
-      <c r="CW4" s="173">
+      <c r="CQ4" s="163"/>
+      <c r="CR4" s="163"/>
+      <c r="CS4" s="163"/>
+      <c r="CT4" s="163"/>
+      <c r="CU4" s="163"/>
+      <c r="CV4" s="164"/>
+      <c r="CW4" s="163">
         <f>CW5</f>
         <v>45796</v>
       </c>
-      <c r="CX4" s="173"/>
-      <c r="CY4" s="173"/>
-      <c r="CZ4" s="173"/>
-      <c r="DA4" s="173"/>
-      <c r="DB4" s="173"/>
-      <c r="DC4" s="174"/>
-      <c r="DD4" s="173">
+      <c r="CX4" s="163"/>
+      <c r="CY4" s="163"/>
+      <c r="CZ4" s="163"/>
+      <c r="DA4" s="163"/>
+      <c r="DB4" s="163"/>
+      <c r="DC4" s="164"/>
+      <c r="DD4" s="163">
         <f>DD5</f>
         <v>45803</v>
       </c>
-      <c r="DE4" s="173"/>
-      <c r="DF4" s="173"/>
-      <c r="DG4" s="173"/>
-      <c r="DH4" s="173"/>
-      <c r="DI4" s="173"/>
-      <c r="DJ4" s="174"/>
-      <c r="DK4" s="173">
+      <c r="DE4" s="163"/>
+      <c r="DF4" s="163"/>
+      <c r="DG4" s="163"/>
+      <c r="DH4" s="163"/>
+      <c r="DI4" s="163"/>
+      <c r="DJ4" s="164"/>
+      <c r="DK4" s="163">
         <f>DK5</f>
         <v>45810</v>
       </c>
-      <c r="DL4" s="173"/>
-      <c r="DM4" s="173"/>
-      <c r="DN4" s="173"/>
-      <c r="DO4" s="173"/>
-      <c r="DP4" s="173"/>
-      <c r="DQ4" s="174"/>
-      <c r="DR4" s="173">
+      <c r="DL4" s="163"/>
+      <c r="DM4" s="163"/>
+      <c r="DN4" s="163"/>
+      <c r="DO4" s="163"/>
+      <c r="DP4" s="163"/>
+      <c r="DQ4" s="164"/>
+      <c r="DR4" s="163">
         <f>DR5</f>
         <v>45817</v>
       </c>
-      <c r="DS4" s="173"/>
-      <c r="DT4" s="173"/>
-      <c r="DU4" s="173"/>
-      <c r="DV4" s="173"/>
-      <c r="DW4" s="173"/>
-      <c r="DX4" s="174"/>
-      <c r="DY4" s="173">
+      <c r="DS4" s="163"/>
+      <c r="DT4" s="163"/>
+      <c r="DU4" s="163"/>
+      <c r="DV4" s="163"/>
+      <c r="DW4" s="163"/>
+      <c r="DX4" s="164"/>
+      <c r="DY4" s="163">
         <f>DY5</f>
         <v>45824</v>
       </c>
-      <c r="DZ4" s="173"/>
-      <c r="EA4" s="173"/>
-      <c r="EB4" s="173"/>
-      <c r="EC4" s="173"/>
-      <c r="ED4" s="173"/>
-      <c r="EE4" s="174"/>
-      <c r="EF4" s="173">
+      <c r="DZ4" s="163"/>
+      <c r="EA4" s="163"/>
+      <c r="EB4" s="163"/>
+      <c r="EC4" s="163"/>
+      <c r="ED4" s="163"/>
+      <c r="EE4" s="164"/>
+      <c r="EF4" s="163">
         <f>EF5</f>
         <v>45831</v>
       </c>
-      <c r="EG4" s="173"/>
-      <c r="EH4" s="173"/>
-      <c r="EI4" s="173"/>
-      <c r="EJ4" s="173"/>
-      <c r="EK4" s="173"/>
-      <c r="EL4" s="174"/>
-      <c r="EM4" s="173">
+      <c r="EG4" s="163"/>
+      <c r="EH4" s="163"/>
+      <c r="EI4" s="163"/>
+      <c r="EJ4" s="163"/>
+      <c r="EK4" s="163"/>
+      <c r="EL4" s="164"/>
+      <c r="EM4" s="163">
         <f>EM5</f>
         <v>45838</v>
       </c>
-      <c r="EN4" s="173"/>
-      <c r="EO4" s="173"/>
-      <c r="EP4" s="173"/>
-      <c r="EQ4" s="173"/>
-      <c r="ER4" s="173"/>
-      <c r="ES4" s="174"/>
-      <c r="ET4" s="173">
+      <c r="EN4" s="163"/>
+      <c r="EO4" s="163"/>
+      <c r="EP4" s="163"/>
+      <c r="EQ4" s="163"/>
+      <c r="ER4" s="163"/>
+      <c r="ES4" s="164"/>
+      <c r="ET4" s="163">
         <f>ET5</f>
         <v>45845</v>
       </c>
-      <c r="EU4" s="173"/>
-      <c r="EV4" s="173"/>
-      <c r="EW4" s="173"/>
-      <c r="EX4" s="173"/>
-      <c r="EY4" s="173"/>
-      <c r="EZ4" s="174"/>
+      <c r="EU4" s="163"/>
+      <c r="EV4" s="163"/>
+      <c r="EW4" s="163"/>
+      <c r="EX4" s="163"/>
+      <c r="EY4" s="163"/>
+      <c r="EZ4" s="164"/>
     </row>
     <row r="5" spans="1:156" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="188"/>
-      <c r="B5" s="184" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="184" t="s">
+      <c r="F5" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="184" t="s">
+      <c r="J5" s="151" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="184" t="s">
+      <c r="K5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74" t="s">
+      <c r="M5" s="73"/>
+      <c r="N5" s="73" t="s">
         <v>198</v>
       </c>
       <c r="Q5" s="15">
@@ -3864,20 +4100,20 @@
       </c>
     </row>
     <row r="6" spans="1:156" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
       <c r="Q6" s="18" t="str">
         <f t="shared" ref="Q6:AV6" si="63">LEFT(TEXT(Q5,"ddd"),1)</f>
         <v>M</v>
@@ -4441,52 +4677,52 @@
     </row>
     <row r="7" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="123">
         <v>1</v>
       </c>
-      <c r="I7" s="140">
+      <c r="I7" s="131">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J7" s="140">
+      <c r="J7" s="131">
         <v>45709</v>
       </c>
-      <c r="K7" s="140">
+      <c r="K7" s="131">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L7" s="140">
+      <c r="L7" s="131">
         <v>45715</v>
       </c>
-      <c r="M7" s="76" t="b">
-        <f t="shared" ref="M7:M60" ca="1" si="67">IF(AND(H7 &lt;  _xlfn.DAYS(TODAY(), K7)/ _xlfn.DAYS(L7,K7), TODAY()&lt;=L7), TRUE, FALSE)</f>
+      <c r="M7" s="75" t="b">
+        <f ca="1">IF(AND(H7 &lt;  _xlfn.DAYS(TODAY(), K7)/ _xlfn.DAYS(L7,K7), TODAY()&lt;=L7), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="82" t="b">
+      <c r="N7" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="40">
-        <f t="shared" ref="O7:O38" ca="1" si="68">IF(OR(AND(TODAY()&gt;L7, H7&lt;1),M7), -1, IF(H7=1, 1, 0))</f>
+      <c r="O7" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L7, H7&lt;1),M7), -1, IF(H7=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" ref="P7:P13" si="69">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P7:P13" si="67">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>11</v>
       </c>
       <c r="Q7" s="21"/>
@@ -4632,53 +4868,48 @@
     </row>
     <row r="8" spans="1:156" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="160" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="168">
+      <c r="B8" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="173">
         <v>0</v>
       </c>
-      <c r="I8" s="170">
-        <v>45809</v>
-      </c>
-      <c r="J8" s="170">
-        <v>45833</v>
-      </c>
-      <c r="K8" s="171">
-        <v>45809</v>
-      </c>
-      <c r="L8" s="171">
-        <v>45833</v>
-      </c>
-      <c r="M8" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76">
+        <f>Project_Start</f>
+        <v>45705</v>
+      </c>
+      <c r="L8" s="76">
+        <v>45716</v>
+      </c>
+      <c r="M8" s="75" t="b">
+        <f ca="1">IF(AND(H8 &lt;  _xlfn.DAYS(TODAY(), K8)/ _xlfn.DAYS(L8,K8), TODAY()&lt;=L8), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="82" t="b">
+      <c r="N8" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+      <c r="O8" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L8, H8&lt;1),M8), -1, IF(H8=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="69"/>
-        <v>25</v>
+        <f t="shared" si="67"/>
+        <v>12</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
@@ -4823,53 +5054,51 @@
     </row>
     <row r="9" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="B9" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="25">
+      <c r="G9" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="64">
         <v>1</v>
       </c>
-      <c r="I9" s="79">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="J9" s="79">
-        <v>45709</v>
-      </c>
-      <c r="K9" s="79">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="L9" s="79">
-        <v>45709</v>
-      </c>
-      <c r="M9" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I9" s="137">
+        <v>45714</v>
+      </c>
+      <c r="J9" s="137">
+        <v>45716</v>
+      </c>
+      <c r="K9" s="78">
+        <v>45712</v>
+      </c>
+      <c r="L9" s="78">
+        <v>45719</v>
+      </c>
+      <c r="M9" s="75" t="b">
+        <f ca="1">IF(AND(H9 &lt;  _xlfn.DAYS(TODAY(), K9)/ _xlfn.DAYS(L9,K9), TODAY()&lt;=L9), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="82" t="b">
+      <c r="N9" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O9" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L9, H9&lt;1),M9), -1, IF(H9=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="69"/>
-        <v>5</v>
+        <f t="shared" si="67"/>
+        <v>8</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -5012,55 +5241,51 @@
       <c r="EY9" s="24"/>
       <c r="EZ9" s="24"/>
     </row>
-    <row r="10" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:156" s="22" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="41" t="s">
+      <c r="B10" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="64">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="174">
+        <v>45714</v>
+      </c>
+      <c r="J10" s="174"/>
+      <c r="K10" s="78">
+        <v>45709</v>
+      </c>
+      <c r="L10" s="78">
+        <v>45731</v>
+      </c>
+      <c r="M10" s="75" t="b">
+        <f ca="1">IF(AND(H10 &lt;  _xlfn.DAYS(TODAY(), K10)/ _xlfn.DAYS(L10,K10), TODAY()&lt;=L10), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="146">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="J10" s="146">
-        <v>45709</v>
-      </c>
-      <c r="K10" s="79">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="L10" s="79">
-        <v>45709</v>
-      </c>
-      <c r="M10" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="O10" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L10, H10&lt;1),M10), -1, IF(H10=1, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>1</v>
-      </c>
       <c r="P10" s="2">
-        <f t="shared" si="69"/>
-        <v>5</v>
+        <f t="shared" si="67"/>
+        <v>23</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -5205,52 +5430,52 @@
     </row>
     <row r="11" spans="1:156" s="22" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="B11" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="25">
         <v>1</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="79">
         <v>45709</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="79">
         <v>45709</v>
       </c>
-      <c r="M11" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M11" s="75" t="b">
+        <f ca="1">IF(AND(H11 &lt;  _xlfn.DAYS(TODAY(), K11)/ _xlfn.DAYS(L11,K11), TODAY()&lt;=L11), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="82" t="b">
+      <c r="N11" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O11" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L11, H11&lt;1),M11), -1, IF(H11=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="Q11" s="24"/>
@@ -5396,52 +5621,52 @@
     </row>
     <row r="12" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43" t="s">
+      <c r="B12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="78">
         <v>45709</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="78">
         <v>45709</v>
       </c>
-      <c r="M12" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M12" s="75" t="b">
+        <f ca="1">IF(AND(H12 &lt;  _xlfn.DAYS(TODAY(), K12)/ _xlfn.DAYS(L12,K12), TODAY()&lt;=L12), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="82" t="b">
+      <c r="N12" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O12" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L12, H12&lt;1),M12), -1, IF(H12=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="Q12" s="24"/>
@@ -5587,52 +5812,52 @@
     </row>
     <row r="13" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43" t="s">
-        <v>64</v>
+      <c r="B13" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="25">
         <v>1</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="79">
         <v>45709</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="78">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="79">
         <v>45709</v>
       </c>
-      <c r="M13" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M13" s="75" t="b">
+        <f ca="1">IF(AND(H13 &lt;  _xlfn.DAYS(TODAY(), K13)/ _xlfn.DAYS(L13,K13), TODAY()&lt;=L13), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="82" t="b">
+      <c r="N13" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O13" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O13" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L13, H13&lt;1),M13), -1, IF(H13=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="Q13" s="24"/>
@@ -5778,46 +6003,48 @@
     </row>
     <row r="14" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="H14" s="96">
+      <c r="B14" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="25">
         <v>1</v>
       </c>
-      <c r="I14" s="99">
+      <c r="I14" s="78">
+        <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="78">
         <v>45709</v>
       </c>
-      <c r="K14" s="99">
+      <c r="K14" s="78">
+        <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L14" s="99">
+      <c r="L14" s="78">
         <v>45709</v>
       </c>
-      <c r="M14" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M14" s="75" t="b">
+        <f ca="1">IF(AND(H14 &lt;  _xlfn.DAYS(TODAY(), K14)/ _xlfn.DAYS(L14,K14), TODAY()&lt;=L14), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="82" t="b">
+      <c r="N14" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O14" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O14" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L14, H14&lt;1),M14), -1, IF(H14=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P14" s="2"/>
@@ -5962,48 +6189,50 @@
       <c r="EY14" s="24"/>
       <c r="EZ14" s="24"/>
     </row>
-    <row r="15" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:156" s="22" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="64" t="s">
+      <c r="B15" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="25">
         <v>1</v>
       </c>
-      <c r="I15" s="77">
-        <v>45712</v>
-      </c>
-      <c r="J15" s="77">
-        <v>45713</v>
-      </c>
-      <c r="K15" s="79">
-        <v>45707</v>
-      </c>
-      <c r="L15" s="79">
+      <c r="I15" s="78">
+        <f>Project_Start</f>
+        <v>45705</v>
+      </c>
+      <c r="J15" s="78">
         <v>45709</v>
       </c>
-      <c r="M15" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="K15" s="78">
+        <f>Project_Start</f>
+        <v>45705</v>
+      </c>
+      <c r="L15" s="78">
+        <v>45709</v>
+      </c>
+      <c r="M15" s="75" t="b">
+        <f ca="1">IF(AND(H15 &lt;  _xlfn.DAYS(TODAY(), K15)/ _xlfn.DAYS(L15,K15), TODAY()&lt;=L15), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="82" t="b">
+      <c r="N15" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O15" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O15" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L15, H15&lt;1),M15), -1, IF(H15=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P15" s="2"/>
@@ -6148,47 +6377,45 @@
       <c r="EY15" s="24"/>
       <c r="EZ15" s="24"/>
     </row>
-    <row r="16" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:156" s="22" customFormat="1" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="169">
+      <c r="B16" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="124">
+        <v>0.15</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="94">
+        <v>45719</v>
+      </c>
+      <c r="L16" s="94">
+        <v>45733</v>
+      </c>
+      <c r="M16" s="75" t="b">
+        <f ca="1">IF(AND(H16 &lt;  _xlfn.DAYS(TODAY(), K16)/ _xlfn.DAYS(L16,K16), TODAY()&lt;=L16), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171">
-        <v>45813</v>
-      </c>
-      <c r="L16" s="171">
-        <v>45818</v>
-      </c>
-      <c r="M16" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+      <c r="O16" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L16, H16&lt;1),M16), -1, IF(H16=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="24"/>
@@ -6334,46 +6561,46 @@
     </row>
     <row r="17" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="65">
+      <c r="B17" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="64">
         <v>1</v>
       </c>
-      <c r="I17" s="147">
-        <v>45714</v>
-      </c>
-      <c r="J17" s="147">
-        <v>45716</v>
-      </c>
-      <c r="K17" s="79">
+      <c r="I17" s="76">
         <v>45712</v>
       </c>
-      <c r="L17" s="79">
-        <v>45719</v>
-      </c>
-      <c r="M17" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="J17" s="76">
+        <v>45713</v>
+      </c>
+      <c r="K17" s="78">
+        <v>45707</v>
+      </c>
+      <c r="L17" s="78">
+        <v>45709</v>
+      </c>
+      <c r="M17" s="75" t="b">
+        <f ca="1">IF(AND(H17 &lt;  _xlfn.DAYS(TODAY(), K17)/ _xlfn.DAYS(L17,K17), TODAY()&lt;=L17), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="82" t="b">
+      <c r="N17" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O17" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O17" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L17, H17&lt;1),M17), -1, IF(H17=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P17" s="2"/>
@@ -6520,44 +6747,44 @@
     </row>
     <row r="18" spans="1:156" s="22" customFormat="1" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="64">
         <v>0.9</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="76">
         <v>45712</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="79">
+      <c r="J18" s="76"/>
+      <c r="K18" s="78">
         <v>45712</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="78">
         <v>45714</v>
       </c>
-      <c r="M18" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M18" s="75" t="b">
+        <f ca="1">IF(AND(H18 &lt;  _xlfn.DAYS(TODAY(), K18)/ _xlfn.DAYS(L18,K18), TODAY()&lt;=L18), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="82" t="b">
+      <c r="N18" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O18" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O18" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L18, H18&lt;1),M18), -1, IF(H18=1, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="P18" s="2"/>
@@ -6704,44 +6931,44 @@
     </row>
     <row r="19" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="64">
         <v>0.9</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="76">
         <v>45712</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="79">
+      <c r="J19" s="76"/>
+      <c r="K19" s="78">
         <v>45712</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="78">
         <v>45714</v>
       </c>
-      <c r="M19" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M19" s="75" t="b">
+        <f ca="1">IF(AND(H19 &lt;  _xlfn.DAYS(TODAY(), K19)/ _xlfn.DAYS(L19,K19), TODAY()&lt;=L19), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="82" t="b">
+      <c r="N19" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O19" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O19" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L19, H19&lt;1),M19), -1, IF(H19=1, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="P19" s="2"/>
@@ -6888,44 +7115,44 @@
     </row>
     <row r="20" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="64">
         <v>0.9</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="76">
         <v>45712</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="91">
+      <c r="J20" s="76"/>
+      <c r="K20" s="89">
         <v>45712</v>
       </c>
-      <c r="L20" s="91">
+      <c r="L20" s="89">
         <v>45714</v>
       </c>
-      <c r="M20" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M20" s="75" t="b">
+        <f ca="1">IF(AND(H20 &lt;  _xlfn.DAYS(TODAY(), K20)/ _xlfn.DAYS(L20,K20), TODAY()&lt;=L20), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="82" t="b">
+      <c r="N20" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O20" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O20" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L20, H20&lt;1),M20), -1, IF(H20=1, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="P20" s="2"/>
@@ -7072,42 +7299,42 @@
     </row>
     <row r="21" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="133">
+      <c r="B21" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="124">
         <v>0</v>
       </c>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="99">
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="94">
         <v>45714</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L21" s="94">
         <v>45716</v>
       </c>
-      <c r="M21" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M21" s="75" t="b">
+        <f ca="1">IF(AND(H21 &lt;  _xlfn.DAYS(TODAY(), K21)/ _xlfn.DAYS(L21,K21), TODAY()&lt;=L21), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="N21" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O21" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L21, H21&lt;1),M21), -1, IF(H21=1, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="P21" s="2"/>
@@ -7254,44 +7481,42 @@
     </row>
     <row r="22" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="133">
+      <c r="B22" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="124">
         <v>0</v>
       </c>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="99">
-        <v>45723</v>
-      </c>
-      <c r="L22" s="99">
-        <v>45730</v>
-      </c>
-      <c r="M22" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="94">
+        <v>45726</v>
+      </c>
+      <c r="L22" s="94">
+        <v>45731</v>
+      </c>
+      <c r="M22" s="75" t="b">
+        <f ca="1">IF(AND(H22 &lt;  _xlfn.DAYS(TODAY(), K22)/ _xlfn.DAYS(L22,K22), TODAY()&lt;=L22), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="82" t="b">
+      <c r="N22" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O22" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O22" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L22, H22&lt;1),M22), -1, IF(H22=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
@@ -7438,45 +7663,43 @@
     </row>
     <row r="23" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="96">
+      <c r="B23" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="64">
+        <v>0</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="78">
+        <v>45716</v>
+      </c>
+      <c r="L23" s="78">
+        <v>45730</v>
+      </c>
+      <c r="M23" s="75" t="b">
+        <f ca="1">IF(AND(H23 &lt;  _xlfn.DAYS(TODAY(), K23)/ _xlfn.DAYS(L23,K23), TODAY()&lt;=L23), TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I23" s="99">
-        <v>45710</v>
-      </c>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99">
-        <v>45710</v>
-      </c>
-      <c r="L23" s="99">
-        <v>45711</v>
-      </c>
-      <c r="M23" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="N23" s="81" t="b">
         <v>1</v>
+      </c>
+      <c r="O23" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L23, H23&lt;1),M23), -1, IF(H23=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="24"/>
@@ -7622,45 +7845,43 @@
     </row>
     <row r="24" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="123" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="133">
-        <v>1</v>
-      </c>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="99">
-        <v>45712</v>
-      </c>
-      <c r="L24" s="99">
-        <v>45714</v>
-      </c>
-      <c r="M24" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="B24" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="64">
         <v>0</v>
       </c>
-      <c r="N24" s="82" t="b">
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="78">
+        <v>45722</v>
+      </c>
+      <c r="L24" s="78">
+        <v>45728</v>
+      </c>
+      <c r="M24" s="75" t="b">
+        <f ca="1">IF(AND(H24 &lt;  _xlfn.DAYS(TODAY(), K24)/ _xlfn.DAYS(L24,K24), TODAY()&lt;=L24), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+      <c r="N24" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L24, H24&lt;1),M24), -1, IF(H24=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="24"/>
@@ -7806,45 +8027,43 @@
     </row>
     <row r="25" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="109" t="s">
+      <c r="B25" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="123" t="s">
+      <c r="F25" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="133">
+      <c r="H25" s="124">
+        <v>0</v>
+      </c>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="94">
+        <v>45719</v>
+      </c>
+      <c r="L25" s="94">
+        <v>45721</v>
+      </c>
+      <c r="M25" s="75" t="b">
+        <f ca="1">IF(AND(H25 &lt;  _xlfn.DAYS(TODAY(), K25)/ _xlfn.DAYS(L25,K25), TODAY()&lt;=L25), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="99">
-        <v>45712</v>
-      </c>
-      <c r="L25" s="99">
-        <v>45714</v>
-      </c>
-      <c r="M25" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+      <c r="O25" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L25, H25&lt;1),M25), -1, IF(H25=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="24"/>
@@ -7990,47 +8209,47 @@
     </row>
     <row r="26" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109" t="s">
+      <c r="B26" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="133">
+      <c r="F26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="64">
         <v>0</v>
       </c>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="99">
-        <v>45714</v>
-      </c>
-      <c r="L26" s="99">
-        <v>45716</v>
-      </c>
-      <c r="M26" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="78">
+        <v>45720</v>
+      </c>
+      <c r="L26" s="78">
+        <v>45737</v>
+      </c>
+      <c r="M26" s="75" t="b">
+        <f ca="1">IF(AND(H26 &lt;  _xlfn.DAYS(TODAY(), K26)/ _xlfn.DAYS(L26,K26), TODAY()&lt;=L26), TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N26" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="N26" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L26, H26&lt;1),M26), -1, IF(H26=1, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="P26" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
@@ -8175,43 +8394,45 @@
     </row>
     <row r="27" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="B27" s="161" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118" t="s">
+      <c r="B27" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="161" t="s">
+      <c r="F27" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="139">
+      <c r="H27" s="130">
+        <v>1</v>
+      </c>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="150">
+        <v>45712</v>
+      </c>
+      <c r="L27" s="150">
+        <v>45714</v>
+      </c>
+      <c r="M27" s="75" t="b">
+        <f ca="1">IF(AND(H27 &lt;  _xlfn.DAYS(TODAY(), K27)/ _xlfn.DAYS(L27,K27), TODAY()&lt;=L27), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="172">
-        <v>45719</v>
-      </c>
-      <c r="L27" s="172">
-        <v>45721</v>
-      </c>
-      <c r="M27" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N27" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="N27" s="82" t="b">
+      <c r="O27" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L27, H27&lt;1),M27), -1, IF(H27=1, 1, 0))</f>
         <v>1</v>
-      </c>
-      <c r="O27" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>0</v>
       </c>
       <c r="P27" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -8220,47 +8441,45 @@
     </row>
     <row r="28" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="49" t="s">
+      <c r="B28" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="67">
+      <c r="G28" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="66">
         <v>0</v>
       </c>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="81">
-        <v>45726</v>
-      </c>
-      <c r="L28" s="81">
-        <v>45731</v>
-      </c>
-      <c r="M28" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="75" t="e">
+        <f ca="1">IF(AND(H28 &lt;  _xlfn.DAYS(TODAY(), K28)/ _xlfn.DAYS(L28,K28), TODAY()&lt;=L28), TRUE, FALSE)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="N28" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="O28" s="39" t="e">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L28, H28&lt;1),M28), -1, IF(H28=1, 1, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="2" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
@@ -8405,41 +8624,43 @@
     </row>
     <row r="29" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="84" t="s">
+      <c r="B29" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="67">
+      <c r="G29" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="66">
         <v>0</v>
       </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="76" t="e">
-        <f t="shared" ca="1" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="82" t="b">
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="80">
+        <v>45720</v>
+      </c>
+      <c r="L29" s="80">
+        <v>45737</v>
+      </c>
+      <c r="M29" s="75" t="b">
+        <f ca="1">IF(AND(H29 &lt;  _xlfn.DAYS(TODAY(), K29)/ _xlfn.DAYS(L29,K29), TODAY()&lt;=L29), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O29" s="40" t="e">
-        <f t="shared" ca="1" si="68"/>
-        <v>#DIV/0!</v>
+      <c r="O29" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L29, H29&lt;1),M29), -1, IF(H29=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="24"/>
@@ -8585,42 +8806,44 @@
     </row>
     <row r="30" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="164" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="131" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" s="97">
+      <c r="B30" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="66">
         <v>0</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="91">
-        <v>45720</v>
-      </c>
-      <c r="L30" s="91">
-        <v>45724</v>
-      </c>
-      <c r="M30" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="80">
+        <v>45748</v>
+      </c>
+      <c r="L30" s="80">
+        <v>45778</v>
+      </c>
+      <c r="M30" s="75" t="b">
+        <f ca="1">IF(AND(H30 &lt;  _xlfn.DAYS(TODAY(), K30)/ _xlfn.DAYS(L30,K30), TODAY()&lt;=L30), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="82" t="b">
+      <c r="N30" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O30" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O30" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L30, H30&lt;1),M30), -1, IF(H30=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
@@ -8767,42 +8990,42 @@
     </row>
     <row r="31" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="67">
+      <c r="B31" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="66">
         <v>0</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="81">
-        <v>45768</v>
-      </c>
-      <c r="L31" s="81">
-        <v>45772</v>
-      </c>
-      <c r="M31" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="80">
+        <v>45729</v>
+      </c>
+      <c r="L31" s="80">
+        <v>45731</v>
+      </c>
+      <c r="M31" s="75" t="b">
+        <f ca="1">IF(AND(H31 &lt;  _xlfn.DAYS(TODAY(), K31)/ _xlfn.DAYS(L31,K31), TODAY()&lt;=L31), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="82" t="b">
+      <c r="N31" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O31" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O31" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L31, H31&lt;1),M31), -1, IF(H31=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P31" s="2"/>
@@ -8949,43 +9172,47 @@
     </row>
     <row r="32" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="66" t="s">
+      <c r="B32" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="67">
-        <v>0.8</v>
-      </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="81">
-        <v>45775</v>
-      </c>
-      <c r="L32" s="81">
-        <v>45777</v>
-      </c>
-      <c r="M32" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="H32" s="27">
+        <v>1</v>
+      </c>
+      <c r="I32" s="80">
+        <v>45705</v>
+      </c>
+      <c r="J32" s="80">
+        <v>45709</v>
+      </c>
+      <c r="K32" s="80">
+        <v>45705</v>
+      </c>
+      <c r="L32" s="80">
+        <v>45709</v>
+      </c>
+      <c r="M32" s="75" t="b">
+        <f ca="1">IF(AND(H32 &lt;  _xlfn.DAYS(TODAY(), K32)/ _xlfn.DAYS(L32,K32), TODAY()&lt;=L32), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="82" t="b">
+      <c r="N32" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L32, H32&lt;1),M32), -1, IF(H32=1, 1, 0))</f>
         <v>1</v>
-      </c>
-      <c r="O32" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>0</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="24"/>
@@ -9131,47 +9358,47 @@
     </row>
     <row r="33" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="48" t="s">
+      <c r="B33" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81">
-        <v>45777</v>
-      </c>
-      <c r="L33" s="81">
-        <v>45778</v>
-      </c>
-      <c r="M33" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="H33" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="80">
+        <v>45732</v>
+      </c>
+      <c r="L33" s="80">
+        <v>45736</v>
+      </c>
+      <c r="M33" s="75" t="b">
+        <f ca="1">IF(AND(H33 &lt;  _xlfn.DAYS(TODAY(), K33)/ _xlfn.DAYS(L33,K33), TODAY()&lt;=L33), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="N33" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L33, H33&lt;1),M33), -1, IF(H33=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P33" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
@@ -9316,42 +9543,46 @@
     </row>
     <row r="34" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="167" t="s">
+      <c r="B34" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="66">
         <v>1</v>
       </c>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="81">
-        <v>45777</v>
-      </c>
-      <c r="L34" s="81">
-        <v>45778</v>
-      </c>
-      <c r="M34" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I34" s="96">
+        <v>45705</v>
+      </c>
+      <c r="J34" s="96">
+        <v>45709</v>
+      </c>
+      <c r="K34" s="80">
+        <v>45749</v>
+      </c>
+      <c r="L34" s="80">
+        <v>45751</v>
+      </c>
+      <c r="M34" s="75" t="b">
+        <f ca="1">IF(AND(H34 &lt;  _xlfn.DAYS(TODAY(), K34)/ _xlfn.DAYS(L34,K34), TODAY()&lt;=L34), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="N34" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L34, H34&lt;1),M34), -1, IF(H34=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P34" s="2"/>
@@ -9498,42 +9729,44 @@
     </row>
     <row r="35" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="98">
+      <c r="B35" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="93">
         <v>0</v>
       </c>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="81">
-        <v>45777</v>
-      </c>
-      <c r="L35" s="81">
-        <v>45779</v>
-      </c>
-      <c r="M35" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="80">
+        <v>45733</v>
+      </c>
+      <c r="L35" s="80">
+        <v>45809</v>
+      </c>
+      <c r="M35" s="75" t="b">
+        <f ca="1">IF(AND(H35 &lt;  _xlfn.DAYS(TODAY(), K35)/ _xlfn.DAYS(L35,K35), TODAY()&lt;=L35), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="82" t="b">
+      <c r="N35" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O35" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O35" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L35, H35&lt;1),M35), -1, IF(H35=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P35" s="2"/>
@@ -9680,47 +9913,49 @@
     </row>
     <row r="36" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="49" t="s">
+      <c r="B36" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" s="67">
+      <c r="G36" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="86">
         <v>0</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="81">
-        <v>45777</v>
-      </c>
-      <c r="L36" s="81">
-        <v>45780</v>
-      </c>
-      <c r="M36" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="80">
+        <v>45733</v>
+      </c>
+      <c r="L36" s="80">
+        <v>45825</v>
+      </c>
+      <c r="M36" s="75" t="b">
+        <f ca="1">IF(AND(H36 &lt;  _xlfn.DAYS(TODAY(), K36)/ _xlfn.DAYS(L36,K36), TODAY()&lt;=L36), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="82" t="b">
+      <c r="N36" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O36" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O36" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L36, H36&lt;1),M36), -1, IF(H36=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P36" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
@@ -9865,42 +10100,42 @@
     </row>
     <row r="37" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="86" t="s">
+      <c r="B37" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="H37" s="67">
+      <c r="H37" s="66">
         <v>0</v>
       </c>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="81">
-        <v>45720</v>
-      </c>
-      <c r="L37" s="81">
-        <v>45730</v>
-      </c>
-      <c r="M37" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="80">
+        <v>45740</v>
+      </c>
+      <c r="L37" s="80">
+        <v>45744</v>
+      </c>
+      <c r="M37" s="75" t="b">
+        <f ca="1">IF(AND(H37 &lt;  _xlfn.DAYS(TODAY(), K37)/ _xlfn.DAYS(L37,K37), TODAY()&lt;=L37), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="82" t="b">
+      <c r="N37" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O37" s="40">
-        <f t="shared" ca="1" si="68"/>
+      <c r="O37" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L37, H37&lt;1),M37), -1, IF(H37=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P37" s="2"/>
@@ -10047,47 +10282,43 @@
     </row>
     <row r="38" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49" t="s">
+      <c r="B38" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="50" t="s">
+      <c r="F38" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="67">
+      <c r="H38" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="80">
+        <v>45740</v>
+      </c>
+      <c r="L38" s="80">
+        <v>45744</v>
+      </c>
+      <c r="M38" s="75" t="b">
+        <f ca="1">IF(AND(H38 &lt;  _xlfn.DAYS(TODAY(), K38)/ _xlfn.DAYS(L38,K38), TODAY()&lt;=L38), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="I38" s="78">
-        <v>45705</v>
-      </c>
-      <c r="J38" s="78">
-        <v>45709</v>
-      </c>
-      <c r="K38" s="81">
-        <v>45786</v>
-      </c>
-      <c r="L38" s="81">
-        <v>45790</v>
-      </c>
-      <c r="M38" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="O38" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L38, H38&lt;1),M38), -1, IF(H38=1, 1, 0))</f>
         <v>0</v>
-      </c>
-      <c r="N38" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="40">
-        <f t="shared" ca="1" si="68"/>
-        <v>1</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="24"/>
@@ -10233,42 +10464,42 @@
     </row>
     <row r="39" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49" t="s">
+      <c r="B39" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="86" t="s">
+      <c r="G39" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="67">
+      <c r="H39" s="66">
         <v>0</v>
       </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="81">
-        <v>45789</v>
-      </c>
-      <c r="L39" s="81">
-        <v>45792</v>
-      </c>
-      <c r="M39" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="80">
+        <v>45744</v>
+      </c>
+      <c r="L39" s="80">
+        <v>45748</v>
+      </c>
+      <c r="M39" s="75" t="b">
+        <f ca="1">IF(AND(H39 &lt;  _xlfn.DAYS(TODAY(), K39)/ _xlfn.DAYS(L39,K39), TODAY()&lt;=L39), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="82" t="b">
+      <c r="N39" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O39" s="40">
-        <f t="shared" ref="O39:O60" ca="1" si="70">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
+      <c r="O39" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P39" s="2"/>
@@ -10415,44 +10646,44 @@
     </row>
     <row r="40" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="67">
+      <c r="B40" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="66">
         <v>0</v>
       </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="81">
-        <v>45796</v>
-      </c>
-      <c r="L40" s="81">
-        <v>45800</v>
-      </c>
-      <c r="M40" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="80">
+        <v>45733</v>
+      </c>
+      <c r="L40" s="80">
+        <v>45825</v>
+      </c>
+      <c r="M40" s="75" t="b">
+        <f ca="1">IF(AND(H40 &lt;  _xlfn.DAYS(TODAY(), K40)/ _xlfn.DAYS(L40,K40), TODAY()&lt;=L40), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="82" t="b">
+      <c r="N40" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O40" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O40" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L40, H40&lt;1),M40), -1, IF(H40=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P40" s="2"/>
@@ -10599,49 +10830,47 @@
     </row>
     <row r="41" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="49" t="s">
+      <c r="B41" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="86" t="s">
-        <v>195</v>
-      </c>
-      <c r="H41" s="67">
+      <c r="G41" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="66">
         <v>0</v>
       </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="81">
-        <v>45803</v>
-      </c>
-      <c r="L41" s="81">
-        <v>45807</v>
-      </c>
-      <c r="M41" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="80">
+        <v>45735</v>
+      </c>
+      <c r="L41" s="80">
+        <v>45741</v>
+      </c>
+      <c r="M41" s="75" t="b">
+        <f ca="1">IF(AND(H41 &lt;  _xlfn.DAYS(TODAY(), K41)/ _xlfn.DAYS(L41,K41), TODAY()&lt;=L41), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="82" t="b">
+      <c r="N41" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O41" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O41" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L41, H41&lt;1),M41), -1, IF(H41=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P41" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
@@ -10786,49 +11015,49 @@
     </row>
     <row r="42" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="H42" s="87">
+      <c r="B42" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="95">
+        <v>45719</v>
+      </c>
+      <c r="J42" s="95"/>
+      <c r="K42" s="89">
+        <v>45748</v>
+      </c>
+      <c r="L42" s="89">
+        <v>45762</v>
+      </c>
+      <c r="M42" s="75" t="b">
+        <f ca="1">IF(AND(H42 &lt;  _xlfn.DAYS(TODAY(), K42)/ _xlfn.DAYS(L42,K42), TODAY()&lt;=L42), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="90">
-        <v>45826</v>
-      </c>
-      <c r="L42" s="90">
-        <v>45828</v>
-      </c>
-      <c r="M42" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N42" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="N42" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O42" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L42, H42&lt;1),M42), -1, IF(H42=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P42" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -10973,49 +11202,47 @@
     </row>
     <row r="43" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="83" t="s">
+      <c r="B43" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="87">
+      <c r="H43" s="66">
         <v>0</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="90">
-        <v>45831</v>
-      </c>
-      <c r="L43" s="90">
-        <v>45838</v>
-      </c>
-      <c r="M43" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="80">
+        <v>45749</v>
+      </c>
+      <c r="L43" s="80">
+        <v>45751</v>
+      </c>
+      <c r="M43" s="75" t="b">
+        <f ca="1">IF(AND(H43 &lt;  _xlfn.DAYS(TODAY(), K43)/ _xlfn.DAYS(L43,K43), TODAY()&lt;=L43), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="82" t="b">
+      <c r="N43" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O43" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O43" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L43, H43&lt;1),M43), -1, IF(H43=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P43" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
@@ -11160,42 +11387,42 @@
     </row>
     <row r="44" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="164" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="97">
+      <c r="B44" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="66">
         <v>0</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="91">
-        <v>45810</v>
-      </c>
-      <c r="L44" s="91">
-        <v>45812</v>
-      </c>
-      <c r="M44" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="80">
+        <v>45754</v>
+      </c>
+      <c r="L44" s="80">
+        <v>45758</v>
+      </c>
+      <c r="M44" s="75" t="b">
+        <f ca="1">IF(AND(H44 &lt;  _xlfn.DAYS(TODAY(), K44)/ _xlfn.DAYS(L44,K44), TODAY()&lt;=L44), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="82" t="b">
+      <c r="N44" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O44" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O44" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L44, H44&lt;1),M44), -1, IF(H44=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P44" s="2"/>
@@ -11342,49 +11569,49 @@
     </row>
     <row r="45" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="H45" s="87">
+      <c r="B45" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="66">
         <v>0</v>
       </c>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="81">
-        <v>45813</v>
-      </c>
-      <c r="L45" s="81">
-        <v>45825</v>
-      </c>
-      <c r="M45" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="80">
+        <v>45761</v>
+      </c>
+      <c r="L45" s="80">
+        <v>45765</v>
+      </c>
+      <c r="M45" s="75" t="b">
+        <f ca="1">IF(AND(H45 &lt;  _xlfn.DAYS(TODAY(), K45)/ _xlfn.DAYS(L45,K45), TODAY()&lt;=L45), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N45" s="82" t="b">
+      <c r="N45" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O45" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O45" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L45, H45&lt;1),M45), -1, IF(H45=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45:P51" si="71">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
+        <f t="shared" ref="P45:P51" si="68">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>5</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
@@ -11529,49 +11756,49 @@
     </row>
     <row r="46" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
-      <c r="B46" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="50" t="s">
+      <c r="B46" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="H46" s="67">
+      <c r="G46" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="66">
+        <v>1</v>
+      </c>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="80">
+        <v>45712</v>
+      </c>
+      <c r="L46" s="80">
+        <v>45714</v>
+      </c>
+      <c r="M46" s="75" t="b">
+        <f ca="1">IF(AND(H46 &lt;  _xlfn.DAYS(TODAY(), K46)/ _xlfn.DAYS(L46,K46), TODAY()&lt;=L46), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="81">
-        <v>45813</v>
-      </c>
-      <c r="L46" s="81">
-        <v>45825</v>
-      </c>
-      <c r="M46" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N46" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="N46" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+      <c r="O46" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L46, H46&lt;1),M46), -1, IF(H46=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="71"/>
-        <v>13</v>
+        <f t="shared" si="68"/>
+        <v>3</v>
       </c>
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
@@ -11716,47 +11943,49 @@
     </row>
     <row r="47" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
-      <c r="B47" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="67">
+      <c r="B47" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="66">
         <v>0</v>
       </c>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="81">
-        <v>45717</v>
-      </c>
-      <c r="L47" s="81">
-        <v>45723</v>
-      </c>
-      <c r="M47" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="80">
+        <v>45748</v>
+      </c>
+      <c r="L47" s="80">
+        <v>45778</v>
+      </c>
+      <c r="M47" s="75" t="b">
+        <f ca="1">IF(AND(H47 &lt;  _xlfn.DAYS(TODAY(), K47)/ _xlfn.DAYS(L47,K47), TODAY()&lt;=L47), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="82" t="b">
+      <c r="N47" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O47" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O47" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L47, H47&lt;1),M47), -1, IF(H47=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="71"/>
-        <v>7</v>
+        <f t="shared" si="68"/>
+        <v>31</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
@@ -11901,49 +12130,47 @@
     </row>
     <row r="48" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
-      <c r="B48" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" s="67">
+      <c r="B48" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="66">
         <v>0</v>
       </c>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="81">
-        <v>45730</v>
-      </c>
-      <c r="L48" s="81">
-        <v>45746</v>
-      </c>
-      <c r="M48" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="80">
+        <v>45748</v>
+      </c>
+      <c r="L48" s="80">
+        <v>45754</v>
+      </c>
+      <c r="M48" s="75" t="b">
+        <f ca="1">IF(AND(H48 &lt;  _xlfn.DAYS(TODAY(), K48)/ _xlfn.DAYS(L48,K48), TODAY()&lt;=L48), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="82" t="b">
+      <c r="N48" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O48" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O48" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L48, H48&lt;1),M48), -1, IF(H48=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="71"/>
-        <v>17</v>
+        <f t="shared" si="68"/>
+        <v>7</v>
       </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
@@ -12088,47 +12315,47 @@
     </row>
     <row r="49" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="B49" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="97">
+      <c r="B49" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80">
+        <v>45777</v>
+      </c>
+      <c r="L49" s="80">
+        <v>45778</v>
+      </c>
+      <c r="M49" s="75" t="b">
+        <f ca="1">IF(AND(H49 &lt;  _xlfn.DAYS(TODAY(), K49)/ _xlfn.DAYS(L49,K49), TODAY()&lt;=L49), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="91">
-        <v>45716</v>
-      </c>
-      <c r="L49" s="91">
-        <v>45730</v>
-      </c>
-      <c r="M49" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N49" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L49, H49&lt;1),M49), -1, IF(H49=1, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="N49" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
       <c r="P49" s="2">
-        <f t="shared" si="71"/>
-        <v>15</v>
+        <f t="shared" si="68"/>
+        <v>2</v>
       </c>
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
@@ -12273,44 +12500,45 @@
     </row>
     <row r="50" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="B50" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" s="131" t="s">
+      <c r="B50" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="97">
-        <v>0.8</v>
-      </c>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="L50" s="100">
-        <v>45716</v>
-      </c>
-      <c r="M50" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="N50" s="82" t="b">
+      <c r="H50" s="66">
         <v>0</v>
       </c>
-      <c r="O50" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>-1</v>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="80">
+        <v>45778</v>
+      </c>
+      <c r="L50" s="80">
+        <v>45792</v>
+      </c>
+      <c r="M50" s="75" t="b">
+        <f ca="1">IF(AND(H50 &lt;  _xlfn.DAYS(TODAY(), K50)/ _xlfn.DAYS(L50,K50), TODAY()&lt;=L50), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L50, H50&lt;1),M50), -1, IF(H50=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="24"/>
@@ -12456,49 +12684,53 @@
     </row>
     <row r="51" spans="1:156" s="22" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
-      <c r="B51" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="97">
-        <v>0.4</v>
-      </c>
-      <c r="I51" s="100">
-        <v>45714</v>
-      </c>
-      <c r="J51" s="100"/>
-      <c r="K51" s="91">
-        <v>45709</v>
-      </c>
-      <c r="L51" s="91">
-        <v>45719</v>
-      </c>
-      <c r="M51" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="N51" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>-1</v>
+      <c r="B51" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="126">
+        <v>0</v>
+      </c>
+      <c r="I51" s="134">
+        <v>45809</v>
+      </c>
+      <c r="J51" s="134">
+        <v>45833</v>
+      </c>
+      <c r="K51" s="145">
+        <v>45809</v>
+      </c>
+      <c r="L51" s="145">
+        <v>45833</v>
+      </c>
+      <c r="M51" s="75" t="b">
+        <f ca="1">IF(AND(H51 &lt;  _xlfn.DAYS(TODAY(), K51)/ _xlfn.DAYS(L51,K51), TODAY()&lt;=L51), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L51, H51&lt;1),M51), -1, IF(H51=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="71"/>
-        <v>11</v>
+        <f t="shared" si="68"/>
+        <v>25</v>
       </c>
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
@@ -12643,43 +12875,45 @@
     </row>
     <row r="52" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="131" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="97">
-        <v>0.3</v>
-      </c>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="91">
-        <v>45712</v>
-      </c>
-      <c r="L52" s="91">
-        <v>45725</v>
-      </c>
-      <c r="M52" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="B52" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="27">
         <v>1</v>
       </c>
-      <c r="N52" s="82" t="b">
+      <c r="I52" s="80">
+        <v>45710</v>
+      </c>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80">
+        <v>45710</v>
+      </c>
+      <c r="L52" s="80">
+        <v>45711</v>
+      </c>
+      <c r="M52" s="75" t="b">
+        <f ca="1">IF(AND(H52 &lt;  _xlfn.DAYS(TODAY(), K52)/ _xlfn.DAYS(L52,K52), TODAY()&lt;=L52), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>-1</v>
+      <c r="N52" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L52, H52&lt;1),M52), -1, IF(H52=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="24"/>
@@ -12825,42 +13059,44 @@
     </row>
     <row r="53" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49" t="s">
+      <c r="B53" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="83" t="s">
+      <c r="F53" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="81">
-        <v>45727</v>
-      </c>
-      <c r="L53" s="81">
-        <v>45737</v>
-      </c>
-      <c r="M53" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="H53" s="66">
         <v>0</v>
       </c>
-      <c r="N53" s="82" t="b">
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="80">
+        <v>45786</v>
+      </c>
+      <c r="L53" s="80">
+        <v>45790</v>
+      </c>
+      <c r="M53" s="75" t="b">
+        <f ca="1">IF(AND(H53 &lt;  _xlfn.DAYS(TODAY(), K53)/ _xlfn.DAYS(L53,K53), TODAY()&lt;=L53), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O53" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="N53" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L53, H53&lt;1),M53), -1, IF(H53=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P53" s="2"/>
@@ -13007,42 +13243,44 @@
     </row>
     <row r="54" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
-      <c r="B54" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="81">
-        <v>45737</v>
-      </c>
-      <c r="L54" s="81">
-        <v>45744</v>
-      </c>
-      <c r="M54" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="B54" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="126">
         <v>0</v>
       </c>
-      <c r="N54" s="82" t="b">
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="145">
+        <v>45813</v>
+      </c>
+      <c r="L54" s="145">
+        <v>45818</v>
+      </c>
+      <c r="M54" s="75" t="b">
+        <f ca="1">IF(AND(H54 &lt;  _xlfn.DAYS(TODAY(), K54)/ _xlfn.DAYS(L54,K54), TODAY()&lt;=L54), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="N54" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L54, H54&lt;1),M54), -1, IF(H54=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P54" s="2"/>
@@ -13189,45 +13427,43 @@
     </row>
     <row r="55" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
-      <c r="B55" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="49" t="s">
+      <c r="B55" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="67">
+      <c r="G55" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="27">
+        <v>1</v>
+      </c>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80">
+        <v>45740</v>
+      </c>
+      <c r="L55" s="80">
+        <v>45742</v>
+      </c>
+      <c r="M55" s="75" t="b">
+        <f ca="1">IF(AND(H55 &lt;  _xlfn.DAYS(TODAY(), K55)/ _xlfn.DAYS(L55,K55), TODAY()&lt;=L55), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="81">
-        <v>45748</v>
-      </c>
-      <c r="L55" s="81">
-        <v>45809</v>
-      </c>
-      <c r="M55" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N55" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="N55" s="82" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" s="40">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+      <c r="O55" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L55, H55&lt;1),M55), -1, IF(H55=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="24"/>
@@ -13373,44 +13609,44 @@
     </row>
     <row r="56" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="66">
         <v>0</v>
       </c>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="81">
-        <v>45748</v>
-      </c>
-      <c r="L56" s="81">
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="80">
+        <v>45792</v>
+      </c>
+      <c r="L56" s="80">
         <v>45809</v>
       </c>
-      <c r="M56" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="M56" s="75" t="b">
+        <f ca="1">IF(AND(H56 &lt;  _xlfn.DAYS(TODAY(), K56)/ _xlfn.DAYS(L56,K56), TODAY()&lt;=L56), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="82" t="b">
+      <c r="N56" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O56" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O56" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L56, H56&lt;1),M56), -1, IF(H56=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P56" s="2"/>
@@ -13557,44 +13793,44 @@
     </row>
     <row r="57" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
-      <c r="B57" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="86" t="s">
+      <c r="B57" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="67">
+      <c r="H57" s="66">
         <v>0</v>
       </c>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="81">
-        <v>45748</v>
-      </c>
-      <c r="L57" s="81">
-        <v>45809</v>
-      </c>
-      <c r="M57" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="80">
+        <v>45796</v>
+      </c>
+      <c r="L57" s="80">
+        <v>45800</v>
+      </c>
+      <c r="M57" s="75" t="b">
+        <f ca="1">IF(AND(H57 &lt;  _xlfn.DAYS(TODAY(), K57)/ _xlfn.DAYS(L57,K57), TODAY()&lt;=L57), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="82" t="b">
+      <c r="N57" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O57" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O57" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L57, H57&lt;1),M57), -1, IF(H57=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P57" s="2"/>
@@ -13741,44 +13977,44 @@
     </row>
     <row r="58" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
-      <c r="B58" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="50" t="s">
+      <c r="B58" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="126">
         <v>0</v>
       </c>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="81">
-        <v>45786</v>
-      </c>
-      <c r="L58" s="81">
-        <v>45790</v>
-      </c>
-      <c r="M58" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="145">
+        <v>45818</v>
+      </c>
+      <c r="L58" s="145">
+        <v>45825</v>
+      </c>
+      <c r="M58" s="75" t="b">
+        <f ca="1">IF(AND(H58 &lt;  _xlfn.DAYS(TODAY(), K58)/ _xlfn.DAYS(L58,K58), TODAY()&lt;=L58), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="82" t="b">
+      <c r="N58" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O58" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O58" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L58, H58&lt;1),M58), -1, IF(H58=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P58" s="2"/>
@@ -13925,42 +14161,44 @@
     </row>
     <row r="59" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
-      <c r="B59" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="67">
+      <c r="B59" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="86">
         <v>0</v>
       </c>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="81">
-        <v>45787</v>
-      </c>
-      <c r="L59" s="81">
-        <v>45789</v>
-      </c>
-      <c r="M59" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="88">
+        <v>45826</v>
+      </c>
+      <c r="L59" s="88">
+        <v>45828</v>
+      </c>
+      <c r="M59" s="75" t="b">
+        <f ca="1">IF(AND(H59 &lt;  _xlfn.DAYS(TODAY(), K59)/ _xlfn.DAYS(L59,K59), TODAY()&lt;=L59), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="82" t="b">
+      <c r="N59" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O59" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O59" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L59, H59&lt;1),M59), -1, IF(H59=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P59" s="2"/>
@@ -14107,48 +14345,48 @@
     </row>
     <row r="60" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
-      <c r="B60" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="135">
+      <c r="B60" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="86">
         <v>0</v>
       </c>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="155">
-        <v>45818</v>
-      </c>
-      <c r="L60" s="155">
-        <v>45825</v>
-      </c>
-      <c r="M60" s="76" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="88">
+        <v>45831</v>
+      </c>
+      <c r="L60" s="88">
+        <v>45838</v>
+      </c>
+      <c r="M60" s="75" t="b">
+        <f ca="1">IF(AND(H60 &lt;  _xlfn.DAYS(TODAY(), K60)/ _xlfn.DAYS(L60,K60), TODAY()&lt;=L60), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="82" t="b">
+      <c r="N60" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O60" s="40">
-        <f t="shared" ca="1" si="70"/>
+      <c r="O60" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L60, H60&lt;1),M60), -1, IF(H60=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:P69" si="72">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P60:P69" si="69">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>8</v>
       </c>
       <c r="Q60" s="24"/>
@@ -14294,24 +14532,24 @@
     </row>
     <row r="61" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115" t="s">
+      <c r="B61" s="106"/>
+      <c r="C61" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="151"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="151"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="141"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
       <c r="O61" s="12"/>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q61" s="24"/>
@@ -14457,24 +14695,24 @@
     </row>
     <row r="62" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="120" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="120"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="40"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="143"/>
+      <c r="L62" s="143"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="39"/>
       <c r="P62" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q62" s="24"/>
@@ -14620,24 +14858,24 @@
     </row>
     <row r="63" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="120" t="s">
+      <c r="B63" s="90"/>
+      <c r="C63" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="40"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="143"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="39"/>
       <c r="P63" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q63" s="24"/>
@@ -14783,24 +15021,24 @@
     </row>
     <row r="64" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110" t="s">
+      <c r="B64" s="101"/>
+      <c r="C64" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="154"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="40"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="39"/>
       <c r="P64" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q64" s="24"/>
@@ -14946,24 +15184,24 @@
     </row>
     <row r="65" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46" t="s">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="40"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="39"/>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q65" s="24"/>
@@ -15109,24 +15347,24 @@
     </row>
     <row r="66" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="46"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="40"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="39"/>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q66" s="24"/>
@@ -15272,24 +15510,24 @@
     </row>
     <row r="67" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46" t="s">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="46"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="40"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="39"/>
       <c r="P67" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q67" s="24"/>
@@ -15435,24 +15673,24 @@
     </row>
     <row r="68" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="46" t="s">
+      <c r="B68" s="48"/>
+      <c r="C68" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
       <c r="K68" s="28"/>
       <c r="L68" s="28"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="40"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="39"/>
       <c r="P68" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q68" s="24"/>
@@ -15598,24 +15836,24 @@
     </row>
     <row r="69" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
-      <c r="B69" s="118"/>
-      <c r="C69" s="119" t="s">
+      <c r="B69" s="109"/>
+      <c r="C69" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="119"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="40"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="139"/>
+      <c r="J69" s="139"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="39"/>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="Q69" s="29"/>
@@ -15761,24 +15999,24 @@
     </row>
     <row r="70" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="116" t="s">
+      <c r="B70" s="105"/>
+      <c r="C70" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="136"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="40"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="135"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="39"/>
       <c r="P70" s="2" t="str">
-        <f t="shared" ref="P70:P74" si="73">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P70:P74" si="70">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="Q70" s="24"/>
@@ -15924,24 +16162,24 @@
     </row>
     <row r="71" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
-      <c r="B71" s="116"/>
-      <c r="C71" s="116" t="s">
+      <c r="B71" s="107"/>
+      <c r="C71" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="116"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="40"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="135"/>
+      <c r="J71" s="135"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="39"/>
       <c r="P71" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q71" s="24"/>
@@ -16087,24 +16325,24 @@
     </row>
     <row r="72" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117" t="s">
+      <c r="B72" s="108"/>
+      <c r="C72" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="159"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="40"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="138"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="149"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
+      <c r="O72" s="39"/>
       <c r="P72" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q72" s="24"/>
@@ -16250,22 +16488,22 @@
     </row>
     <row r="73" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
       <c r="O73" s="12"/>
       <c r="P73" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q73" s="21"/>
@@ -16411,24 +16649,24 @@
     </row>
     <row r="74" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
       <c r="O74" s="12"/>
       <c r="P74" s="3" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q74" s="30"/>
@@ -16574,39 +16812,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:O74" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:O74">
-      <sortCondition ref="G5:G74"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:O58">
+      <sortCondition ref="K5:K74"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:L16">
-    <sortCondition ref="H9:H16"/>
-  </sortState>
   <mergeCells count="41">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="EM4:ES4"/>
     <mergeCell ref="ET4:EZ4"/>
     <mergeCell ref="AI1:AO1"/>
@@ -16623,6 +16833,31 @@
     <mergeCell ref="CI4:CO4"/>
     <mergeCell ref="CP4:CV4"/>
     <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H36:H74 H7:H34">
@@ -16677,7 +16912,7 @@
       <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="12">
+  <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Y2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -16853,6 +17088,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46C1742-B028-5D4B-B40E-405E37E7C659}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="66" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="66" style="177"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="176"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="176"/>
+    </row>
+    <row r="3" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A3" s="176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="176"/>
+    </row>
+    <row r="5" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="176" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="176"/>
+    </row>
+    <row r="7" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A7" s="176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="176"/>
+    </row>
+    <row r="9" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="176"/>
+    </row>
+    <row r="11" spans="1:1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A11" s="176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="176"/>
+    </row>
+    <row r="13" spans="1:1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A13" s="176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="176"/>
+    </row>
+    <row r="15" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A15" s="176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="176"/>
+    </row>
+    <row r="17" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A17" s="176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="176"/>
+    </row>
+    <row r="19" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A19" s="176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="176"/>
+    </row>
+    <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="176"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="176"/>
+    </row>
+    <row r="24" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A24" s="176" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -16983,15 +17330,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -17009,6 +17347,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17324,14 +17671,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17346,6 +17685,14 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt onlinestss.com.xlsx
+++ b/Gantt onlinestss.com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discovery-air/Dropbox/Work/MUGI/SS/project/onlinestss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8913998-1C66-634C-9BEF-ECC4343FDB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D714138-0144-314A-BB84-0168993EDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="500" windowWidth="26360" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1362,6 +1362,9 @@
       </rPr>
       <t xml:space="preserve"> – If targeting international audiences.</t>
     </r>
+  </si>
+  <si>
+    <t>TD, BP</t>
   </si>
 </sst>
 </file>
@@ -2447,55 +2450,6 @@
     <xf numFmtId="168" fontId="17" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,6 +2473,55 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3111,14 +3114,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:EZ74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3172,18 +3175,18 @@
       <c r="V1" s="162"/>
       <c r="W1" s="162"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="160">
+      <c r="Y1" s="163">
         <v>45705</v>
       </c>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
       <c r="AI1" s="161" t="s">
         <v>39</v>
       </c>
@@ -3194,18 +3197,18 @@
       <c r="AN1" s="162"/>
       <c r="AO1" s="162"/>
       <c r="AP1" s="13"/>
-      <c r="AQ1" s="160">
+      <c r="AQ1" s="163">
         <v>45838</v>
       </c>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="159"/>
-      <c r="AZ1" s="159"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
+      <c r="AU1" s="164"/>
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="164"/>
+      <c r="AX1" s="164"/>
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="164"/>
     </row>
     <row r="2" spans="1:156" ht="23" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="59"/>
@@ -3227,41 +3230,41 @@
       <c r="V2" s="162"/>
       <c r="W2" s="162"/>
       <c r="X2" s="13"/>
-      <c r="Y2" s="158">
+      <c r="Y2" s="172">
         <v>2</v>
       </c>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="166" t="s">
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="167"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="167"/>
-      <c r="AN2" s="167"/>
-      <c r="AO2" s="167"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="168">
+      <c r="AQ2" s="167">
         <f ca="1">NETWORKDAYS(TODAY(),  Project_End, Holidays)</f>
-        <v>68</v>
-      </c>
-      <c r="AR2" s="169"/>
-      <c r="AS2" s="169"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="169"/>
-      <c r="AV2" s="169"/>
-      <c r="AW2" s="169"/>
-      <c r="AX2" s="169"/>
-      <c r="AY2" s="169"/>
-      <c r="AZ2" s="169"/>
+        <v>66</v>
+      </c>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
     </row>
     <row r="3" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -3269,11 +3272,11 @@
       <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
@@ -3298,240 +3301,240 @@
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-      <c r="Q4" s="165">
+      <c r="Q4" s="169">
         <f>Q5</f>
         <v>45712</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163">
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159">
         <f>X5</f>
         <v>45719</v>
       </c>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163">
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159">
         <f>AE5</f>
         <v>45726</v>
       </c>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163">
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="159">
         <f>AL5</f>
         <v>45733</v>
       </c>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="163">
+      <c r="AM4" s="159"/>
+      <c r="AN4" s="159"/>
+      <c r="AO4" s="159"/>
+      <c r="AP4" s="159"/>
+      <c r="AQ4" s="159"/>
+      <c r="AR4" s="159"/>
+      <c r="AS4" s="159">
         <f>AS5</f>
         <v>45740</v>
       </c>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="163">
+      <c r="AT4" s="159"/>
+      <c r="AU4" s="159"/>
+      <c r="AV4" s="159"/>
+      <c r="AW4" s="159"/>
+      <c r="AX4" s="159"/>
+      <c r="AY4" s="159"/>
+      <c r="AZ4" s="159">
         <f>AZ5</f>
         <v>45747</v>
       </c>
-      <c r="BA4" s="163"/>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="163">
+      <c r="BA4" s="159"/>
+      <c r="BB4" s="159"/>
+      <c r="BC4" s="159"/>
+      <c r="BD4" s="159"/>
+      <c r="BE4" s="159"/>
+      <c r="BF4" s="159"/>
+      <c r="BG4" s="159">
         <f>BG5</f>
         <v>45754</v>
       </c>
-      <c r="BH4" s="163"/>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="163"/>
-      <c r="BL4" s="163"/>
-      <c r="BM4" s="163"/>
-      <c r="BN4" s="163">
+      <c r="BH4" s="159"/>
+      <c r="BI4" s="159"/>
+      <c r="BJ4" s="159"/>
+      <c r="BK4" s="159"/>
+      <c r="BL4" s="159"/>
+      <c r="BM4" s="159"/>
+      <c r="BN4" s="159">
         <f>BN5</f>
         <v>45761</v>
       </c>
-      <c r="BO4" s="163"/>
-      <c r="BP4" s="163"/>
-      <c r="BQ4" s="163"/>
-      <c r="BR4" s="163"/>
-      <c r="BS4" s="163"/>
-      <c r="BT4" s="164"/>
-      <c r="BU4" s="163">
+      <c r="BO4" s="159"/>
+      <c r="BP4" s="159"/>
+      <c r="BQ4" s="159"/>
+      <c r="BR4" s="159"/>
+      <c r="BS4" s="159"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="159">
         <f>BU5</f>
         <v>45768</v>
       </c>
-      <c r="BV4" s="163"/>
-      <c r="BW4" s="163"/>
-      <c r="BX4" s="163"/>
-      <c r="BY4" s="163"/>
-      <c r="BZ4" s="163"/>
-      <c r="CA4" s="164"/>
-      <c r="CB4" s="163">
+      <c r="BV4" s="159"/>
+      <c r="BW4" s="159"/>
+      <c r="BX4" s="159"/>
+      <c r="BY4" s="159"/>
+      <c r="BZ4" s="159"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="159">
         <f>CB5</f>
         <v>45775</v>
       </c>
-      <c r="CC4" s="163"/>
-      <c r="CD4" s="163"/>
-      <c r="CE4" s="163"/>
-      <c r="CF4" s="163"/>
-      <c r="CG4" s="163"/>
-      <c r="CH4" s="164"/>
-      <c r="CI4" s="163">
+      <c r="CC4" s="159"/>
+      <c r="CD4" s="159"/>
+      <c r="CE4" s="159"/>
+      <c r="CF4" s="159"/>
+      <c r="CG4" s="159"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="159">
         <f>CI5</f>
         <v>45782</v>
       </c>
-      <c r="CJ4" s="163"/>
-      <c r="CK4" s="163"/>
-      <c r="CL4" s="163"/>
-      <c r="CM4" s="163"/>
-      <c r="CN4" s="163"/>
-      <c r="CO4" s="164"/>
-      <c r="CP4" s="163">
+      <c r="CJ4" s="159"/>
+      <c r="CK4" s="159"/>
+      <c r="CL4" s="159"/>
+      <c r="CM4" s="159"/>
+      <c r="CN4" s="159"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="159">
         <f>CP5</f>
         <v>45789</v>
       </c>
-      <c r="CQ4" s="163"/>
-      <c r="CR4" s="163"/>
-      <c r="CS4" s="163"/>
-      <c r="CT4" s="163"/>
-      <c r="CU4" s="163"/>
-      <c r="CV4" s="164"/>
-      <c r="CW4" s="163">
+      <c r="CQ4" s="159"/>
+      <c r="CR4" s="159"/>
+      <c r="CS4" s="159"/>
+      <c r="CT4" s="159"/>
+      <c r="CU4" s="159"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="159">
         <f>CW5</f>
         <v>45796</v>
       </c>
-      <c r="CX4" s="163"/>
-      <c r="CY4" s="163"/>
-      <c r="CZ4" s="163"/>
-      <c r="DA4" s="163"/>
-      <c r="DB4" s="163"/>
-      <c r="DC4" s="164"/>
-      <c r="DD4" s="163">
+      <c r="CX4" s="159"/>
+      <c r="CY4" s="159"/>
+      <c r="CZ4" s="159"/>
+      <c r="DA4" s="159"/>
+      <c r="DB4" s="159"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="159">
         <f>DD5</f>
         <v>45803</v>
       </c>
-      <c r="DE4" s="163"/>
-      <c r="DF4" s="163"/>
-      <c r="DG4" s="163"/>
-      <c r="DH4" s="163"/>
-      <c r="DI4" s="163"/>
-      <c r="DJ4" s="164"/>
-      <c r="DK4" s="163">
+      <c r="DE4" s="159"/>
+      <c r="DF4" s="159"/>
+      <c r="DG4" s="159"/>
+      <c r="DH4" s="159"/>
+      <c r="DI4" s="159"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="159">
         <f>DK5</f>
         <v>45810</v>
       </c>
-      <c r="DL4" s="163"/>
-      <c r="DM4" s="163"/>
-      <c r="DN4" s="163"/>
-      <c r="DO4" s="163"/>
-      <c r="DP4" s="163"/>
-      <c r="DQ4" s="164"/>
-      <c r="DR4" s="163">
+      <c r="DL4" s="159"/>
+      <c r="DM4" s="159"/>
+      <c r="DN4" s="159"/>
+      <c r="DO4" s="159"/>
+      <c r="DP4" s="159"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="159">
         <f>DR5</f>
         <v>45817</v>
       </c>
-      <c r="DS4" s="163"/>
-      <c r="DT4" s="163"/>
-      <c r="DU4" s="163"/>
-      <c r="DV4" s="163"/>
-      <c r="DW4" s="163"/>
-      <c r="DX4" s="164"/>
-      <c r="DY4" s="163">
+      <c r="DS4" s="159"/>
+      <c r="DT4" s="159"/>
+      <c r="DU4" s="159"/>
+      <c r="DV4" s="159"/>
+      <c r="DW4" s="159"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="159">
         <f>DY5</f>
         <v>45824</v>
       </c>
-      <c r="DZ4" s="163"/>
-      <c r="EA4" s="163"/>
-      <c r="EB4" s="163"/>
-      <c r="EC4" s="163"/>
-      <c r="ED4" s="163"/>
-      <c r="EE4" s="164"/>
-      <c r="EF4" s="163">
+      <c r="DZ4" s="159"/>
+      <c r="EA4" s="159"/>
+      <c r="EB4" s="159"/>
+      <c r="EC4" s="159"/>
+      <c r="ED4" s="159"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="159">
         <f>EF5</f>
         <v>45831</v>
       </c>
-      <c r="EG4" s="163"/>
-      <c r="EH4" s="163"/>
-      <c r="EI4" s="163"/>
-      <c r="EJ4" s="163"/>
-      <c r="EK4" s="163"/>
-      <c r="EL4" s="164"/>
-      <c r="EM4" s="163">
+      <c r="EG4" s="159"/>
+      <c r="EH4" s="159"/>
+      <c r="EI4" s="159"/>
+      <c r="EJ4" s="159"/>
+      <c r="EK4" s="159"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="159">
         <f>EM5</f>
         <v>45838</v>
       </c>
-      <c r="EN4" s="163"/>
-      <c r="EO4" s="163"/>
-      <c r="EP4" s="163"/>
-      <c r="EQ4" s="163"/>
-      <c r="ER4" s="163"/>
-      <c r="ES4" s="164"/>
-      <c r="ET4" s="163">
+      <c r="EN4" s="159"/>
+      <c r="EO4" s="159"/>
+      <c r="EP4" s="159"/>
+      <c r="EQ4" s="159"/>
+      <c r="ER4" s="159"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="159">
         <f>ET5</f>
         <v>45845</v>
       </c>
-      <c r="EU4" s="163"/>
-      <c r="EV4" s="163"/>
-      <c r="EW4" s="163"/>
-      <c r="EX4" s="163"/>
-      <c r="EY4" s="163"/>
-      <c r="EZ4" s="164"/>
+      <c r="EU4" s="159"/>
+      <c r="EV4" s="159"/>
+      <c r="EW4" s="159"/>
+      <c r="EX4" s="159"/>
+      <c r="EY4" s="159"/>
+      <c r="EZ4" s="160"/>
     </row>
-    <row r="5" spans="1:156" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="157"/>
-      <c r="B5" s="151" t="s">
+    <row r="5" spans="1:156" s="14" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="174"/>
+      <c r="B5" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="151" t="s">
+      <c r="F5" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="151" t="s">
+      <c r="H5" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="151" t="s">
+      <c r="K5" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="170" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="73"/>
@@ -4099,19 +4102,19 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="6" spans="1:156" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="157"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="153"/>
+    <row r="6" spans="1:156" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="174"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="171"/>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="Q6" s="18" t="str">
@@ -4675,7 +4678,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="99" t="s">
         <v>118</v>
@@ -4711,18 +4714,18 @@
         <v>45715</v>
       </c>
       <c r="M7" s="75" t="b">
-        <f ca="1">IF(AND(H7 &lt;  _xlfn.DAYS(TODAY(), K7)/ _xlfn.DAYS(L7,K7), TODAY()&lt;=L7), TRUE, FALSE)</f>
+        <f t="shared" ref="M7:M38" ca="1" si="67">IF(AND(H7 &lt;  _xlfn.DAYS(TODAY(), K7)/ _xlfn.DAYS(L7,K7), TODAY()&lt;=L7), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N7" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L7, H7&lt;1),M7), -1, IF(H7=1, 1, 0))</f>
+        <f t="shared" ref="O7:O38" ca="1" si="68">IF(OR(AND(TODAY()&gt;L7, H7&lt;1),M7), -1, IF(H7=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" ref="P7:P13" si="67">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P7:P13" si="69">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>11</v>
       </c>
       <c r="Q7" s="21"/>
@@ -4866,7 +4869,7 @@
       <c r="EY7" s="21"/>
       <c r="EZ7" s="21"/>
     </row>
-    <row r="8" spans="1:156" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:156" s="22" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="44" t="s">
         <v>119</v>
@@ -4881,10 +4884,10 @@
       <c r="F8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="172" t="s">
+      <c r="G8" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="173">
+      <c r="H8" s="154">
         <v>0</v>
       </c>
       <c r="I8" s="76"/>
@@ -4897,18 +4900,18 @@
         <v>45716</v>
       </c>
       <c r="M8" s="75" t="b">
-        <f ca="1">IF(AND(H8 &lt;  _xlfn.DAYS(TODAY(), K8)/ _xlfn.DAYS(L8,K8), TODAY()&lt;=L8), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N8" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L8, H8&lt;1),M8), -1, IF(H8=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>12</v>
       </c>
       <c r="Q8" s="24"/>
@@ -5052,7 +5055,7 @@
       <c r="EY8" s="24"/>
       <c r="EZ8" s="24"/>
     </row>
-    <row r="9" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="44" t="s">
         <v>120</v>
@@ -5068,17 +5071,15 @@
         <v>85</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="H9" s="64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="137">
         <v>45714</v>
       </c>
-      <c r="J9" s="137">
-        <v>45716</v>
-      </c>
+      <c r="J9" s="137"/>
       <c r="K9" s="78">
         <v>45712</v>
       </c>
@@ -5086,18 +5087,18 @@
         <v>45719</v>
       </c>
       <c r="M9" s="75" t="b">
-        <f ca="1">IF(AND(H9 &lt;  _xlfn.DAYS(TODAY(), K9)/ _xlfn.DAYS(L9,K9), TODAY()&lt;=L9), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N9" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L9, H9&lt;1),M9), -1, IF(H9=1, 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>-1</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="Q9" s="24"/>
@@ -5241,7 +5242,7 @@
       <c r="EY9" s="24"/>
       <c r="EZ9" s="24"/>
     </row>
-    <row r="10" spans="1:156" s="22" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:156" s="22" customFormat="1" ht="48" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="44" t="s">
         <v>127</v>
@@ -5262,10 +5263,10 @@
       <c r="H10" s="64">
         <v>0.6</v>
       </c>
-      <c r="I10" s="174">
+      <c r="I10" s="155">
         <v>45714</v>
       </c>
-      <c r="J10" s="174"/>
+      <c r="J10" s="155"/>
       <c r="K10" s="78">
         <v>45709</v>
       </c>
@@ -5273,18 +5274,18 @@
         <v>45731</v>
       </c>
       <c r="M10" s="75" t="b">
-        <f ca="1">IF(AND(H10 &lt;  _xlfn.DAYS(TODAY(), K10)/ _xlfn.DAYS(L10,K10), TODAY()&lt;=L10), TRUE, FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>1</v>
       </c>
       <c r="N10" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L10, H10&lt;1),M10), -1, IF(H10=1, 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>-1</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>23</v>
       </c>
       <c r="Q10" s="24"/>
@@ -5428,7 +5429,7 @@
       <c r="EY10" s="24"/>
       <c r="EZ10" s="24"/>
     </row>
-    <row r="11" spans="1:156" s="22" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:156" s="22" customFormat="1" ht="63" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="42" t="s">
         <v>122</v>
@@ -5464,18 +5465,18 @@
         <v>45709</v>
       </c>
       <c r="M11" s="75" t="b">
-        <f ca="1">IF(AND(H11 &lt;  _xlfn.DAYS(TODAY(), K11)/ _xlfn.DAYS(L11,K11), TODAY()&lt;=L11), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N11" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L11, H11&lt;1),M11), -1, IF(H11=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="Q11" s="24"/>
@@ -5619,7 +5620,7 @@
       <c r="EY11" s="24"/>
       <c r="EZ11" s="24"/>
     </row>
-    <row r="12" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="42" t="s">
         <v>123</v>
@@ -5655,18 +5656,18 @@
         <v>45709</v>
       </c>
       <c r="M12" s="75" t="b">
-        <f ca="1">IF(AND(H12 &lt;  _xlfn.DAYS(TODAY(), K12)/ _xlfn.DAYS(L12,K12), TODAY()&lt;=L12), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N12" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L12, H12&lt;1),M12), -1, IF(H12=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="Q12" s="24"/>
@@ -5810,7 +5811,7 @@
       <c r="EY12" s="24"/>
       <c r="EZ12" s="24"/>
     </row>
-    <row r="13" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="42" t="s">
         <v>124</v>
@@ -5846,18 +5847,18 @@
         <v>45709</v>
       </c>
       <c r="M13" s="75" t="b">
-        <f ca="1">IF(AND(H13 &lt;  _xlfn.DAYS(TODAY(), K13)/ _xlfn.DAYS(L13,K13), TODAY()&lt;=L13), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N13" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L13, H13&lt;1),M13), -1, IF(H13=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="Q13" s="24"/>
@@ -6001,7 +6002,7 @@
       <c r="EY13" s="24"/>
       <c r="EZ13" s="24"/>
     </row>
-    <row r="14" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="42" t="s">
         <v>125</v>
@@ -6037,14 +6038,14 @@
         <v>45709</v>
       </c>
       <c r="M14" s="75" t="b">
-        <f ca="1">IF(AND(H14 &lt;  _xlfn.DAYS(TODAY(), K14)/ _xlfn.DAYS(L14,K14), TODAY()&lt;=L14), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N14" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L14, H14&lt;1),M14), -1, IF(H14=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P14" s="2"/>
@@ -6189,7 +6190,7 @@
       <c r="EY14" s="24"/>
       <c r="EZ14" s="24"/>
     </row>
-    <row r="15" spans="1:156" s="22" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:156" s="22" customFormat="1" ht="16" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="42" t="s">
         <v>126</v>
@@ -6225,14 +6226,14 @@
         <v>45709</v>
       </c>
       <c r="M15" s="75" t="b">
-        <f ca="1">IF(AND(H15 &lt;  _xlfn.DAYS(TODAY(), K15)/ _xlfn.DAYS(L15,K15), TODAY()&lt;=L15), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N15" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L15, H15&lt;1),M15), -1, IF(H15=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P15" s="2"/>
@@ -6377,7 +6378,7 @@
       <c r="EY15" s="24"/>
       <c r="EZ15" s="24"/>
     </row>
-    <row r="16" spans="1:156" s="22" customFormat="1" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:156" s="22" customFormat="1" ht="53" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="100" t="s">
         <v>165</v>
@@ -6407,14 +6408,14 @@
         <v>45733</v>
       </c>
       <c r="M16" s="75" t="b">
-        <f ca="1">IF(AND(H16 &lt;  _xlfn.DAYS(TODAY(), K16)/ _xlfn.DAYS(L16,K16), TODAY()&lt;=L16), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>1</v>
       </c>
       <c r="N16" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L16, H16&lt;1),M16), -1, IF(H16=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P16" s="2"/>
@@ -6559,7 +6560,7 @@
       <c r="EY16" s="24"/>
       <c r="EZ16" s="24"/>
     </row>
-    <row r="17" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="44" t="s">
         <v>128</v>
@@ -6593,14 +6594,14 @@
         <v>45709</v>
       </c>
       <c r="M17" s="75" t="b">
-        <f ca="1">IF(AND(H17 &lt;  _xlfn.DAYS(TODAY(), K17)/ _xlfn.DAYS(L17,K17), TODAY()&lt;=L17), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N17" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L17, H17&lt;1),M17), -1, IF(H17=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P17" s="2"/>
@@ -6777,14 +6778,14 @@
         <v>45714</v>
       </c>
       <c r="M18" s="75" t="b">
-        <f ca="1">IF(AND(H18 &lt;  _xlfn.DAYS(TODAY(), K18)/ _xlfn.DAYS(L18,K18), TODAY()&lt;=L18), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N18" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L18, H18&lt;1),M18), -1, IF(H18=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P18" s="2"/>
@@ -6961,14 +6962,14 @@
         <v>45714</v>
       </c>
       <c r="M19" s="75" t="b">
-        <f ca="1">IF(AND(H19 &lt;  _xlfn.DAYS(TODAY(), K19)/ _xlfn.DAYS(L19,K19), TODAY()&lt;=L19), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N19" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L19, H19&lt;1),M19), -1, IF(H19=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P19" s="2"/>
@@ -7145,14 +7146,14 @@
         <v>45714</v>
       </c>
       <c r="M20" s="75" t="b">
-        <f ca="1">IF(AND(H20 &lt;  _xlfn.DAYS(TODAY(), K20)/ _xlfn.DAYS(L20,K20), TODAY()&lt;=L20), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N20" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L20, H20&lt;1),M20), -1, IF(H20=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P20" s="2"/>
@@ -7297,7 +7298,7 @@
       <c r="EY20" s="24"/>
       <c r="EZ20" s="24"/>
     </row>
-    <row r="21" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="103" t="s">
         <v>148</v>
@@ -7327,14 +7328,14 @@
         <v>45716</v>
       </c>
       <c r="M21" s="75" t="b">
-        <f ca="1">IF(AND(H21 &lt;  _xlfn.DAYS(TODAY(), K21)/ _xlfn.DAYS(L21,K21), TODAY()&lt;=L21), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N21" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O21" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L21, H21&lt;1),M21), -1, IF(H21=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P21" s="2"/>
@@ -7509,14 +7510,14 @@
         <v>45731</v>
       </c>
       <c r="M22" s="75" t="b">
-        <f ca="1">IF(AND(H22 &lt;  _xlfn.DAYS(TODAY(), K22)/ _xlfn.DAYS(L22,K22), TODAY()&lt;=L22), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N22" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L22, H22&lt;1),M22), -1, IF(H22=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
@@ -7661,7 +7662,7 @@
       <c r="EY22" s="24"/>
       <c r="EZ22" s="24"/>
     </row>
-    <row r="23" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="44" t="s">
         <v>131</v>
@@ -7691,14 +7692,14 @@
         <v>45730</v>
       </c>
       <c r="M23" s="75" t="b">
-        <f ca="1">IF(AND(H23 &lt;  _xlfn.DAYS(TODAY(), K23)/ _xlfn.DAYS(L23,K23), TODAY()&lt;=L23), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>1</v>
       </c>
       <c r="N23" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O23" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L23, H23&lt;1),M23), -1, IF(H23=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P23" s="2"/>
@@ -7843,7 +7844,7 @@
       <c r="EY23" s="24"/>
       <c r="EZ23" s="24"/>
     </row>
-    <row r="24" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="44" t="s">
         <v>130</v>
@@ -7873,15 +7874,15 @@
         <v>45728</v>
       </c>
       <c r="M24" s="75" t="b">
-        <f ca="1">IF(AND(H24 &lt;  _xlfn.DAYS(TODAY(), K24)/ _xlfn.DAYS(L24,K24), TODAY()&lt;=L24), TRUE, FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>1</v>
       </c>
       <c r="N24" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O24" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L24, H24&lt;1),M24), -1, IF(H24=1, 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="68"/>
+        <v>-1</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="24"/>
@@ -8025,7 +8026,7 @@
       <c r="EY24" s="24"/>
       <c r="EZ24" s="24"/>
     </row>
-    <row r="25" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="103" t="s">
         <v>149</v>
@@ -8055,14 +8056,14 @@
         <v>45721</v>
       </c>
       <c r="M25" s="75" t="b">
-        <f ca="1">IF(AND(H25 &lt;  _xlfn.DAYS(TODAY(), K25)/ _xlfn.DAYS(L25,K25), TODAY()&lt;=L25), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N25" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O25" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L25, H25&lt;1),M25), -1, IF(H25=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P25" s="2"/>
@@ -8207,7 +8208,7 @@
       <c r="EY25" s="24"/>
       <c r="EZ25" s="24"/>
     </row>
-    <row r="26" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="44" t="s">
         <v>129</v>
@@ -8237,14 +8238,14 @@
         <v>45737</v>
       </c>
       <c r="M26" s="75" t="b">
-        <f ca="1">IF(AND(H26 &lt;  _xlfn.DAYS(TODAY(), K26)/ _xlfn.DAYS(L26,K26), TODAY()&lt;=L26), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>1</v>
       </c>
       <c r="N26" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L26, H26&lt;1),M26), -1, IF(H26=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P26" s="2">
@@ -8392,7 +8393,7 @@
       <c r="EY26" s="24"/>
       <c r="EZ26" s="24"/>
     </row>
-    <row r="27" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="109" t="s">
         <v>162</v>
@@ -8424,14 +8425,14 @@
         <v>45714</v>
       </c>
       <c r="M27" s="75" t="b">
-        <f ca="1">IF(AND(H27 &lt;  _xlfn.DAYS(TODAY(), K27)/ _xlfn.DAYS(L27,K27), TODAY()&lt;=L27), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N27" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L27, H27&lt;1),M27), -1, IF(H27=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P27" s="2">
@@ -8439,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="48" t="s">
         <v>163</v>
@@ -8467,14 +8468,14 @@
       <c r="K28" s="80"/>
       <c r="L28" s="80"/>
       <c r="M28" s="75" t="e">
-        <f ca="1">IF(AND(H28 &lt;  _xlfn.DAYS(TODAY(), K28)/ _xlfn.DAYS(L28,K28), TODAY()&lt;=L28), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="39" t="e">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L28, H28&lt;1),M28), -1, IF(H28=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="2" t="str">
@@ -8622,7 +8623,7 @@
       <c r="EY28" s="24"/>
       <c r="EZ28" s="24"/>
     </row>
-    <row r="29" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="48" t="s">
         <v>154</v>
@@ -8652,14 +8653,14 @@
         <v>45737</v>
       </c>
       <c r="M29" s="75" t="b">
-        <f ca="1">IF(AND(H29 &lt;  _xlfn.DAYS(TODAY(), K29)/ _xlfn.DAYS(L29,K29), TODAY()&lt;=L29), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>1</v>
       </c>
       <c r="N29" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L29, H29&lt;1),M29), -1, IF(H29=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>-1</v>
       </c>
       <c r="P29" s="2"/>
@@ -8804,7 +8805,7 @@
       <c r="EY29" s="24"/>
       <c r="EZ29" s="24"/>
     </row>
-    <row r="30" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="48" t="s">
         <v>166</v>
@@ -8836,14 +8837,14 @@
         <v>45778</v>
       </c>
       <c r="M30" s="75" t="b">
-        <f ca="1">IF(AND(H30 &lt;  _xlfn.DAYS(TODAY(), K30)/ _xlfn.DAYS(L30,K30), TODAY()&lt;=L30), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N30" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L30, H30&lt;1),M30), -1, IF(H30=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
@@ -8988,7 +8989,7 @@
       <c r="EY30" s="24"/>
       <c r="EZ30" s="24"/>
     </row>
-    <row r="31" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="48" t="s">
         <v>159</v>
@@ -9018,14 +9019,14 @@
         <v>45731</v>
       </c>
       <c r="M31" s="75" t="b">
-        <f ca="1">IF(AND(H31 &lt;  _xlfn.DAYS(TODAY(), K31)/ _xlfn.DAYS(L31,K31), TODAY()&lt;=L31), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N31" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O31" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L31, H31&lt;1),M31), -1, IF(H31=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P31" s="2"/>
@@ -9170,9 +9171,9 @@
       <c r="EY31" s="24"/>
       <c r="EZ31" s="24"/>
     </row>
-    <row r="32" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="151" t="s">
         <v>144</v>
       </c>
       <c r="C32" s="48" t="s">
@@ -9182,10 +9183,10 @@
       <c r="E32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="171" t="s">
+      <c r="F32" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="170" t="s">
+      <c r="G32" s="151" t="s">
         <v>195</v>
       </c>
       <c r="H32" s="27">
@@ -9204,14 +9205,14 @@
         <v>45709</v>
       </c>
       <c r="M32" s="75" t="b">
-        <f ca="1">IF(AND(H32 &lt;  _xlfn.DAYS(TODAY(), K32)/ _xlfn.DAYS(L32,K32), TODAY()&lt;=L32), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N32" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O32" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L32, H32&lt;1),M32), -1, IF(H32=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P32" s="2"/>
@@ -9356,7 +9357,7 @@
       <c r="EY32" s="24"/>
       <c r="EZ32" s="24"/>
     </row>
-    <row r="33" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="48" t="s">
         <v>160</v>
@@ -9386,14 +9387,14 @@
         <v>45736</v>
       </c>
       <c r="M33" s="75" t="b">
-        <f ca="1">IF(AND(H33 &lt;  _xlfn.DAYS(TODAY(), K33)/ _xlfn.DAYS(L33,K33), TODAY()&lt;=L33), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N33" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L33, H33&lt;1),M33), -1, IF(H33=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P33" s="2">
@@ -9541,7 +9542,7 @@
       <c r="EY33" s="24"/>
       <c r="EZ33" s="24"/>
     </row>
-    <row r="34" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="49" t="s">
         <v>146</v>
@@ -9575,14 +9576,14 @@
         <v>45751</v>
       </c>
       <c r="M34" s="75" t="b">
-        <f ca="1">IF(AND(H34 &lt;  _xlfn.DAYS(TODAY(), K34)/ _xlfn.DAYS(L34,K34), TODAY()&lt;=L34), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N34" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O34" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L34, H34&lt;1),M34), -1, IF(H34=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="P34" s="2"/>
@@ -9727,7 +9728,7 @@
       <c r="EY34" s="24"/>
       <c r="EZ34" s="24"/>
     </row>
-    <row r="35" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="91" t="s">
         <v>167</v>
@@ -9759,14 +9760,14 @@
         <v>45809</v>
       </c>
       <c r="M35" s="75" t="b">
-        <f ca="1">IF(AND(H35 &lt;  _xlfn.DAYS(TODAY(), K35)/ _xlfn.DAYS(L35,K35), TODAY()&lt;=L35), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N35" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O35" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L35, H35&lt;1),M35), -1, IF(H35=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P35" s="2"/>
@@ -9911,7 +9912,7 @@
       <c r="EY35" s="24"/>
       <c r="EZ35" s="24"/>
     </row>
-    <row r="36" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="83" t="s">
         <v>158</v>
@@ -9943,14 +9944,14 @@
         <v>45825</v>
       </c>
       <c r="M36" s="75" t="b">
-        <f ca="1">IF(AND(H36 &lt;  _xlfn.DAYS(TODAY(), K36)/ _xlfn.DAYS(L36,K36), TODAY()&lt;=L36), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N36" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O36" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L36, H36&lt;1),M36), -1, IF(H36=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P36" s="2">
@@ -10098,7 +10099,7 @@
       <c r="EY36" s="24"/>
       <c r="EZ36" s="24"/>
     </row>
-    <row r="37" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="91" t="s">
         <v>151</v>
@@ -10128,14 +10129,14 @@
         <v>45744</v>
       </c>
       <c r="M37" s="75" t="b">
-        <f ca="1">IF(AND(H37 &lt;  _xlfn.DAYS(TODAY(), K37)/ _xlfn.DAYS(L37,K37), TODAY()&lt;=L37), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N37" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O37" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L37, H37&lt;1),M37), -1, IF(H37=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P37" s="2"/>
@@ -10280,7 +10281,7 @@
       <c r="EY37" s="24"/>
       <c r="EZ37" s="24"/>
     </row>
-    <row r="38" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="83" t="s">
         <v>155</v>
@@ -10310,14 +10311,14 @@
         <v>45744</v>
       </c>
       <c r="M38" s="75" t="b">
-        <f ca="1">IF(AND(H38 &lt;  _xlfn.DAYS(TODAY(), K38)/ _xlfn.DAYS(L38,K38), TODAY()&lt;=L38), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="N38" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O38" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L38, H38&lt;1),M38), -1, IF(H38=1, 1, 0))</f>
+        <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
       <c r="P38" s="2"/>
@@ -10462,7 +10463,7 @@
       <c r="EY38" s="24"/>
       <c r="EZ38" s="24"/>
     </row>
-    <row r="39" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="91" t="s">
         <v>156</v>
@@ -10492,14 +10493,14 @@
         <v>45748</v>
       </c>
       <c r="M39" s="75" t="b">
-        <f ca="1">IF(AND(H39 &lt;  _xlfn.DAYS(TODAY(), K39)/ _xlfn.DAYS(L39,K39), TODAY()&lt;=L39), TRUE, FALSE)</f>
+        <f t="shared" ref="M39:M70" ca="1" si="70">IF(AND(H39 &lt;  _xlfn.DAYS(TODAY(), K39)/ _xlfn.DAYS(L39,K39), TODAY()&lt;=L39), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N39" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O39" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
+        <f t="shared" ref="O39:O60" ca="1" si="71">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P39" s="2"/>
@@ -10644,7 +10645,7 @@
       <c r="EY39" s="24"/>
       <c r="EZ39" s="24"/>
     </row>
-    <row r="40" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="83" t="s">
         <v>138</v>
@@ -10676,14 +10677,14 @@
         <v>45825</v>
       </c>
       <c r="M40" s="75" t="b">
-        <f ca="1">IF(AND(H40 &lt;  _xlfn.DAYS(TODAY(), K40)/ _xlfn.DAYS(L40,K40), TODAY()&lt;=L40), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N40" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L40, H40&lt;1),M40), -1, IF(H40=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P40" s="2"/>
@@ -10828,7 +10829,7 @@
       <c r="EY40" s="24"/>
       <c r="EZ40" s="24"/>
     </row>
-    <row r="41" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="91" t="s">
         <v>161</v>
@@ -10858,14 +10859,14 @@
         <v>45741</v>
       </c>
       <c r="M41" s="75" t="b">
-        <f ca="1">IF(AND(H41 &lt;  _xlfn.DAYS(TODAY(), K41)/ _xlfn.DAYS(L41,K41), TODAY()&lt;=L41), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N41" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O41" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L41, H41&lt;1),M41), -1, IF(H41=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P41" s="2">
@@ -11013,7 +11014,7 @@
       <c r="EY41" s="24"/>
       <c r="EZ41" s="24"/>
     </row>
-    <row r="42" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="90" t="s">
         <v>121</v>
@@ -11045,14 +11046,14 @@
         <v>45762</v>
       </c>
       <c r="M42" s="75" t="b">
-        <f ca="1">IF(AND(H42 &lt;  _xlfn.DAYS(TODAY(), K42)/ _xlfn.DAYS(L42,K42), TODAY()&lt;=L42), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N42" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O42" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L42, H42&lt;1),M42), -1, IF(H42=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P42" s="2">
@@ -11200,7 +11201,7 @@
       <c r="EY42" s="24"/>
       <c r="EZ42" s="24"/>
     </row>
-    <row r="43" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="48" t="s">
         <v>189</v>
@@ -11230,14 +11231,14 @@
         <v>45751</v>
       </c>
       <c r="M43" s="75" t="b">
-        <f ca="1">IF(AND(H43 &lt;  _xlfn.DAYS(TODAY(), K43)/ _xlfn.DAYS(L43,K43), TODAY()&lt;=L43), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N43" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O43" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L43, H43&lt;1),M43), -1, IF(H43=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
@@ -11385,7 +11386,7 @@
       <c r="EY43" s="24"/>
       <c r="EZ43" s="24"/>
     </row>
-    <row r="44" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="48" t="s">
         <v>157</v>
@@ -11415,14 +11416,14 @@
         <v>45758</v>
       </c>
       <c r="M44" s="75" t="b">
-        <f ca="1">IF(AND(H44 &lt;  _xlfn.DAYS(TODAY(), K44)/ _xlfn.DAYS(L44,K44), TODAY()&lt;=L44), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N44" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O44" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L44, H44&lt;1),M44), -1, IF(H44=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P44" s="2"/>
@@ -11567,7 +11568,7 @@
       <c r="EY44" s="24"/>
       <c r="EZ44" s="24"/>
     </row>
-    <row r="45" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="48" t="s">
         <v>164</v>
@@ -11599,18 +11600,18 @@
         <v>45765</v>
       </c>
       <c r="M45" s="75" t="b">
-        <f ca="1">IF(AND(H45 &lt;  _xlfn.DAYS(TODAY(), K45)/ _xlfn.DAYS(L45,K45), TODAY()&lt;=L45), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N45" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L45, H45&lt;1),M45), -1, IF(H45=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45:P51" si="68">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P45:P51" si="72">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>5</v>
       </c>
       <c r="Q45" s="24"/>
@@ -11754,7 +11755,7 @@
       <c r="EY45" s="24"/>
       <c r="EZ45" s="24"/>
     </row>
-    <row r="46" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="48" t="s">
         <v>139</v>
@@ -11786,18 +11787,18 @@
         <v>45714</v>
       </c>
       <c r="M46" s="75" t="b">
-        <f ca="1">IF(AND(H46 &lt;  _xlfn.DAYS(TODAY(), K46)/ _xlfn.DAYS(L46,K46), TODAY()&lt;=L46), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N46" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O46" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L46, H46&lt;1),M46), -1, IF(H46=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>1</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
       <c r="Q46" s="24"/>
@@ -11941,7 +11942,7 @@
       <c r="EY46" s="24"/>
       <c r="EZ46" s="24"/>
     </row>
-    <row r="47" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="48" t="s">
         <v>168</v>
@@ -11973,18 +11974,18 @@
         <v>45778</v>
       </c>
       <c r="M47" s="75" t="b">
-        <f ca="1">IF(AND(H47 &lt;  _xlfn.DAYS(TODAY(), K47)/ _xlfn.DAYS(L47,K47), TODAY()&lt;=L47), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N47" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O47" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L47, H47&lt;1),M47), -1, IF(H47=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>31</v>
       </c>
       <c r="Q47" s="24"/>
@@ -12128,7 +12129,7 @@
       <c r="EY47" s="24"/>
       <c r="EZ47" s="24"/>
     </row>
-    <row r="48" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="48" t="s">
         <v>141</v>
@@ -12158,18 +12159,18 @@
         <v>45754</v>
       </c>
       <c r="M48" s="75" t="b">
-        <f ca="1">IF(AND(H48 &lt;  _xlfn.DAYS(TODAY(), K48)/ _xlfn.DAYS(L48,K48), TODAY()&lt;=L48), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N48" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O48" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L48, H48&lt;1),M48), -1, IF(H48=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7</v>
       </c>
       <c r="Q48" s="24"/>
@@ -12313,7 +12314,7 @@
       <c r="EY48" s="24"/>
       <c r="EZ48" s="24"/>
     </row>
-    <row r="49" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="46" t="s">
         <v>152</v>
@@ -12343,18 +12344,18 @@
         <v>45778</v>
       </c>
       <c r="M49" s="75" t="b">
-        <f ca="1">IF(AND(H49 &lt;  _xlfn.DAYS(TODAY(), K49)/ _xlfn.DAYS(L49,K49), TODAY()&lt;=L49), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N49" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O49" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L49, H49&lt;1),M49), -1, IF(H49=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="Q49" s="24"/>
@@ -12498,7 +12499,7 @@
       <c r="EY49" s="24"/>
       <c r="EZ49" s="24"/>
     </row>
-    <row r="50" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="48" t="s">
         <v>169</v>
@@ -12530,14 +12531,14 @@
         <v>45792</v>
       </c>
       <c r="M50" s="75" t="b">
-        <f ca="1">IF(AND(H50 &lt;  _xlfn.DAYS(TODAY(), K50)/ _xlfn.DAYS(L50,K50), TODAY()&lt;=L50), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N50" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O50" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L50, H50&lt;1),M50), -1, IF(H50=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P50" s="2"/>
@@ -12682,7 +12683,7 @@
       <c r="EY50" s="24"/>
       <c r="EZ50" s="24"/>
     </row>
-    <row r="51" spans="1:156" s="22" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:156" s="22" customFormat="1" ht="48" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="104" t="s">
         <v>135</v>
@@ -12699,7 +12700,7 @@
       <c r="F51" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="175" t="s">
+      <c r="G51" s="156" t="s">
         <v>90</v>
       </c>
       <c r="H51" s="126">
@@ -12718,18 +12719,18 @@
         <v>45833</v>
       </c>
       <c r="M51" s="75" t="b">
-        <f ca="1">IF(AND(H51 &lt;  _xlfn.DAYS(TODAY(), K51)/ _xlfn.DAYS(L51,K51), TODAY()&lt;=L51), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N51" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O51" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L51, H51&lt;1),M51), -1, IF(H51=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>25</v>
       </c>
       <c r="Q51" s="24"/>
@@ -12873,7 +12874,7 @@
       <c r="EY51" s="24"/>
       <c r="EZ51" s="24"/>
     </row>
-    <row r="52" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="46" t="s">
         <v>150</v>
@@ -12905,14 +12906,14 @@
         <v>45711</v>
       </c>
       <c r="M52" s="75" t="b">
-        <f ca="1">IF(AND(H52 &lt;  _xlfn.DAYS(TODAY(), K52)/ _xlfn.DAYS(L52,K52), TODAY()&lt;=L52), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N52" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O52" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L52, H52&lt;1),M52), -1, IF(H52=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>1</v>
       </c>
       <c r="P52" s="2"/>
@@ -13057,7 +13058,7 @@
       <c r="EY52" s="24"/>
       <c r="EZ52" s="24"/>
     </row>
-    <row r="53" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="82" t="s">
         <v>147</v>
@@ -13089,14 +13090,14 @@
         <v>45790</v>
       </c>
       <c r="M53" s="75" t="b">
-        <f ca="1">IF(AND(H53 &lt;  _xlfn.DAYS(TODAY(), K53)/ _xlfn.DAYS(L53,K53), TODAY()&lt;=L53), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N53" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O53" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L53, H53&lt;1),M53), -1, IF(H53=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P53" s="2"/>
@@ -13241,7 +13242,7 @@
       <c r="EY53" s="24"/>
       <c r="EZ53" s="24"/>
     </row>
-    <row r="54" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="104" t="s">
         <v>136</v>
@@ -13258,7 +13259,7 @@
       <c r="F54" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="175" t="s">
+      <c r="G54" s="156" t="s">
         <v>90</v>
       </c>
       <c r="H54" s="126">
@@ -13273,14 +13274,14 @@
         <v>45818</v>
       </c>
       <c r="M54" s="75" t="b">
-        <f ca="1">IF(AND(H54 &lt;  _xlfn.DAYS(TODAY(), K54)/ _xlfn.DAYS(L54,K54), TODAY()&lt;=L54), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N54" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O54" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L54, H54&lt;1),M54), -1, IF(H54=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P54" s="2"/>
@@ -13425,7 +13426,7 @@
       <c r="EY54" s="24"/>
       <c r="EZ54" s="24"/>
     </row>
-    <row r="55" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="48" t="s">
         <v>153</v>
@@ -13455,14 +13456,14 @@
         <v>45742</v>
       </c>
       <c r="M55" s="75" t="b">
-        <f ca="1">IF(AND(H55 &lt;  _xlfn.DAYS(TODAY(), K55)/ _xlfn.DAYS(L55,K55), TODAY()&lt;=L55), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N55" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O55" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L55, H55&lt;1),M55), -1, IF(H55=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>1</v>
       </c>
       <c r="P55" s="2"/>
@@ -13607,7 +13608,7 @@
       <c r="EY55" s="24"/>
       <c r="EZ55" s="24"/>
     </row>
-    <row r="56" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="48" t="s">
         <v>173</v>
@@ -13639,14 +13640,14 @@
         <v>45809</v>
       </c>
       <c r="M56" s="75" t="b">
-        <f ca="1">IF(AND(H56 &lt;  _xlfn.DAYS(TODAY(), K56)/ _xlfn.DAYS(L56,K56), TODAY()&lt;=L56), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N56" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O56" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L56, H56&lt;1),M56), -1, IF(H56=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P56" s="2"/>
@@ -13791,7 +13792,7 @@
       <c r="EY56" s="24"/>
       <c r="EZ56" s="24"/>
     </row>
-    <row r="57" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="82" t="s">
         <v>145</v>
@@ -13823,14 +13824,14 @@
         <v>45800</v>
       </c>
       <c r="M57" s="75" t="b">
-        <f ca="1">IF(AND(H57 &lt;  _xlfn.DAYS(TODAY(), K57)/ _xlfn.DAYS(L57,K57), TODAY()&lt;=L57), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N57" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O57" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L57, H57&lt;1),M57), -1, IF(H57=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P57" s="2"/>
@@ -13975,7 +13976,7 @@
       <c r="EY57" s="24"/>
       <c r="EZ57" s="24"/>
     </row>
-    <row r="58" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="104" t="s">
         <v>137</v>
@@ -14007,14 +14008,14 @@
         <v>45825</v>
       </c>
       <c r="M58" s="75" t="b">
-        <f ca="1">IF(AND(H58 &lt;  _xlfn.DAYS(TODAY(), K58)/ _xlfn.DAYS(L58,K58), TODAY()&lt;=L58), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N58" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O58" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L58, H58&lt;1),M58), -1, IF(H58=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P58" s="2"/>
@@ -14159,7 +14160,7 @@
       <c r="EY58" s="24"/>
       <c r="EZ58" s="24"/>
     </row>
-    <row r="59" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="82" t="s">
         <v>142</v>
@@ -14191,14 +14192,14 @@
         <v>45828</v>
       </c>
       <c r="M59" s="75" t="b">
-        <f ca="1">IF(AND(H59 &lt;  _xlfn.DAYS(TODAY(), K59)/ _xlfn.DAYS(L59,K59), TODAY()&lt;=L59), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N59" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O59" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L59, H59&lt;1),M59), -1, IF(H59=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P59" s="2"/>
@@ -14343,7 +14344,7 @@
       <c r="EY59" s="24"/>
       <c r="EZ59" s="24"/>
     </row>
-    <row r="60" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="82" t="s">
         <v>143</v>
@@ -14375,18 +14376,18 @@
         <v>45838</v>
       </c>
       <c r="M60" s="75" t="b">
-        <f ca="1">IF(AND(H60 &lt;  _xlfn.DAYS(TODAY(), K60)/ _xlfn.DAYS(L60,K60), TODAY()&lt;=L60), TRUE, FALSE)</f>
+        <f t="shared" ca="1" si="70"/>
         <v>0</v>
       </c>
       <c r="N60" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O60" s="39">
-        <f ca="1">IF(OR(AND(TODAY()&gt;L60, H60&lt;1),M60), -1, IF(H60=1, 1, 0))</f>
+        <f t="shared" ca="1" si="71"/>
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:P69" si="69">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P60:P69" si="73">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>8</v>
       </c>
       <c r="Q60" s="24"/>
@@ -14530,7 +14531,7 @@
       <c r="EY60" s="24"/>
       <c r="EZ60" s="24"/>
     </row>
-    <row r="61" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="106"/>
       <c r="C61" s="106" t="s">
@@ -14549,7 +14550,7 @@
       <c r="N61" s="62"/>
       <c r="O61" s="12"/>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q61" s="24"/>
@@ -14693,7 +14694,7 @@
       <c r="EY61" s="24"/>
       <c r="EZ61" s="24"/>
     </row>
-    <row r="62" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="90"/>
       <c r="C62" s="111" t="s">
@@ -14712,7 +14713,7 @@
       <c r="N62" s="75"/>
       <c r="O62" s="39"/>
       <c r="P62" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q62" s="24"/>
@@ -14856,7 +14857,7 @@
       <c r="EY62" s="24"/>
       <c r="EZ62" s="24"/>
     </row>
-    <row r="63" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="90"/>
       <c r="C63" s="111" t="s">
@@ -14875,7 +14876,7 @@
       <c r="N63" s="75"/>
       <c r="O63" s="39"/>
       <c r="P63" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q63" s="24"/>
@@ -15019,7 +15020,7 @@
       <c r="EY63" s="24"/>
       <c r="EZ63" s="24"/>
     </row>
-    <row r="64" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="101"/>
       <c r="C64" s="101" t="s">
@@ -15038,7 +15039,7 @@
       <c r="N64" s="75"/>
       <c r="O64" s="39"/>
       <c r="P64" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q64" s="24"/>
@@ -15182,7 +15183,7 @@
       <c r="EY64" s="24"/>
       <c r="EZ64" s="24"/>
     </row>
-    <row r="65" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45" t="s">
@@ -15201,7 +15202,7 @@
       <c r="N65" s="75"/>
       <c r="O65" s="39"/>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q65" s="24"/>
@@ -15345,7 +15346,7 @@
       <c r="EY65" s="24"/>
       <c r="EZ65" s="24"/>
     </row>
-    <row r="66" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45" t="s">
@@ -15364,7 +15365,7 @@
       <c r="N66" s="75"/>
       <c r="O66" s="39"/>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q66" s="24"/>
@@ -15508,7 +15509,7 @@
       <c r="EY66" s="24"/>
       <c r="EZ66" s="24"/>
     </row>
-    <row r="67" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45" t="s">
@@ -15527,7 +15528,7 @@
       <c r="N67" s="75"/>
       <c r="O67" s="39"/>
       <c r="P67" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q67" s="24"/>
@@ -15671,7 +15672,7 @@
       <c r="EY67" s="24"/>
       <c r="EZ67" s="24"/>
     </row>
-    <row r="68" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="48"/>
       <c r="C68" s="45" t="s">
@@ -15690,7 +15691,7 @@
       <c r="N68" s="75"/>
       <c r="O68" s="39"/>
       <c r="P68" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q68" s="24"/>
@@ -15834,7 +15835,7 @@
       <c r="EY68" s="24"/>
       <c r="EZ68" s="24"/>
     </row>
-    <row r="69" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="109"/>
       <c r="C69" s="110" t="s">
@@ -15853,7 +15854,7 @@
       <c r="N69" s="75"/>
       <c r="O69" s="39"/>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="Q69" s="29"/>
@@ -15997,7 +15998,7 @@
       <c r="EY69" s="29"/>
       <c r="EZ69" s="29"/>
     </row>
-    <row r="70" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="105"/>
       <c r="C70" s="107" t="s">
@@ -16016,7 +16017,7 @@
       <c r="N70" s="75"/>
       <c r="O70" s="39"/>
       <c r="P70" s="2" t="str">
-        <f t="shared" ref="P70:P74" si="70">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P70:P74" si="74">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="Q70" s="24"/>
@@ -16160,7 +16161,7 @@
       <c r="EY70" s="24"/>
       <c r="EZ70" s="24"/>
     </row>
-    <row r="71" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="s">
@@ -16179,7 +16180,7 @@
       <c r="N71" s="75"/>
       <c r="O71" s="39"/>
       <c r="P71" s="2" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="Q71" s="24"/>
@@ -16323,7 +16324,7 @@
       <c r="EY71" s="24"/>
       <c r="EZ71" s="24"/>
     </row>
-    <row r="72" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="108"/>
       <c r="C72" s="108" t="s">
@@ -16342,7 +16343,7 @@
       <c r="N72" s="75"/>
       <c r="O72" s="39"/>
       <c r="P72" s="2" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="Q72" s="24"/>
@@ -16486,7 +16487,7 @@
       <c r="EY72" s="24"/>
       <c r="EZ72" s="24"/>
     </row>
-    <row r="73" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
@@ -16503,7 +16504,7 @@
       <c r="N73" s="69"/>
       <c r="O73" s="12"/>
       <c r="P73" s="2" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="Q73" s="21"/>
@@ -16647,7 +16648,7 @@
       <c r="EY73" s="21"/>
       <c r="EZ73" s="21"/>
     </row>
-    <row r="74" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
@@ -16666,7 +16667,7 @@
       <c r="N74" s="72"/>
       <c r="O74" s="12"/>
       <c r="P74" s="3" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="Q74" s="30"/>
@@ -16812,11 +16813,48 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:O74" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="BP"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="-1"/>
+        <filter val="#DIV/0!"/>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:O58">
       <sortCondition ref="K5:K74"/>
     </sortState>
   </autoFilter>
   <mergeCells count="41">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="EM4:ES4"/>
     <mergeCell ref="ET4:EZ4"/>
     <mergeCell ref="AI1:AO1"/>
@@ -16833,31 +16871,6 @@
     <mergeCell ref="CI4:CO4"/>
     <mergeCell ref="CP4:CV4"/>
     <mergeCell ref="CW4:DC4"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H36:H74 H7:H34">
@@ -17097,100 +17110,100 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="66" style="177"/>
+    <col min="1" max="16384" width="66" style="158"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="176"/>
+      <c r="A1" s="157"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="176"/>
+      <c r="A2" s="157"/>
     </row>
-    <row r="3" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A3" s="176" t="s">
+    <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="157" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="176"/>
+      <c r="A4" s="157"/>
     </row>
     <row r="5" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="157" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="176"/>
+      <c r="A6" s="157"/>
     </row>
-    <row r="7" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A7" s="176" t="s">
+    <row r="7" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="157" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="176"/>
+      <c r="A8" s="157"/>
     </row>
     <row r="9" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="157" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="176"/>
+      <c r="A10" s="157"/>
     </row>
-    <row r="11" spans="1:1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A11" s="176" t="s">
+    <row r="11" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A11" s="157" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="176"/>
+      <c r="A12" s="157"/>
     </row>
-    <row r="13" spans="1:1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A13" s="176" t="s">
+    <row r="13" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A13" s="157" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="176"/>
+      <c r="A14" s="157"/>
     </row>
-    <row r="15" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A15" s="176" t="s">
+    <row r="15" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A15" s="157" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="176"/>
+      <c r="A16" s="157"/>
     </row>
-    <row r="17" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A17" s="176" t="s">
+    <row r="17" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A17" s="157" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="176"/>
+      <c r="A18" s="157"/>
     </row>
     <row r="19" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A19" s="176" t="s">
+      <c r="A19" s="157" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="176"/>
+      <c r="A20" s="157"/>
     </row>
     <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="157" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="176"/>
+      <c r="A22" s="157"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="176"/>
+      <c r="A23" s="157"/>
     </row>
     <row r="24" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="157" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17330,35 +17343,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17670,34 +17654,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17718,6 +17704,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Gantt onlinestss.com.xlsx
+++ b/Gantt onlinestss.com.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discovery-air/Dropbox/Work/MUGI/SS/project/onlinestss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D714138-0144-314A-BB84-0168993EDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C237A-9F4B-DE47-8E77-40BEBC3C63C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="43100" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
     <sheet name="Constants" sheetId="13" r:id="rId2"/>
-    <sheet name="wp theme " sheetId="14" r:id="rId3"/>
+    <sheet name="speed vlist" sheetId="14" r:id="rId3"/>
     <sheet name="About" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{E0291CE9-D34C-6840-9E61-84ECC5186F27}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{D709CFE1-21F0-6C45-8EAD-651F34644C6F}">
       <text>
         <r>
           <rPr>
@@ -139,11 +139,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>still need to look into splitting the database and multiple app servers, and whether the basic managed hosting single server architecture works for projected traffic..</t>
+          <t xml:space="preserve">hrs set meeting sama keuangan, daftar pertanyaan terkait alur penjualan </t>
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{A0510CEC-6055-3F4B-966A-7D549003A848}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{79E27143-245B-D840-98C7-950077078367}">
       <text>
         <r>
           <rPr>
@@ -172,74 +172,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jangan lupa merubah field / halaman sesuai tipe user</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{1D5D9DEA-CC0E-CA47-8A9A-55CE2229A885}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">harus bisa simpan multi alamat
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">refer ke google pagespeed insights, search google security checklist
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{B33F0D5A-58B4-164C-A431-1E03C312FF6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>data pelangaan yang ada harus dibenerin dulu. tabel user db dan form registrasi diupdate.</t>
         </r>
       </text>
     </comment>
@@ -273,40 +207,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">set up lagi kalo pindah hosting
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{9E5BF11C-95DF-8A40-9FB0-75D5009BB113}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theo Darmawan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">on hold
 </t>
         </r>
       </text>
@@ -345,7 +245,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{DD682FC1-CE00-BE4E-B19E-30720D705022}">
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{C55DF099-DB51-9143-89FE-70D53E3CEDA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">scaling hosting, server resources, databases, maintenance tasks, make a checklist. should be done progressively.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{DD682FC1-CE00-BE4E-B19E-30720D705022}">
       <text>
         <r>
           <rPr>
@@ -379,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{C55DF099-DB51-9143-89FE-70D53E3CEDA5}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{A0510CEC-6055-3F4B-966A-7D549003A848}">
       <text>
         <r>
           <rPr>
@@ -408,7 +342,40 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">scaling hosting, server resources, databases, maintenance tasks, make a checklist. should be done progressively.
+          <t>jangan lupa merubah field / halaman sesuai tipe user</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{1D5D9DEA-CC0E-CA47-8A9A-55CE2229A885}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">refer ke google pagespeed insights, search google security checklist
 </t>
         </r>
       </text>
@@ -447,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{D709CFE1-21F0-6C45-8EAD-651F34644C6F}">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{B33F0D5A-58B4-164C-A431-1E03C312FF6B}">
       <text>
         <r>
           <rPr>
@@ -476,7 +443,74 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">hrs set meeting sama keuangan, daftar pertanyaan terkait alur penjualan </t>
+          <t>data pelangaan yang ada harus dibenerin dulu. tabel user db dan form registrasi diupdate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{E0291CE9-D34C-6840-9E61-84ECC5186F27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>still need to look into splitting the database and multiple app servers, and whether the basic managed hosting single server architecture works for projected traffic..</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K60" authorId="0" shapeId="0" xr:uid="{9E5BF11C-95DF-8A40-9FB0-75D5009BB113}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theo Darmawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">on hold
+</t>
         </r>
       </text>
     </comment>
@@ -485,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="256">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -822,9 +856,6 @@
     <t>Memastikan semua persyaratan sistem terpenuhi</t>
   </si>
   <si>
-    <t>review hosting plan (untuk 99.9% uptime guarantee)</t>
-  </si>
-  <si>
     <t xml:space="preserve">membenarkan isu security yg telah diidentifikasi di audit </t>
   </si>
   <si>
@@ -1101,270 +1132,188 @@
     <t>ES,BP, TD</t>
   </si>
   <si>
-    <t>These ensure a theme is fast, secure, and user-friendly.</t>
+    <t>TD, BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review hosting plan </t>
+  </si>
+  <si>
+    <t>WordPress Site Speed Optimization Checklist</t>
+  </si>
+  <si>
+    <t>1. Hosting &amp; Server</t>
+  </si>
+  <si>
+    <t>✅ Use a high-performance hosting provider (e.g., Cloudways, SiteGround, Kinsta).</t>
+  </si>
+  <si>
+    <t>✅ Enable server-side caching (if available, lscache).</t>
+  </si>
+  <si>
+    <t>✅ Use the latest PHP version.</t>
+  </si>
+  <si>
+    <t>✅ Optimize database performance (WP-Optimize or MySQL tuning).</t>
+  </si>
+  <si>
+    <t>hosting plan is enough for daily use with headroom for high traffic and website upgrades</t>
+  </si>
+  <si>
+    <t>fast web server (litespeed)</t>
+  </si>
+  <si>
+    <t>2. Caching &amp; CDN</t>
+  </si>
+  <si>
+    <t>✅ Install a caching plugin (WP Rocket, W3 Total Cache, LiteSpeed Cache).</t>
+  </si>
+  <si>
+    <t>✅ Enable browser caching.</t>
+  </si>
+  <si>
+    <t>✅ Use a Content Delivery Network (CDN) like Cloudflare or BunnyCDN.</t>
+  </si>
+  <si>
+    <t>3. Image &amp; Media Optimization</t>
+  </si>
+  <si>
+    <t>4. Plugins &amp; Themes</t>
+  </si>
+  <si>
+    <t>✅ Remove unnecessary plugins (clean uninstall).</t>
+  </si>
+  <si>
+    <t>✅ Use a lightweight theme (Astra, GeneratePress, Kadence).</t>
+  </si>
+  <si>
+    <t>✅ Keep themes and plugins updated.</t>
+  </si>
+  <si>
+    <t>5. Code Optimization</t>
+  </si>
+  <si>
+    <t>✅ Minify CSS, JavaScript, and HTML (Autoptimize or WP Rocket).</t>
+  </si>
+  <si>
+    <t>✅ Defer or async load JavaScript.</t>
+  </si>
+  <si>
+    <t>✅ Reduce external scripts (Google Fonts, third-party APIs).</t>
+  </si>
+  <si>
+    <t>✅ Remove unused CSS with a performance plugin.</t>
+  </si>
+  <si>
+    <t>6. Database Optimization</t>
+  </si>
+  <si>
+    <t>✅ Delete post revisions, spam comments, and transients.</t>
+  </si>
+  <si>
+    <t>✅ Schedule automatic database cleanups with WP-Optimize.</t>
+  </si>
+  <si>
+    <t>7. External &amp; Third-Party Services</t>
+  </si>
+  <si>
+    <t>✅ Limit the use of external scripts (Facebook Pixel, chat widgets).</t>
+  </si>
+  <si>
+    <t>✅ Host Google Fonts locally if necessary.</t>
+  </si>
+  <si>
+    <t>8. Performance Testing &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>✅ Test speed with GTmetrix, PageSpeed Insights, or Pingdom.</t>
+  </si>
+  <si>
+    <t>✅ Monitor slow queries with Query Monitor.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. </t>
+      <t>✅</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
+        <sz val="13"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Helvetica Neue"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Speed &amp; Performance</t>
+      <t xml:space="preserve"> Check hosting performance with New Relic or similar tools.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Compress images using ShortPixel, Imagify, or Smush.</t>
+  </si>
+  <si>
+    <t>✅ Serve images in next-gen formats (WebP, AVIF).</t>
+  </si>
+  <si>
+    <r>
+      <t>✅</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="13"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Helvetica Neue"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> – Lightweight, fast-loading, optimized for Core Web Vitals.</t>
+      <t xml:space="preserve"> Use lazy loading for images and videos.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SEO-Friendly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Clean code, schema markup, and mobile optimization.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customization Options</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Flexible design, page builders compatibility, and easy theme settings.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Responsive Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Fully mobile-friendly and cross-browser compatible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Security &amp; Updates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Regular updates, secure coding practices, and compatibility with the latest WordPress version.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Plugin Compatibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Works well with major plugins (e.g., WooCommerce, SEO plugins, caching plugins).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Support &amp; Documentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Reliable customer support and clear documentation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accessibility &amp; UX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Good readability, easy navigation, and accessible design.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eCommerce Readiness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – WooCommerce support if needed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multilingual &amp; RTL Support</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – If targeting international audiences.</t>
-    </r>
-  </si>
-  <si>
-    <t>TD, BP</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y, lscache with redis</t>
+  </si>
+  <si>
+    <t>move to hostinger after trialing astra theme?</t>
+  </si>
+  <si>
+    <t>look into using db indexes (later)</t>
+  </si>
+  <si>
+    <t>y, ls cache plugin</t>
+  </si>
+  <si>
+    <t>y, ls cache plugin browser tab</t>
+  </si>
+  <si>
+    <t>y, quic.cloud</t>
+  </si>
+  <si>
+    <t>need to check server resource usage</t>
+  </si>
+  <si>
+    <t>need to tune cdn</t>
+  </si>
+  <si>
+    <t>move to php 8.1 from 7.4?</t>
+  </si>
+  <si>
+    <t>y, astra</t>
+  </si>
+  <si>
+    <t>need to look and tune the cache settings, including esi</t>
+  </si>
+  <si>
+    <t>this process needs to be done periodically</t>
+  </si>
+  <si>
+    <t>y, lscache</t>
+  </si>
+  <si>
+    <t>look into image attributes that will be converted</t>
+  </si>
+  <si>
+    <t>tune settings in ls cache</t>
+  </si>
+  <si>
+    <t>check what js urls are used , modify ls cache settings</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1328,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1649,12 +1598,29 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".Apple Color Emoji UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2005,7 +1971,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2261,9 +2227,6 @@
     <xf numFmtId="168" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="17" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,9 +2239,6 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="17" fillId="4" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2288,9 +2248,6 @@
     <xf numFmtId="168" fontId="17" fillId="4" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="4" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,9 +2266,6 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,9 +2308,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2375,9 +2326,6 @@
     <xf numFmtId="9" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2399,18 +2347,12 @@
     <xf numFmtId="168" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="17" fillId="4" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="17" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2432,9 +2374,6 @@
     <xf numFmtId="164" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="4" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2456,38 +2395,53 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2496,32 +2450,86 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="5" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="3" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="5" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2539,7 +2547,14 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2736,15 +2751,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3119,12 +3134,12 @@
   </sheetPr>
   <dimension ref="A1:EZ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="54" customWidth="1"/>
@@ -3147,7 +3162,7 @@
     <col min="42" max="156" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" ht="23" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:156" ht="23" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="52"/>
       <c r="C1" s="52" t="s">
@@ -3165,52 +3180,52 @@
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="161" t="s">
+      <c r="Q1" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
       <c r="X1" s="13"/>
-      <c r="Y1" s="163">
+      <c r="Y1" s="155">
         <v>45705</v>
       </c>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="161" t="s">
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
       <c r="AP1" s="13"/>
-      <c r="AQ1" s="163">
+      <c r="AQ1" s="155">
         <v>45838</v>
       </c>
-      <c r="AR1" s="164"/>
-      <c r="AS1" s="164"/>
-      <c r="AT1" s="164"/>
-      <c r="AU1" s="164"/>
-      <c r="AV1" s="164"/>
-      <c r="AW1" s="164"/>
-      <c r="AX1" s="164"/>
-      <c r="AY1" s="164"/>
-      <c r="AZ1" s="164"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="154"/>
+      <c r="AT1" s="154"/>
+      <c r="AU1" s="154"/>
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
+      <c r="AX1" s="154"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="154"/>
     </row>
-    <row r="2" spans="1:156" ht="23" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:156" ht="23" customHeight="1">
       <c r="B2" s="59"/>
       <c r="C2" s="41" t="s">
         <v>19</v>
@@ -3220,63 +3235,63 @@
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
-      <c r="Q2" s="161" t="s">
+      <c r="Q2" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
       <c r="X2" s="13"/>
-      <c r="Y2" s="172">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="165" t="s">
+      <c r="Y2" s="153">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="167">
+      <c r="AQ2" s="163">
         <f ca="1">NETWORKDAYS(TODAY(),  Project_End, Holidays)</f>
-        <v>66</v>
-      </c>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
+        <v>61</v>
+      </c>
+      <c r="AR2" s="164"/>
+      <c r="AS2" s="164"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="164"/>
+      <c r="AV2" s="164"/>
+      <c r="AW2" s="164"/>
+      <c r="AX2" s="164"/>
+      <c r="AY2" s="164"/>
+      <c r="AZ2" s="164"/>
     </row>
-    <row r="3" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="61"/>
       <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
@@ -3286,7 +3301,7 @@
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:156" s="14" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -3301,820 +3316,820 @@
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-      <c r="Q4" s="169">
+      <c r="Q4" s="160">
         <f>Q5</f>
-        <v>45712</v>
-      </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159">
+        <v>45726</v>
+      </c>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158">
         <f>X5</f>
-        <v>45719</v>
-      </c>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159">
+        <v>45733</v>
+      </c>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158">
         <f>AE5</f>
-        <v>45726</v>
-      </c>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159">
+        <v>45740</v>
+      </c>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158">
         <f>AL5</f>
-        <v>45733</v>
-      </c>
-      <c r="AM4" s="159"/>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="159"/>
-      <c r="AP4" s="159"/>
-      <c r="AQ4" s="159"/>
-      <c r="AR4" s="159"/>
-      <c r="AS4" s="159">
+        <v>45747</v>
+      </c>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158">
         <f>AS5</f>
-        <v>45740</v>
-      </c>
-      <c r="AT4" s="159"/>
-      <c r="AU4" s="159"/>
-      <c r="AV4" s="159"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="159"/>
-      <c r="AY4" s="159"/>
-      <c r="AZ4" s="159">
+        <v>45754</v>
+      </c>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="158"/>
+      <c r="AX4" s="158"/>
+      <c r="AY4" s="158"/>
+      <c r="AZ4" s="158">
         <f>AZ5</f>
-        <v>45747</v>
-      </c>
-      <c r="BA4" s="159"/>
-      <c r="BB4" s="159"/>
-      <c r="BC4" s="159"/>
-      <c r="BD4" s="159"/>
-      <c r="BE4" s="159"/>
-      <c r="BF4" s="159"/>
-      <c r="BG4" s="159">
+        <v>45761</v>
+      </c>
+      <c r="BA4" s="158"/>
+      <c r="BB4" s="158"/>
+      <c r="BC4" s="158"/>
+      <c r="BD4" s="158"/>
+      <c r="BE4" s="158"/>
+      <c r="BF4" s="158"/>
+      <c r="BG4" s="158">
         <f>BG5</f>
-        <v>45754</v>
-      </c>
-      <c r="BH4" s="159"/>
-      <c r="BI4" s="159"/>
-      <c r="BJ4" s="159"/>
-      <c r="BK4" s="159"/>
-      <c r="BL4" s="159"/>
-      <c r="BM4" s="159"/>
-      <c r="BN4" s="159">
+        <v>45768</v>
+      </c>
+      <c r="BH4" s="158"/>
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="158"/>
+      <c r="BK4" s="158"/>
+      <c r="BL4" s="158"/>
+      <c r="BM4" s="158"/>
+      <c r="BN4" s="158">
         <f>BN5</f>
-        <v>45761</v>
-      </c>
-      <c r="BO4" s="159"/>
-      <c r="BP4" s="159"/>
-      <c r="BQ4" s="159"/>
-      <c r="BR4" s="159"/>
-      <c r="BS4" s="159"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="159">
+        <v>45775</v>
+      </c>
+      <c r="BO4" s="158"/>
+      <c r="BP4" s="158"/>
+      <c r="BQ4" s="158"/>
+      <c r="BR4" s="158"/>
+      <c r="BS4" s="158"/>
+      <c r="BT4" s="159"/>
+      <c r="BU4" s="158">
         <f>BU5</f>
-        <v>45768</v>
-      </c>
-      <c r="BV4" s="159"/>
-      <c r="BW4" s="159"/>
-      <c r="BX4" s="159"/>
-      <c r="BY4" s="159"/>
-      <c r="BZ4" s="159"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="159">
+        <v>45782</v>
+      </c>
+      <c r="BV4" s="158"/>
+      <c r="BW4" s="158"/>
+      <c r="BX4" s="158"/>
+      <c r="BY4" s="158"/>
+      <c r="BZ4" s="158"/>
+      <c r="CA4" s="159"/>
+      <c r="CB4" s="158">
         <f>CB5</f>
-        <v>45775</v>
-      </c>
-      <c r="CC4" s="159"/>
-      <c r="CD4" s="159"/>
-      <c r="CE4" s="159"/>
-      <c r="CF4" s="159"/>
-      <c r="CG4" s="159"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="159">
+        <v>45789</v>
+      </c>
+      <c r="CC4" s="158"/>
+      <c r="CD4" s="158"/>
+      <c r="CE4" s="158"/>
+      <c r="CF4" s="158"/>
+      <c r="CG4" s="158"/>
+      <c r="CH4" s="159"/>
+      <c r="CI4" s="158">
         <f>CI5</f>
-        <v>45782</v>
-      </c>
-      <c r="CJ4" s="159"/>
-      <c r="CK4" s="159"/>
-      <c r="CL4" s="159"/>
-      <c r="CM4" s="159"/>
-      <c r="CN4" s="159"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="159">
+        <v>45796</v>
+      </c>
+      <c r="CJ4" s="158"/>
+      <c r="CK4" s="158"/>
+      <c r="CL4" s="158"/>
+      <c r="CM4" s="158"/>
+      <c r="CN4" s="158"/>
+      <c r="CO4" s="159"/>
+      <c r="CP4" s="158">
         <f>CP5</f>
-        <v>45789</v>
-      </c>
-      <c r="CQ4" s="159"/>
-      <c r="CR4" s="159"/>
-      <c r="CS4" s="159"/>
-      <c r="CT4" s="159"/>
-      <c r="CU4" s="159"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="159">
+        <v>45803</v>
+      </c>
+      <c r="CQ4" s="158"/>
+      <c r="CR4" s="158"/>
+      <c r="CS4" s="158"/>
+      <c r="CT4" s="158"/>
+      <c r="CU4" s="158"/>
+      <c r="CV4" s="159"/>
+      <c r="CW4" s="158">
         <f>CW5</f>
-        <v>45796</v>
-      </c>
-      <c r="CX4" s="159"/>
-      <c r="CY4" s="159"/>
-      <c r="CZ4" s="159"/>
-      <c r="DA4" s="159"/>
-      <c r="DB4" s="159"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="159">
+        <v>45810</v>
+      </c>
+      <c r="CX4" s="158"/>
+      <c r="CY4" s="158"/>
+      <c r="CZ4" s="158"/>
+      <c r="DA4" s="158"/>
+      <c r="DB4" s="158"/>
+      <c r="DC4" s="159"/>
+      <c r="DD4" s="158">
         <f>DD5</f>
-        <v>45803</v>
-      </c>
-      <c r="DE4" s="159"/>
-      <c r="DF4" s="159"/>
-      <c r="DG4" s="159"/>
-      <c r="DH4" s="159"/>
-      <c r="DI4" s="159"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="159">
+        <v>45817</v>
+      </c>
+      <c r="DE4" s="158"/>
+      <c r="DF4" s="158"/>
+      <c r="DG4" s="158"/>
+      <c r="DH4" s="158"/>
+      <c r="DI4" s="158"/>
+      <c r="DJ4" s="159"/>
+      <c r="DK4" s="158">
         <f>DK5</f>
-        <v>45810</v>
-      </c>
-      <c r="DL4" s="159"/>
-      <c r="DM4" s="159"/>
-      <c r="DN4" s="159"/>
-      <c r="DO4" s="159"/>
-      <c r="DP4" s="159"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="159">
+        <v>45824</v>
+      </c>
+      <c r="DL4" s="158"/>
+      <c r="DM4" s="158"/>
+      <c r="DN4" s="158"/>
+      <c r="DO4" s="158"/>
+      <c r="DP4" s="158"/>
+      <c r="DQ4" s="159"/>
+      <c r="DR4" s="158">
         <f>DR5</f>
-        <v>45817</v>
-      </c>
-      <c r="DS4" s="159"/>
-      <c r="DT4" s="159"/>
-      <c r="DU4" s="159"/>
-      <c r="DV4" s="159"/>
-      <c r="DW4" s="159"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="159">
+        <v>45831</v>
+      </c>
+      <c r="DS4" s="158"/>
+      <c r="DT4" s="158"/>
+      <c r="DU4" s="158"/>
+      <c r="DV4" s="158"/>
+      <c r="DW4" s="158"/>
+      <c r="DX4" s="159"/>
+      <c r="DY4" s="158">
         <f>DY5</f>
-        <v>45824</v>
-      </c>
-      <c r="DZ4" s="159"/>
-      <c r="EA4" s="159"/>
-      <c r="EB4" s="159"/>
-      <c r="EC4" s="159"/>
-      <c r="ED4" s="159"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="159">
+        <v>45838</v>
+      </c>
+      <c r="DZ4" s="158"/>
+      <c r="EA4" s="158"/>
+      <c r="EB4" s="158"/>
+      <c r="EC4" s="158"/>
+      <c r="ED4" s="158"/>
+      <c r="EE4" s="159"/>
+      <c r="EF4" s="158">
         <f>EF5</f>
-        <v>45831</v>
-      </c>
-      <c r="EG4" s="159"/>
-      <c r="EH4" s="159"/>
-      <c r="EI4" s="159"/>
-      <c r="EJ4" s="159"/>
-      <c r="EK4" s="159"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="159">
+        <v>45845</v>
+      </c>
+      <c r="EG4" s="158"/>
+      <c r="EH4" s="158"/>
+      <c r="EI4" s="158"/>
+      <c r="EJ4" s="158"/>
+      <c r="EK4" s="158"/>
+      <c r="EL4" s="159"/>
+      <c r="EM4" s="158">
         <f>EM5</f>
-        <v>45838</v>
-      </c>
-      <c r="EN4" s="159"/>
-      <c r="EO4" s="159"/>
-      <c r="EP4" s="159"/>
-      <c r="EQ4" s="159"/>
-      <c r="ER4" s="159"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="159">
+        <v>45852</v>
+      </c>
+      <c r="EN4" s="158"/>
+      <c r="EO4" s="158"/>
+      <c r="EP4" s="158"/>
+      <c r="EQ4" s="158"/>
+      <c r="ER4" s="158"/>
+      <c r="ES4" s="159"/>
+      <c r="ET4" s="158">
         <f>ET5</f>
-        <v>45845</v>
-      </c>
-      <c r="EU4" s="159"/>
-      <c r="EV4" s="159"/>
-      <c r="EW4" s="159"/>
-      <c r="EX4" s="159"/>
-      <c r="EY4" s="159"/>
-      <c r="EZ4" s="160"/>
+        <v>45859</v>
+      </c>
+      <c r="EU4" s="158"/>
+      <c r="EV4" s="158"/>
+      <c r="EW4" s="158"/>
+      <c r="EX4" s="158"/>
+      <c r="EY4" s="158"/>
+      <c r="EZ4" s="159"/>
     </row>
-    <row r="5" spans="1:156" s="14" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174"/>
-      <c r="B5" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="170" t="s">
+    <row r="5" spans="1:156" s="14" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A5" s="152"/>
+      <c r="B5" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="176" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="170" t="s">
+      <c r="D5" s="149" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="170" t="s">
+      <c r="G5" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="170" t="s">
+      <c r="H5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="146" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="170" t="s">
+      <c r="K5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="170" t="s">
+      <c r="L5" s="146" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="73"/>
       <c r="N5" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="15">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45712</v>
+        <v>45726</v>
       </c>
       <c r="R5" s="15">
         <f>Q5+1</f>
-        <v>45713</v>
+        <v>45727</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" ref="S5:BF5" si="0">R5+1</f>
-        <v>45714</v>
+        <v>45728</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" si="0"/>
-        <v>45715</v>
+        <v>45729</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>45716</v>
+        <v>45730</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" si="0"/>
-        <v>45717</v>
+        <v>45731</v>
       </c>
       <c r="W5" s="16">
         <f t="shared" si="0"/>
-        <v>45718</v>
+        <v>45732</v>
       </c>
       <c r="X5" s="17">
         <f>W5+1</f>
-        <v>45719</v>
+        <v>45733</v>
       </c>
       <c r="Y5" s="15">
         <f>X5+1</f>
-        <v>45720</v>
+        <v>45734</v>
       </c>
       <c r="Z5" s="15">
         <f t="shared" si="0"/>
-        <v>45721</v>
+        <v>45735</v>
       </c>
       <c r="AA5" s="15">
         <f t="shared" si="0"/>
-        <v>45722</v>
+        <v>45736</v>
       </c>
       <c r="AB5" s="15">
         <f t="shared" si="0"/>
-        <v>45723</v>
+        <v>45737</v>
       </c>
       <c r="AC5" s="15">
         <f t="shared" si="0"/>
-        <v>45724</v>
+        <v>45738</v>
       </c>
       <c r="AD5" s="16">
         <f t="shared" si="0"/>
-        <v>45725</v>
+        <v>45739</v>
       </c>
       <c r="AE5" s="17">
         <f>AD5+1</f>
-        <v>45726</v>
+        <v>45740</v>
       </c>
       <c r="AF5" s="15">
         <f>AE5+1</f>
-        <v>45727</v>
+        <v>45741</v>
       </c>
       <c r="AG5" s="15">
         <f t="shared" si="0"/>
-        <v>45728</v>
+        <v>45742</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" si="0"/>
-        <v>45729</v>
+        <v>45743</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" si="0"/>
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="0"/>
-        <v>45731</v>
+        <v>45745</v>
       </c>
       <c r="AK5" s="16">
         <f t="shared" si="0"/>
-        <v>45732</v>
+        <v>45746</v>
       </c>
       <c r="AL5" s="17">
         <f>AK5+1</f>
-        <v>45733</v>
+        <v>45747</v>
       </c>
       <c r="AM5" s="15">
         <f>AL5+1</f>
-        <v>45734</v>
+        <v>45748</v>
       </c>
       <c r="AN5" s="15">
         <f t="shared" si="0"/>
-        <v>45735</v>
+        <v>45749</v>
       </c>
       <c r="AO5" s="15">
         <f t="shared" si="0"/>
-        <v>45736</v>
+        <v>45750</v>
       </c>
       <c r="AP5" s="15">
         <f t="shared" si="0"/>
-        <v>45737</v>
+        <v>45751</v>
       </c>
       <c r="AQ5" s="15">
         <f t="shared" si="0"/>
-        <v>45738</v>
+        <v>45752</v>
       </c>
       <c r="AR5" s="16">
         <f t="shared" si="0"/>
-        <v>45739</v>
+        <v>45753</v>
       </c>
       <c r="AS5" s="17">
         <f>AR5+1</f>
-        <v>45740</v>
+        <v>45754</v>
       </c>
       <c r="AT5" s="15">
         <f>AS5+1</f>
-        <v>45741</v>
+        <v>45755</v>
       </c>
       <c r="AU5" s="15">
         <f t="shared" si="0"/>
-        <v>45742</v>
+        <v>45756</v>
       </c>
       <c r="AV5" s="15">
         <f t="shared" si="0"/>
-        <v>45743</v>
+        <v>45757</v>
       </c>
       <c r="AW5" s="15">
         <f t="shared" si="0"/>
-        <v>45744</v>
+        <v>45758</v>
       </c>
       <c r="AX5" s="15">
         <f t="shared" si="0"/>
-        <v>45745</v>
+        <v>45759</v>
       </c>
       <c r="AY5" s="16">
         <f t="shared" si="0"/>
-        <v>45746</v>
+        <v>45760</v>
       </c>
       <c r="AZ5" s="17">
         <f>AY5+1</f>
-        <v>45747</v>
+        <v>45761</v>
       </c>
       <c r="BA5" s="15">
         <f>AZ5+1</f>
-        <v>45748</v>
+        <v>45762</v>
       </c>
       <c r="BB5" s="15">
         <f t="shared" si="0"/>
-        <v>45749</v>
+        <v>45763</v>
       </c>
       <c r="BC5" s="15">
         <f t="shared" si="0"/>
-        <v>45750</v>
+        <v>45764</v>
       </c>
       <c r="BD5" s="15">
         <f t="shared" si="0"/>
-        <v>45751</v>
+        <v>45765</v>
       </c>
       <c r="BE5" s="15">
         <f t="shared" si="0"/>
-        <v>45752</v>
+        <v>45766</v>
       </c>
       <c r="BF5" s="16">
         <f t="shared" si="0"/>
-        <v>45753</v>
+        <v>45767</v>
       </c>
       <c r="BG5" s="17">
         <f>BF5+1</f>
-        <v>45754</v>
+        <v>45768</v>
       </c>
       <c r="BH5" s="15">
         <f>BG5+1</f>
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="BI5" s="15">
         <f t="shared" ref="BI5:BM5" si="1">BH5+1</f>
-        <v>45756</v>
+        <v>45770</v>
       </c>
       <c r="BJ5" s="15">
         <f t="shared" si="1"/>
-        <v>45757</v>
+        <v>45771</v>
       </c>
       <c r="BK5" s="15">
         <f t="shared" si="1"/>
-        <v>45758</v>
+        <v>45772</v>
       </c>
       <c r="BL5" s="15">
         <f t="shared" si="1"/>
-        <v>45759</v>
+        <v>45773</v>
       </c>
       <c r="BM5" s="16">
         <f t="shared" si="1"/>
-        <v>45760</v>
+        <v>45774</v>
       </c>
       <c r="BN5" s="17">
         <f>BM5+1</f>
-        <v>45761</v>
+        <v>45775</v>
       </c>
       <c r="BO5" s="15">
         <f>BN5+1</f>
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="BP5" s="15">
         <f t="shared" ref="BP5:BT5" si="2">BO5+1</f>
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="BQ5" s="15">
         <f t="shared" si="2"/>
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="BR5" s="15">
         <f t="shared" si="2"/>
-        <v>45765</v>
+        <v>45779</v>
       </c>
       <c r="BS5" s="15">
         <f t="shared" si="2"/>
-        <v>45766</v>
+        <v>45780</v>
       </c>
       <c r="BT5" s="15">
         <f t="shared" si="2"/>
-        <v>45767</v>
+        <v>45781</v>
       </c>
       <c r="BU5" s="17">
         <f>BT5+1</f>
-        <v>45768</v>
+        <v>45782</v>
       </c>
       <c r="BV5" s="15">
         <f>BU5+1</f>
-        <v>45769</v>
+        <v>45783</v>
       </c>
       <c r="BW5" s="15">
         <f t="shared" ref="BW5" si="3">BV5+1</f>
-        <v>45770</v>
+        <v>45784</v>
       </c>
       <c r="BX5" s="15">
         <f t="shared" ref="BX5" si="4">BW5+1</f>
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="BY5" s="15">
         <f t="shared" ref="BY5" si="5">BX5+1</f>
-        <v>45772</v>
+        <v>45786</v>
       </c>
       <c r="BZ5" s="15">
         <f t="shared" ref="BZ5" si="6">BY5+1</f>
-        <v>45773</v>
+        <v>45787</v>
       </c>
       <c r="CA5" s="15">
         <f t="shared" ref="CA5" si="7">BZ5+1</f>
-        <v>45774</v>
+        <v>45788</v>
       </c>
       <c r="CB5" s="17">
         <f>CA5+1</f>
-        <v>45775</v>
+        <v>45789</v>
       </c>
       <c r="CC5" s="15">
         <f>CB5+1</f>
-        <v>45776</v>
+        <v>45790</v>
       </c>
       <c r="CD5" s="15">
         <f t="shared" ref="CD5" si="8">CC5+1</f>
-        <v>45777</v>
+        <v>45791</v>
       </c>
       <c r="CE5" s="15">
         <f t="shared" ref="CE5" si="9">CD5+1</f>
-        <v>45778</v>
+        <v>45792</v>
       </c>
       <c r="CF5" s="15">
         <f t="shared" ref="CF5" si="10">CE5+1</f>
-        <v>45779</v>
+        <v>45793</v>
       </c>
       <c r="CG5" s="15">
         <f t="shared" ref="CG5" si="11">CF5+1</f>
-        <v>45780</v>
+        <v>45794</v>
       </c>
       <c r="CH5" s="15">
         <f t="shared" ref="CH5" si="12">CG5+1</f>
-        <v>45781</v>
+        <v>45795</v>
       </c>
       <c r="CI5" s="17">
         <f>CH5+1</f>
-        <v>45782</v>
+        <v>45796</v>
       </c>
       <c r="CJ5" s="15">
         <f>CI5+1</f>
-        <v>45783</v>
+        <v>45797</v>
       </c>
       <c r="CK5" s="15">
         <f t="shared" ref="CK5" si="13">CJ5+1</f>
-        <v>45784</v>
+        <v>45798</v>
       </c>
       <c r="CL5" s="15">
         <f t="shared" ref="CL5" si="14">CK5+1</f>
-        <v>45785</v>
+        <v>45799</v>
       </c>
       <c r="CM5" s="15">
         <f t="shared" ref="CM5" si="15">CL5+1</f>
-        <v>45786</v>
+        <v>45800</v>
       </c>
       <c r="CN5" s="15">
         <f t="shared" ref="CN5" si="16">CM5+1</f>
-        <v>45787</v>
+        <v>45801</v>
       </c>
       <c r="CO5" s="15">
         <f t="shared" ref="CO5" si="17">CN5+1</f>
-        <v>45788</v>
+        <v>45802</v>
       </c>
       <c r="CP5" s="17">
         <f>CO5+1</f>
-        <v>45789</v>
+        <v>45803</v>
       </c>
       <c r="CQ5" s="15">
         <f>CP5+1</f>
-        <v>45790</v>
+        <v>45804</v>
       </c>
       <c r="CR5" s="15">
         <f t="shared" ref="CR5" si="18">CQ5+1</f>
-        <v>45791</v>
+        <v>45805</v>
       </c>
       <c r="CS5" s="15">
         <f t="shared" ref="CS5" si="19">CR5+1</f>
-        <v>45792</v>
+        <v>45806</v>
       </c>
       <c r="CT5" s="15">
         <f t="shared" ref="CT5" si="20">CS5+1</f>
-        <v>45793</v>
+        <v>45807</v>
       </c>
       <c r="CU5" s="15">
         <f t="shared" ref="CU5" si="21">CT5+1</f>
-        <v>45794</v>
+        <v>45808</v>
       </c>
       <c r="CV5" s="15">
         <f t="shared" ref="CV5" si="22">CU5+1</f>
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="CW5" s="17">
         <f>CV5+1</f>
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="CX5" s="15">
         <f>CW5+1</f>
-        <v>45797</v>
+        <v>45811</v>
       </c>
       <c r="CY5" s="15">
         <f t="shared" ref="CY5" si="23">CX5+1</f>
-        <v>45798</v>
+        <v>45812</v>
       </c>
       <c r="CZ5" s="15">
         <f t="shared" ref="CZ5" si="24">CY5+1</f>
-        <v>45799</v>
+        <v>45813</v>
       </c>
       <c r="DA5" s="15">
         <f t="shared" ref="DA5" si="25">CZ5+1</f>
-        <v>45800</v>
+        <v>45814</v>
       </c>
       <c r="DB5" s="15">
         <f t="shared" ref="DB5" si="26">DA5+1</f>
-        <v>45801</v>
+        <v>45815</v>
       </c>
       <c r="DC5" s="15">
         <f t="shared" ref="DC5" si="27">DB5+1</f>
-        <v>45802</v>
+        <v>45816</v>
       </c>
       <c r="DD5" s="17">
         <f>DC5+1</f>
-        <v>45803</v>
+        <v>45817</v>
       </c>
       <c r="DE5" s="15">
         <f>DD5+1</f>
-        <v>45804</v>
+        <v>45818</v>
       </c>
       <c r="DF5" s="15">
         <f t="shared" ref="DF5" si="28">DE5+1</f>
-        <v>45805</v>
+        <v>45819</v>
       </c>
       <c r="DG5" s="15">
         <f t="shared" ref="DG5" si="29">DF5+1</f>
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="DH5" s="15">
         <f t="shared" ref="DH5" si="30">DG5+1</f>
-        <v>45807</v>
+        <v>45821</v>
       </c>
       <c r="DI5" s="15">
         <f t="shared" ref="DI5" si="31">DH5+1</f>
-        <v>45808</v>
+        <v>45822</v>
       </c>
       <c r="DJ5" s="15">
         <f t="shared" ref="DJ5" si="32">DI5+1</f>
-        <v>45809</v>
+        <v>45823</v>
       </c>
       <c r="DK5" s="17">
         <f>DJ5+1</f>
-        <v>45810</v>
+        <v>45824</v>
       </c>
       <c r="DL5" s="15">
         <f>DK5+1</f>
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="DM5" s="15">
         <f t="shared" ref="DM5" si="33">DL5+1</f>
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="DN5" s="15">
         <f t="shared" ref="DN5" si="34">DM5+1</f>
-        <v>45813</v>
+        <v>45827</v>
       </c>
       <c r="DO5" s="15">
         <f t="shared" ref="DO5" si="35">DN5+1</f>
-        <v>45814</v>
+        <v>45828</v>
       </c>
       <c r="DP5" s="15">
         <f t="shared" ref="DP5" si="36">DO5+1</f>
-        <v>45815</v>
+        <v>45829</v>
       </c>
       <c r="DQ5" s="15">
         <f t="shared" ref="DQ5" si="37">DP5+1</f>
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="DR5" s="17">
         <f>DQ5+1</f>
-        <v>45817</v>
+        <v>45831</v>
       </c>
       <c r="DS5" s="15">
         <f>DR5+1</f>
-        <v>45818</v>
+        <v>45832</v>
       </c>
       <c r="DT5" s="15">
         <f t="shared" ref="DT5" si="38">DS5+1</f>
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="DU5" s="15">
         <f t="shared" ref="DU5" si="39">DT5+1</f>
-        <v>45820</v>
+        <v>45834</v>
       </c>
       <c r="DV5" s="15">
         <f t="shared" ref="DV5" si="40">DU5+1</f>
-        <v>45821</v>
+        <v>45835</v>
       </c>
       <c r="DW5" s="15">
         <f t="shared" ref="DW5" si="41">DV5+1</f>
-        <v>45822</v>
+        <v>45836</v>
       </c>
       <c r="DX5" s="15">
         <f t="shared" ref="DX5" si="42">DW5+1</f>
-        <v>45823</v>
+        <v>45837</v>
       </c>
       <c r="DY5" s="17">
         <f>DX5+1</f>
-        <v>45824</v>
+        <v>45838</v>
       </c>
       <c r="DZ5" s="15">
         <f>DY5+1</f>
-        <v>45825</v>
+        <v>45839</v>
       </c>
       <c r="EA5" s="15">
         <f t="shared" ref="EA5" si="43">DZ5+1</f>
-        <v>45826</v>
+        <v>45840</v>
       </c>
       <c r="EB5" s="15">
         <f t="shared" ref="EB5" si="44">EA5+1</f>
-        <v>45827</v>
+        <v>45841</v>
       </c>
       <c r="EC5" s="15">
         <f t="shared" ref="EC5" si="45">EB5+1</f>
-        <v>45828</v>
+        <v>45842</v>
       </c>
       <c r="ED5" s="15">
         <f t="shared" ref="ED5" si="46">EC5+1</f>
-        <v>45829</v>
+        <v>45843</v>
       </c>
       <c r="EE5" s="15">
         <f t="shared" ref="EE5" si="47">ED5+1</f>
-        <v>45830</v>
+        <v>45844</v>
       </c>
       <c r="EF5" s="17">
         <f>EE5+1</f>
-        <v>45831</v>
+        <v>45845</v>
       </c>
       <c r="EG5" s="15">
         <f>EF5+1</f>
-        <v>45832</v>
+        <v>45846</v>
       </c>
       <c r="EH5" s="15">
         <f t="shared" ref="EH5" si="48">EG5+1</f>
-        <v>45833</v>
+        <v>45847</v>
       </c>
       <c r="EI5" s="15">
         <f t="shared" ref="EI5" si="49">EH5+1</f>
-        <v>45834</v>
+        <v>45848</v>
       </c>
       <c r="EJ5" s="15">
         <f t="shared" ref="EJ5" si="50">EI5+1</f>
-        <v>45835</v>
+        <v>45849</v>
       </c>
       <c r="EK5" s="15">
         <f t="shared" ref="EK5" si="51">EJ5+1</f>
-        <v>45836</v>
+        <v>45850</v>
       </c>
       <c r="EL5" s="15">
         <f t="shared" ref="EL5" si="52">EK5+1</f>
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="EM5" s="17">
         <f>EL5+1</f>
-        <v>45838</v>
+        <v>45852</v>
       </c>
       <c r="EN5" s="15">
         <f>EM5+1</f>
-        <v>45839</v>
+        <v>45853</v>
       </c>
       <c r="EO5" s="15">
         <f t="shared" ref="EO5" si="53">EN5+1</f>
-        <v>45840</v>
+        <v>45854</v>
       </c>
       <c r="EP5" s="15">
         <f t="shared" ref="EP5" si="54">EO5+1</f>
-        <v>45841</v>
+        <v>45855</v>
       </c>
       <c r="EQ5" s="15">
         <f t="shared" ref="EQ5" si="55">EP5+1</f>
-        <v>45842</v>
+        <v>45856</v>
       </c>
       <c r="ER5" s="15">
         <f t="shared" ref="ER5" si="56">EQ5+1</f>
-        <v>45843</v>
+        <v>45857</v>
       </c>
       <c r="ES5" s="15">
         <f t="shared" ref="ES5" si="57">ER5+1</f>
-        <v>45844</v>
+        <v>45858</v>
       </c>
       <c r="ET5" s="17">
         <f>ES5+1</f>
-        <v>45845</v>
+        <v>45859</v>
       </c>
       <c r="EU5" s="15">
         <f>ET5+1</f>
-        <v>45846</v>
+        <v>45860</v>
       </c>
       <c r="EV5" s="15">
         <f t="shared" ref="EV5" si="58">EU5+1</f>
-        <v>45847</v>
+        <v>45861</v>
       </c>
       <c r="EW5" s="15">
         <f t="shared" ref="EW5" si="59">EV5+1</f>
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="EX5" s="15">
         <f t="shared" ref="EX5" si="60">EW5+1</f>
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="EY5" s="15">
         <f t="shared" ref="EY5" si="61">EX5+1</f>
-        <v>45850</v>
+        <v>45864</v>
       </c>
       <c r="EZ5" s="15">
         <f t="shared" ref="EZ5" si="62">EY5+1</f>
-        <v>45851</v>
+        <v>45865</v>
       </c>
     </row>
-    <row r="6" spans="1:156" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="171"/>
+    <row r="6" spans="1:156" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A6" s="152"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="Q6" s="18" t="str">
@@ -4678,39 +4693,39 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99" t="s">
+      <c r="D7" s="96"/>
+      <c r="E7" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="118">
         <v>1</v>
       </c>
-      <c r="I7" s="131">
+      <c r="I7" s="125">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="J7" s="131">
+      <c r="J7" s="125">
         <v>45709</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="125">
         <f>Project_Start</f>
         <v>45705</v>
       </c>
-      <c r="L7" s="131">
+      <c r="L7" s="125">
         <v>45715</v>
       </c>
       <c r="M7" s="75" t="b">
@@ -4869,50 +4884,51 @@
       <c r="EY7" s="21"/>
       <c r="EZ7" s="21"/>
     </row>
-    <row r="8" spans="1:156" s="22" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:156" s="22" customFormat="1" ht="25" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="153" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="154">
+      <c r="B8" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="179">
         <v>0</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76">
-        <f>Project_Start</f>
-        <v>45705</v>
-      </c>
-      <c r="L8" s="76">
-        <v>45716</v>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="190">
+        <v>45831</v>
+      </c>
+      <c r="L8" s="190">
+        <v>45838</v>
       </c>
       <c r="M8" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H8 &lt;  _xlfn.DAYS(TODAY(), K8)/ _xlfn.DAYS(L8,K8), TODAY()&lt;=L8), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N8" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L8, H8&lt;1),M8), -1, IF(H8=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="69"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
@@ -5055,51 +5071,51 @@
       <c r="EY8" s="24"/>
       <c r="EZ8" s="24"/>
     </row>
-    <row r="9" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="64">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="137">
-        <v>45714</v>
-      </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="78">
-        <v>45712</v>
-      </c>
-      <c r="L9" s="78">
-        <v>45719</v>
+      <c r="B9" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="180">
+        <v>0</v>
+      </c>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="190">
+        <v>45826</v>
+      </c>
+      <c r="L9" s="190">
+        <v>45828</v>
       </c>
       <c r="M9" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H9 &lt;  _xlfn.DAYS(TODAY(), K9)/ _xlfn.DAYS(L9,K9), TODAY()&lt;=L9), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N9" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L9, H9&lt;1),M9), -1, IF(H9=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="69"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -5242,51 +5258,51 @@
       <c r="EY9" s="24"/>
       <c r="EZ9" s="24"/>
     </row>
-    <row r="10" spans="1:156" s="22" customFormat="1" ht="48" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:156" s="22" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="63" t="s">
+      <c r="B10" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="64">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="155">
-        <v>45714</v>
-      </c>
-      <c r="J10" s="155"/>
-      <c r="K10" s="78">
-        <v>45709</v>
-      </c>
-      <c r="L10" s="78">
-        <v>45731</v>
+      <c r="H10" s="181">
+        <v>0</v>
+      </c>
+      <c r="I10" s="185"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="191">
+        <v>45818</v>
+      </c>
+      <c r="L10" s="191">
+        <v>45825</v>
       </c>
       <c r="M10" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <f ca="1">IF(AND(H10 &lt;  _xlfn.DAYS(TODAY(), K10)/ _xlfn.DAYS(L10,K10), TODAY()&lt;=L10), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N10" s="81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L10, H10&lt;1),M10), -1, IF(H10=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="69"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -5429,10 +5445,10 @@
       <c r="EY10" s="24"/>
       <c r="EZ10" s="24"/>
     </row>
-    <row r="11" spans="1:156" s="22" customFormat="1" ht="63" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:156" s="22" customFormat="1" ht="63" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="10"/>
       <c r="B11" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>31</v>
@@ -5465,14 +5481,14 @@
         <v>45709</v>
       </c>
       <c r="M11" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H11 &lt;  _xlfn.DAYS(TODAY(), K11)/ _xlfn.DAYS(L11,K11), TODAY()&lt;=L11), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N11" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L11, H11&lt;1),M11), -1, IF(H11=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P11" s="2">
@@ -5620,10 +5636,10 @@
       <c r="EY11" s="24"/>
       <c r="EZ11" s="24"/>
     </row>
-    <row r="12" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="10"/>
       <c r="B12" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>35</v>
@@ -5656,14 +5672,14 @@
         <v>45709</v>
       </c>
       <c r="M12" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H12 &lt;  _xlfn.DAYS(TODAY(), K12)/ _xlfn.DAYS(L12,K12), TODAY()&lt;=L12), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N12" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L12, H12&lt;1),M12), -1, IF(H12=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P12" s="2">
@@ -5811,10 +5827,10 @@
       <c r="EY12" s="24"/>
       <c r="EZ12" s="24"/>
     </row>
-    <row r="13" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>30</v>
@@ -5847,14 +5863,14 @@
         <v>45709</v>
       </c>
       <c r="M13" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H13 &lt;  _xlfn.DAYS(TODAY(), K13)/ _xlfn.DAYS(L13,K13), TODAY()&lt;=L13), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N13" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L13, H13&lt;1),M13), -1, IF(H13=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P13" s="2">
@@ -6002,10 +6018,10 @@
       <c r="EY13" s="24"/>
       <c r="EZ13" s="24"/>
     </row>
-    <row r="14" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="10"/>
       <c r="B14" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>34</v>
@@ -6038,14 +6054,14 @@
         <v>45709</v>
       </c>
       <c r="M14" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H14 &lt;  _xlfn.DAYS(TODAY(), K14)/ _xlfn.DAYS(L14,K14), TODAY()&lt;=L14), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N14" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L14, H14&lt;1),M14), -1, IF(H14=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P14" s="2"/>
@@ -6190,10 +6206,10 @@
       <c r="EY14" s="24"/>
       <c r="EZ14" s="24"/>
     </row>
-    <row r="15" spans="1:156" s="22" customFormat="1" ht="16" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:156" s="22" customFormat="1" ht="16" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="10"/>
       <c r="B15" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>26</v>
@@ -6226,14 +6242,14 @@
         <v>45709</v>
       </c>
       <c r="M15" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H15 &lt;  _xlfn.DAYS(TODAY(), K15)/ _xlfn.DAYS(L15,K15), TODAY()&lt;=L15), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N15" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L15, H15&lt;1),M15), -1, IF(H15=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P15" s="2"/>
@@ -6378,45 +6394,45 @@
       <c r="EY15" s="24"/>
       <c r="EZ15" s="24"/>
     </row>
-    <row r="16" spans="1:156" s="22" customFormat="1" ht="53" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:156" s="22" customFormat="1" ht="53" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="100" t="s">
+      <c r="B16" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="124">
-        <v>0.15</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="94">
+      <c r="G16" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="119">
+        <v>1</v>
+      </c>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="92">
         <v>45719</v>
       </c>
-      <c r="L16" s="94">
+      <c r="L16" s="92">
         <v>45733</v>
       </c>
       <c r="M16" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <f ca="1">IF(AND(H16 &lt;  _xlfn.DAYS(TODAY(), K16)/ _xlfn.DAYS(L16,K16), TODAY()&lt;=L16), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N16" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L16, H16&lt;1),M16), -1, IF(H16=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="24"/>
@@ -6560,10 +6576,10 @@
       <c r="EY16" s="24"/>
       <c r="EZ16" s="24"/>
     </row>
-    <row r="17" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="10"/>
       <c r="B17" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>68</v>
@@ -6594,14 +6610,14 @@
         <v>45709</v>
       </c>
       <c r="M17" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H17 &lt;  _xlfn.DAYS(TODAY(), K17)/ _xlfn.DAYS(L17,K17), TODAY()&lt;=L17), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N17" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L17, H17&lt;1),M17), -1, IF(H17=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P17" s="2"/>
@@ -6746,47 +6762,47 @@
       <c r="EY17" s="24"/>
       <c r="EZ17" s="24"/>
     </row>
-    <row r="18" spans="1:156" s="22" customFormat="1" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:156" s="22" customFormat="1" ht="37" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="64">
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="76">
-        <v>45712</v>
-      </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="78">
-        <v>45712</v>
-      </c>
-      <c r="L18" s="78">
-        <v>45714</v>
+      <c r="B18" s="172" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="175" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="181">
+        <v>0</v>
+      </c>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="191">
+        <v>45813</v>
+      </c>
+      <c r="L18" s="191">
+        <v>45818</v>
       </c>
       <c r="M18" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H18 &lt;  _xlfn.DAYS(TODAY(), K18)/ _xlfn.DAYS(L18,K18), TODAY()&lt;=L18), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N18" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L18, H18&lt;1),M18), -1, IF(H18=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="24"/>
@@ -6930,47 +6946,51 @@
       <c r="EY18" s="24"/>
       <c r="EZ18" s="24"/>
     </row>
-    <row r="19" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="44" t="s">
+      <c r="B19" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="172" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="64">
-        <v>0.9</v>
-      </c>
-      <c r="I19" s="76">
-        <v>45712</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="78">
-        <v>45712</v>
-      </c>
-      <c r="L19" s="78">
-        <v>45714</v>
+      <c r="G19" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="181">
+        <v>0</v>
+      </c>
+      <c r="I19" s="188">
+        <v>45809</v>
+      </c>
+      <c r="J19" s="188">
+        <v>45833</v>
+      </c>
+      <c r="K19" s="191">
+        <v>45809</v>
+      </c>
+      <c r="L19" s="191">
+        <v>45833</v>
       </c>
       <c r="M19" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H19 &lt;  _xlfn.DAYS(TODAY(), K19)/ _xlfn.DAYS(L19,K19), TODAY()&lt;=L19), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N19" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L19, H19&lt;1),M19), -1, IF(H19=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="24"/>
@@ -7114,47 +7134,47 @@
       <c r="EY19" s="24"/>
       <c r="EZ19" s="24"/>
     </row>
-    <row r="20" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="64">
-        <v>0.9</v>
-      </c>
-      <c r="I20" s="76">
-        <v>45712</v>
-      </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="89">
-        <v>45712</v>
-      </c>
-      <c r="L20" s="89">
-        <v>45714</v>
+      <c r="B20" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="119">
+        <v>0</v>
+      </c>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="80">
+        <v>45796</v>
+      </c>
+      <c r="L20" s="80">
+        <v>45800</v>
       </c>
       <c r="M20" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H20 &lt;  _xlfn.DAYS(TODAY(), K20)/ _xlfn.DAYS(L20,K20), TODAY()&lt;=L20), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N20" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L20, H20&lt;1),M20), -1, IF(H20=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="24"/>
@@ -7298,45 +7318,47 @@
       <c r="EY20" s="24"/>
       <c r="EZ20" s="24"/>
     </row>
-    <row r="21" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="H21" s="124">
+      <c r="B21" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="119">
         <v>0</v>
       </c>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="94">
-        <v>45714</v>
-      </c>
-      <c r="L21" s="94">
-        <v>45716</v>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="92">
+        <v>45792</v>
+      </c>
+      <c r="L21" s="92">
+        <v>45823</v>
       </c>
       <c r="M21" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H21 &lt;  _xlfn.DAYS(TODAY(), K21)/ _xlfn.DAYS(L21,K21), TODAY()&lt;=L21), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L21, H21&lt;1),M21), -1, IF(H21=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="24"/>
@@ -7480,44 +7502,46 @@
       <c r="EY21" s="24"/>
       <c r="EZ21" s="24"/>
     </row>
-    <row r="22" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="10"/>
       <c r="B22" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="124">
+        <v>146</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="119">
         <v>0</v>
       </c>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="94">
-        <v>45726</v>
-      </c>
-      <c r="L22" s="94">
-        <v>45731</v>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="92">
+        <v>45786</v>
+      </c>
+      <c r="L22" s="92">
+        <v>45790</v>
       </c>
       <c r="M22" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H22 &lt;  _xlfn.DAYS(TODAY(), K22)/ _xlfn.DAYS(L22,K22), TODAY()&lt;=L22), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N22" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L22, H22&lt;1),M22), -1, IF(H22=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
@@ -7662,45 +7686,47 @@
       <c r="EY22" s="24"/>
       <c r="EZ22" s="24"/>
     </row>
-    <row r="23" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="64">
+      <c r="B23" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="119">
         <v>0</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="78">
-        <v>45716</v>
-      </c>
-      <c r="L23" s="78">
-        <v>45730</v>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="92">
+        <v>45778</v>
+      </c>
+      <c r="L23" s="92">
+        <v>45792</v>
       </c>
       <c r="M23" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <f ca="1">IF(AND(H23 &lt;  _xlfn.DAYS(TODAY(), K23)/ _xlfn.DAYS(L23,K23), TODAY()&lt;=L23), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N23" s="81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L23, H23&lt;1),M23), -1, IF(H23=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="24"/>
@@ -7844,45 +7870,45 @@
       <c r="EY23" s="24"/>
       <c r="EZ23" s="24"/>
     </row>
-    <row r="24" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44" t="s">
+      <c r="B24" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="63" t="s">
+      <c r="F24" s="176" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="182">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92">
+        <v>45777</v>
+      </c>
+      <c r="L24" s="92">
+        <v>45778</v>
+      </c>
+      <c r="M24" s="75" t="b">
+        <f ca="1">IF(AND(H24 &lt;  _xlfn.DAYS(TODAY(), K24)/ _xlfn.DAYS(L24,K24), TODAY()&lt;=L24), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="78">
-        <v>45722</v>
-      </c>
-      <c r="L24" s="78">
-        <v>45728</v>
-      </c>
-      <c r="M24" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+      <c r="N24" s="81" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="81" t="b">
+      <c r="O24" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L24, H24&lt;1),M24), -1, IF(H24=1, 1, 0))</f>
         <v>0</v>
-      </c>
-      <c r="O24" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="24"/>
@@ -8026,45 +8052,47 @@
       <c r="EY24" s="24"/>
       <c r="EZ24" s="24"/>
     </row>
-    <row r="25" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:156" s="22" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100" t="s">
-        <v>70</v>
+      <c r="B25" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="124">
+        <v>103</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="119">
         <v>0</v>
       </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="94">
-        <v>45719</v>
-      </c>
-      <c r="L25" s="94">
-        <v>45721</v>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="92">
+        <v>45764</v>
+      </c>
+      <c r="L25" s="92">
+        <v>45825</v>
       </c>
       <c r="M25" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H25 &lt;  _xlfn.DAYS(TODAY(), K25)/ _xlfn.DAYS(L25,K25), TODAY()&lt;=L25), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N25" s="81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L25, H25&lt;1),M25), -1, IF(H25=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="24"/>
@@ -8208,49 +8236,49 @@
       <c r="EY25" s="24"/>
       <c r="EZ25" s="24"/>
     </row>
-    <row r="26" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="64">
+      <c r="B26" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="119">
         <v>0</v>
       </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="78">
-        <v>45720</v>
-      </c>
-      <c r="L26" s="78">
-        <v>45737</v>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="92">
+        <v>45762</v>
+      </c>
+      <c r="L26" s="92">
+        <v>45792</v>
       </c>
       <c r="M26" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <f ca="1">IF(AND(H26 &lt;  _xlfn.DAYS(TODAY(), K26)/ _xlfn.DAYS(L26,K26), TODAY()&lt;=L26), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N26" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L26, H26&lt;1),M26), -1, IF(H26=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
@@ -8393,46 +8421,46 @@
       <c r="EY26" s="24"/>
       <c r="EZ26" s="24"/>
     </row>
-    <row r="27" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="109" t="s">
+      <c r="D27" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="109" t="s">
+      <c r="F27" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="130">
+      <c r="G27" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="124">
         <v>1</v>
       </c>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="150">
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="141">
         <v>45712</v>
       </c>
-      <c r="L27" s="150">
+      <c r="L27" s="141">
         <v>45714</v>
       </c>
       <c r="M27" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H27 &lt;  _xlfn.DAYS(TODAY(), K27)/ _xlfn.DAYS(L27,K27), TODAY()&lt;=L27), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N27" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L27, H27&lt;1),M27), -1, IF(H27=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P27" s="2">
@@ -8440,47 +8468,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H28" s="66">
         <v>0</v>
       </c>
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="75" t="e">
-        <f t="shared" ca="1" si="67"/>
-        <v>#DIV/0!</v>
+      <c r="K28" s="80">
+        <v>45761</v>
+      </c>
+      <c r="L28" s="80">
+        <v>45809</v>
+      </c>
+      <c r="M28" s="75" t="b">
+        <f ca="1">IF(AND(H28 &lt;  _xlfn.DAYS(TODAY(), K28)/ _xlfn.DAYS(L28,K28), TODAY()&lt;=L28), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N28" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O28" s="39" t="e">
-        <f t="shared" ca="1" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="2" t="str">
+      <c r="O28" s="39">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L28, H28&lt;1),M28), -1, IF(H28=1, 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>49</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
@@ -8623,23 +8655,25 @@
       <c r="EY28" s="24"/>
       <c r="EZ28" s="24"/>
     </row>
-    <row r="29" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="48" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="48"/>
+        <v>193</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>183</v>
+      </c>
       <c r="E29" s="48" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H29" s="66">
         <v>0</v>
@@ -8647,21 +8681,21 @@
       <c r="I29" s="77"/>
       <c r="J29" s="77"/>
       <c r="K29" s="80">
-        <v>45720</v>
+        <v>45761</v>
       </c>
       <c r="L29" s="80">
-        <v>45737</v>
+        <v>45765</v>
       </c>
       <c r="M29" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <f ca="1">IF(AND(H29 &lt;  _xlfn.DAYS(TODAY(), K29)/ _xlfn.DAYS(L29,K29), TODAY()&lt;=L29), TRUE, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N29" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="39">
-        <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L29, H29&lt;1),M29), -1, IF(H29=1, 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="24"/>
@@ -8805,25 +8839,23 @@
       <c r="EY29" s="24"/>
       <c r="EZ29" s="24"/>
     </row>
-    <row r="30" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="11"/>
       <c r="B30" s="48" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>165</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D30" s="48"/>
       <c r="E30" s="48" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F30" s="83" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="H30" s="66">
         <v>0</v>
@@ -8831,20 +8863,20 @@
       <c r="I30" s="77"/>
       <c r="J30" s="77"/>
       <c r="K30" s="80">
-        <v>45748</v>
+        <v>45754</v>
       </c>
       <c r="L30" s="80">
-        <v>45778</v>
+        <v>45758</v>
       </c>
       <c r="M30" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H30 &lt;  _xlfn.DAYS(TODAY(), K30)/ _xlfn.DAYS(L30,K30), TODAY()&lt;=L30), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N30" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L30, H30&lt;1),M30), -1, IF(H30=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P30" s="2"/>
@@ -8989,23 +9021,23 @@
       <c r="EY30" s="24"/>
       <c r="EZ30" s="24"/>
     </row>
-    <row r="31" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="11"/>
       <c r="B31" s="48" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="82" t="s">
-        <v>29</v>
+      <c r="F31" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>194</v>
       </c>
       <c r="H31" s="66">
         <v>0</v>
@@ -9013,20 +9045,20 @@
       <c r="I31" s="77"/>
       <c r="J31" s="77"/>
       <c r="K31" s="80">
-        <v>45729</v>
+        <v>45749</v>
       </c>
       <c r="L31" s="80">
-        <v>45731</v>
+        <v>45751</v>
       </c>
       <c r="M31" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H31 &lt;  _xlfn.DAYS(TODAY(), K31)/ _xlfn.DAYS(L31,K31), TODAY()&lt;=L31), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N31" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O31" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L31, H31&lt;1),M31), -1, IF(H31=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P31" s="2"/>
@@ -9171,10 +9203,10 @@
       <c r="EY31" s="24"/>
       <c r="EZ31" s="24"/>
     </row>
-    <row r="32" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="151" t="s">
-        <v>144</v>
+      <c r="B32" s="142" t="s">
+        <v>143</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>41</v>
@@ -9183,11 +9215,11 @@
       <c r="E32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="152" t="s">
+      <c r="F32" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="151" t="s">
-        <v>195</v>
+      <c r="G32" s="142" t="s">
+        <v>194</v>
       </c>
       <c r="H32" s="27">
         <v>1</v>
@@ -9205,14 +9237,14 @@
         <v>45709</v>
       </c>
       <c r="M32" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H32 &lt;  _xlfn.DAYS(TODAY(), K32)/ _xlfn.DAYS(L32,K32), TODAY()&lt;=L32), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N32" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O32" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L32, H32&lt;1),M32), -1, IF(H32=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P32" s="2"/>
@@ -9357,49 +9389,51 @@
       <c r="EY32" s="24"/>
       <c r="EZ32" s="24"/>
     </row>
-    <row r="33" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="48"/>
+        <v>57</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="E33" s="48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="82" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="H33" s="66">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="77"/>
       <c r="J33" s="77"/>
       <c r="K33" s="80">
-        <v>45732</v>
+        <v>45748</v>
       </c>
       <c r="L33" s="80">
-        <v>45736</v>
+        <v>45778</v>
       </c>
       <c r="M33" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H33 &lt;  _xlfn.DAYS(TODAY(), K33)/ _xlfn.DAYS(L33,K33), TODAY()&lt;=L33), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N33" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L33, H33&lt;1),M33), -1, IF(H33=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P33" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
@@ -9542,10 +9576,10 @@
       <c r="EY33" s="24"/>
       <c r="EZ33" s="24"/>
     </row>
-    <row r="34" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="11"/>
       <c r="B34" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="83" t="s">
         <v>43</v>
@@ -9558,15 +9592,15 @@
         <v>96</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H34" s="66">
         <v>1</v>
       </c>
-      <c r="I34" s="96">
+      <c r="I34" s="94">
         <v>45705</v>
       </c>
-      <c r="J34" s="96">
+      <c r="J34" s="94">
         <v>45709</v>
       </c>
       <c r="K34" s="80">
@@ -9576,14 +9610,14 @@
         <v>45751</v>
       </c>
       <c r="M34" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H34 &lt;  _xlfn.DAYS(TODAY(), K34)/ _xlfn.DAYS(L34,K34), TODAY()&lt;=L34), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N34" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O34" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L34, H34&lt;1),M34), -1, IF(H34=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P34" s="2"/>
@@ -9728,46 +9762,46 @@
       <c r="EY34" s="24"/>
       <c r="EZ34" s="24"/>
     </row>
-    <row r="35" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="93">
-        <v>0</v>
-      </c>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="80">
-        <v>45733</v>
-      </c>
-      <c r="L35" s="80">
-        <v>45809</v>
+      <c r="B35" s="174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="183">
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="189">
+        <v>45719</v>
+      </c>
+      <c r="J35" s="189"/>
+      <c r="K35" s="88">
+        <v>45748</v>
+      </c>
+      <c r="L35" s="88">
+        <v>45762</v>
       </c>
       <c r="M35" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H35 &lt;  _xlfn.DAYS(TODAY(), K35)/ _xlfn.DAYS(L35,K35), TODAY()&lt;=L35), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N35" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O35" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L35, H35&lt;1),M35), -1, IF(H35=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P35" s="2"/>
@@ -9912,51 +9946,51 @@
       <c r="EY35" s="24"/>
       <c r="EZ35" s="24"/>
     </row>
-    <row r="36" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="11"/>
       <c r="B36" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="86">
+      <c r="G36" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="66">
         <v>0</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="80">
-        <v>45733</v>
+        <v>45748</v>
       </c>
       <c r="L36" s="80">
-        <v>45825</v>
+        <v>45778</v>
       </c>
       <c r="M36" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H36 &lt;  _xlfn.DAYS(TODAY(), K36)/ _xlfn.DAYS(L36,K36), TODAY()&lt;=L36), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N36" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O36" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L36, H36&lt;1),M36), -1, IF(H36=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P36" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
@@ -10099,23 +10133,23 @@
       <c r="EY36" s="24"/>
       <c r="EZ36" s="24"/>
     </row>
-    <row r="37" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="91" t="s">
-        <v>151</v>
+      <c r="B37" s="90" t="s">
+        <v>140</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F37" s="82" t="s">
         <v>103</v>
       </c>
       <c r="G37" s="85" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="H37" s="66">
         <v>0</v>
@@ -10123,20 +10157,20 @@
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
       <c r="K37" s="80">
-        <v>45740</v>
+        <v>45748</v>
       </c>
       <c r="L37" s="80">
-        <v>45744</v>
+        <v>45754</v>
       </c>
       <c r="M37" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H37 &lt;  _xlfn.DAYS(TODAY(), K37)/ _xlfn.DAYS(L37,K37), TODAY()&lt;=L37), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N37" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O37" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L37, H37&lt;1),M37), -1, IF(H37=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P37" s="2"/>
@@ -10281,44 +10315,44 @@
       <c r="EY37" s="24"/>
       <c r="EZ37" s="24"/>
     </row>
-    <row r="38" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="11"/>
       <c r="B38" s="83" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="66">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
       <c r="K38" s="80">
-        <v>45740</v>
+        <v>45744</v>
       </c>
       <c r="L38" s="80">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="M38" s="75" t="b">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1">IF(AND(H38 &lt;  _xlfn.DAYS(TODAY(), K38)/ _xlfn.DAYS(L38,K38), TODAY()&lt;=L38), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N38" s="81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="39">
-        <f t="shared" ca="1" si="68"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L38, H38&lt;1),M38), -1, IF(H38=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P38" s="2"/>
@@ -10463,44 +10497,44 @@
       <c r="EY38" s="24"/>
       <c r="EZ38" s="24"/>
     </row>
-    <row r="39" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="91" t="s">
-        <v>156</v>
+      <c r="B39" s="90" t="s">
+        <v>154</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="48" t="s">
         <v>70</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G39" s="85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H39" s="66">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="77"/>
       <c r="J39" s="77"/>
       <c r="K39" s="80">
+        <v>45740</v>
+      </c>
+      <c r="L39" s="80">
         <v>45744</v>
       </c>
-      <c r="L39" s="80">
-        <v>45748</v>
-      </c>
       <c r="M39" s="75" t="b">
-        <f t="shared" ref="M39:M70" ca="1" si="70">IF(AND(H39 &lt;  _xlfn.DAYS(TODAY(), K39)/ _xlfn.DAYS(L39,K39), TODAY()&lt;=L39), TRUE, FALSE)</f>
+        <f ca="1">IF(AND(H39 &lt;  _xlfn.DAYS(TODAY(), K39)/ _xlfn.DAYS(L39,K39), TODAY()&lt;=L39), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N39" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="39">
-        <f t="shared" ref="O39:O60" ca="1" si="71">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L39, H39&lt;1),M39), -1, IF(H39=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P39" s="2"/>
@@ -10645,46 +10679,44 @@
       <c r="EY39" s="24"/>
       <c r="EZ39" s="24"/>
     </row>
-    <row r="40" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="83" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>130</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D40" s="48"/>
       <c r="E40" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="85" t="s">
-        <v>199</v>
+        <v>70</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>29</v>
       </c>
       <c r="H40" s="66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
       <c r="K40" s="80">
-        <v>45733</v>
+        <v>45735</v>
       </c>
       <c r="L40" s="80">
-        <v>45825</v>
+        <v>45741</v>
       </c>
       <c r="M40" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H40 &lt;  _xlfn.DAYS(TODAY(), K40)/ _xlfn.DAYS(L40,K40), TODAY()&lt;=L40), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N40" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L40, H40&lt;1),M40), -1, IF(H40=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P40" s="2"/>
@@ -10829,49 +10861,51 @@
       <c r="EY40" s="24"/>
       <c r="EZ40" s="24"/>
     </row>
-    <row r="41" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="11"/>
-      <c r="B41" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>87</v>
+      <c r="B41" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="66">
+        <v>198</v>
+      </c>
+      <c r="H41" s="86">
         <v>0</v>
       </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
       <c r="K41" s="80">
-        <v>45735</v>
+        <v>45733</v>
       </c>
       <c r="L41" s="80">
-        <v>45741</v>
+        <v>45764</v>
       </c>
       <c r="M41" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H41 &lt;  _xlfn.DAYS(TODAY(), K41)/ _xlfn.DAYS(L41,K41), TODAY()&lt;=L41), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N41" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O41" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L41, H41&lt;1),M41), -1, IF(H41=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P41" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
@@ -11014,51 +11048,51 @@
       <c r="EY41" s="24"/>
       <c r="EZ41" s="24"/>
     </row>
-    <row r="42" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A42" s="11"/>
-      <c r="B42" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="122" t="s">
+      <c r="B42" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="92">
-        <v>0.3</v>
-      </c>
-      <c r="I42" s="95">
-        <v>45719</v>
-      </c>
-      <c r="J42" s="95"/>
-      <c r="K42" s="89">
-        <v>45748</v>
-      </c>
-      <c r="L42" s="89">
-        <v>45762</v>
+      <c r="H42" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="77">
+        <v>45726</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="80">
+        <v>45732</v>
+      </c>
+      <c r="L42" s="80">
+        <v>45736</v>
       </c>
       <c r="M42" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H42 &lt;  _xlfn.DAYS(TODAY(), K42)/ _xlfn.DAYS(L42,K42), TODAY()&lt;=L42), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N42" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O42" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L42, H42&lt;1),M42), -1, IF(H42=1, 1, 0))</f>
         <v>0</v>
       </c>
       <c r="P42" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -11201,49 +11235,51 @@
       <c r="EY42" s="24"/>
       <c r="EZ42" s="24"/>
     </row>
-    <row r="43" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="11"/>
       <c r="B43" s="48" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="D43" s="48"/>
       <c r="E43" s="48" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>195</v>
+        <v>87</v>
+      </c>
+      <c r="G43" s="82" t="s">
+        <v>29</v>
       </c>
       <c r="H43" s="66">
-        <v>0</v>
-      </c>
-      <c r="I43" s="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="77">
+        <v>45726</v>
+      </c>
       <c r="J43" s="77"/>
       <c r="K43" s="80">
-        <v>45749</v>
+        <v>45729</v>
       </c>
       <c r="L43" s="80">
-        <v>45751</v>
+        <v>45736</v>
       </c>
       <c r="M43" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <f ca="1">IF(AND(H43 &lt;  _xlfn.DAYS(TODAY(), K43)/ _xlfn.DAYS(L43,K43), TODAY()&lt;=L43), TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="N43" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O43" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L43, H43&lt;1),M43), -1, IF(H43=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P43" s="2">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
@@ -11386,23 +11422,23 @@
       <c r="EY43" s="24"/>
       <c r="EZ43" s="24"/>
     </row>
-    <row r="44" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="11"/>
       <c r="B44" s="48" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="83" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="H44" s="66">
         <v>0</v>
@@ -11410,21 +11446,21 @@
       <c r="I44" s="77"/>
       <c r="J44" s="77"/>
       <c r="K44" s="80">
-        <v>45754</v>
+        <v>45726</v>
       </c>
       <c r="L44" s="80">
-        <v>45758</v>
+        <v>45731</v>
       </c>
       <c r="M44" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H44 &lt;  _xlfn.DAYS(TODAY(), K44)/ _xlfn.DAYS(L44,K44), TODAY()&lt;=L44), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N44" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O44" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L44, H44&lt;1),M44), -1, IF(H44=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="24"/>
@@ -11568,51 +11604,51 @@
       <c r="EY44" s="24"/>
       <c r="EZ44" s="24"/>
     </row>
-    <row r="45" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="11"/>
-      <c r="B45" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="H45" s="66">
-        <v>0</v>
-      </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="80">
-        <v>45761</v>
-      </c>
-      <c r="L45" s="80">
-        <v>45765</v>
+      <c r="B45" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="91">
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="93">
+        <v>45726</v>
+      </c>
+      <c r="J45" s="93"/>
+      <c r="K45" s="88">
+        <v>45722</v>
+      </c>
+      <c r="L45" s="88">
+        <v>45731</v>
       </c>
       <c r="M45" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H45 &lt;  _xlfn.DAYS(TODAY(), K45)/ _xlfn.DAYS(L45,K45), TODAY()&lt;=L45), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N45" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L45, H45&lt;1),M45), -1, IF(H45=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45:P51" si="72">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
+        <f t="shared" ref="P45:P51" si="70">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>10</v>
       </c>
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
@@ -11755,16 +11791,16 @@
       <c r="EY45" s="24"/>
       <c r="EZ45" s="24"/>
     </row>
-    <row r="46" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="11"/>
       <c r="B46" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>70</v>
@@ -11773,7 +11809,7 @@
         <v>103</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H46" s="66">
         <v>1</v>
@@ -11787,18 +11823,18 @@
         <v>45714</v>
       </c>
       <c r="M46" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H46 &lt;  _xlfn.DAYS(TODAY(), K46)/ _xlfn.DAYS(L46,K46), TODAY()&lt;=L46), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N46" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O46" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L46, H46&lt;1),M46), -1, IF(H46=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="Q46" s="24"/>
@@ -11942,51 +11978,49 @@
       <c r="EY46" s="24"/>
       <c r="EZ46" s="24"/>
     </row>
-    <row r="47" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="66">
+      <c r="B47" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="91">
         <v>0</v>
       </c>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="80">
-        <v>45748</v>
-      </c>
-      <c r="L47" s="80">
-        <v>45778</v>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="88">
+        <v>45720</v>
+      </c>
+      <c r="L47" s="88">
+        <v>45737</v>
       </c>
       <c r="M47" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <f ca="1">IF(AND(H47 &lt;  _xlfn.DAYS(TODAY(), K47)/ _xlfn.DAYS(L47,K47), TODAY()&lt;=L47), TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="N47" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O47" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L47, H47&lt;1),M47), -1, IF(H47=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="72"/>
-        <v>31</v>
+        <f t="shared" si="70"/>
+        <v>18</v>
       </c>
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
@@ -12129,23 +12163,23 @@
       <c r="EY47" s="24"/>
       <c r="EZ47" s="24"/>
     </row>
-    <row r="48" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="11"/>
       <c r="B48" s="48" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="82" t="s">
-        <v>103</v>
+      <c r="F48" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="H48" s="66">
         <v>0</v>
@@ -12153,25 +12187,25 @@
       <c r="I48" s="77"/>
       <c r="J48" s="77"/>
       <c r="K48" s="80">
-        <v>45748</v>
+        <v>45720</v>
       </c>
       <c r="L48" s="80">
-        <v>45754</v>
+        <v>45752</v>
       </c>
       <c r="M48" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <f ca="1">IF(AND(H48 &lt;  _xlfn.DAYS(TODAY(), K48)/ _xlfn.DAYS(L48,K48), TODAY()&lt;=L48), TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="N48" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O48" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L48, H48&lt;1),M48), -1, IF(H48=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="72"/>
-        <v>7</v>
+        <f t="shared" si="70"/>
+        <v>33</v>
       </c>
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
@@ -12314,49 +12348,49 @@
       <c r="EY48" s="24"/>
       <c r="EZ48" s="24"/>
     </row>
-    <row r="49" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="46" t="s">
-        <v>152</v>
+      <c r="B49" s="82" t="s">
+        <v>148</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
+        <v>53</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="66">
+        <v>0</v>
+      </c>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
       <c r="K49" s="80">
-        <v>45777</v>
+        <v>45719</v>
       </c>
       <c r="L49" s="80">
-        <v>45778</v>
+        <v>45721</v>
       </c>
       <c r="M49" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H49 &lt;  _xlfn.DAYS(TODAY(), K49)/ _xlfn.DAYS(L49,K49), TODAY()&lt;=L49), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N49" s="81" t="b">
         <v>1</v>
       </c>
       <c r="O49" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L49, H49&lt;1),M49), -1, IF(H49=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="72"/>
-        <v>2</v>
+        <f t="shared" si="70"/>
+        <v>3</v>
       </c>
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
@@ -12499,47 +12533,45 @@
       <c r="EY49" s="24"/>
       <c r="EZ49" s="24"/>
     </row>
-    <row r="50" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="11"/>
-      <c r="B50" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="66">
+      <c r="B50" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="91">
         <v>0</v>
       </c>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="80">
-        <v>45778</v>
-      </c>
-      <c r="L50" s="80">
-        <v>45792</v>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="88">
+        <v>45716</v>
+      </c>
+      <c r="L50" s="88">
+        <v>45730</v>
       </c>
       <c r="M50" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H50 &lt;  _xlfn.DAYS(TODAY(), K50)/ _xlfn.DAYS(L50,K50), TODAY()&lt;=L50), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N50" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L50, H50&lt;1),M50), -1, IF(H50=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="24"/>
@@ -12683,55 +12715,49 @@
       <c r="EY50" s="24"/>
       <c r="EZ50" s="24"/>
     </row>
-    <row r="51" spans="1:156" s="22" customFormat="1" ht="48" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:156" s="22" customFormat="1" ht="48" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="11"/>
-      <c r="B51" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="156" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="126">
+      <c r="B51" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="H51" s="66">
         <v>0</v>
       </c>
-      <c r="I51" s="134">
-        <v>45809</v>
-      </c>
-      <c r="J51" s="134">
-        <v>45833</v>
-      </c>
-      <c r="K51" s="145">
-        <v>45809</v>
-      </c>
-      <c r="L51" s="145">
-        <v>45833</v>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="80">
+        <v>45714</v>
+      </c>
+      <c r="L51" s="80">
+        <v>45716</v>
       </c>
       <c r="M51" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H51 &lt;  _xlfn.DAYS(TODAY(), K51)/ _xlfn.DAYS(L51,K51), TODAY()&lt;=L51), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N51" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L51, H51&lt;1),M51), -1, IF(H51=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="72"/>
-        <v>25</v>
+        <f t="shared" si="70"/>
+        <v>3</v>
       </c>
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
@@ -12874,10 +12900,10 @@
       <c r="EY51" s="24"/>
       <c r="EZ51" s="24"/>
     </row>
-    <row r="52" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="11"/>
       <c r="B52" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="48" t="s">
         <v>46</v>
@@ -12890,7 +12916,7 @@
         <v>103</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H52" s="27">
         <v>1</v>
@@ -12906,14 +12932,14 @@
         <v>45711</v>
       </c>
       <c r="M52" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H52 &lt;  _xlfn.DAYS(TODAY(), K52)/ _xlfn.DAYS(L52,K52), TODAY()&lt;=L52), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N52" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O52" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L52, H52&lt;1),M52), -1, IF(H52=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P52" s="2"/>
@@ -13058,47 +13084,47 @@
       <c r="EY52" s="24"/>
       <c r="EZ52" s="24"/>
     </row>
-    <row r="53" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A53" s="11"/>
-      <c r="B53" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="66">
-        <v>0</v>
-      </c>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="80">
-        <v>45786</v>
-      </c>
-      <c r="L53" s="80">
-        <v>45790</v>
+      <c r="B53" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="91">
+        <v>0.8</v>
+      </c>
+      <c r="I53" s="187">
+        <v>45714</v>
+      </c>
+      <c r="J53" s="187"/>
+      <c r="K53" s="88">
+        <v>45712</v>
+      </c>
+      <c r="L53" s="88">
+        <v>45719</v>
       </c>
       <c r="M53" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H53 &lt;  _xlfn.DAYS(TODAY(), K53)/ _xlfn.DAYS(L53,K53), TODAY()&lt;=L53), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N53" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O53" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L53, H53&lt;1),M53), -1, IF(H53=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="24"/>
@@ -13242,47 +13268,49 @@
       <c r="EY53" s="24"/>
       <c r="EZ53" s="24"/>
     </row>
-    <row r="54" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="11"/>
-      <c r="B54" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="156" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="126">
+      <c r="B54" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="91">
+        <v>1</v>
+      </c>
+      <c r="I54" s="93">
+        <v>45712</v>
+      </c>
+      <c r="J54" s="93">
+        <v>45733</v>
+      </c>
+      <c r="K54" s="88">
+        <v>45712</v>
+      </c>
+      <c r="L54" s="88">
+        <v>45714</v>
+      </c>
+      <c r="M54" s="75" t="b">
+        <f ca="1">IF(AND(H54 &lt;  _xlfn.DAYS(TODAY(), K54)/ _xlfn.DAYS(L54,K54), TODAY()&lt;=L54), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="145">
-        <v>45813</v>
-      </c>
-      <c r="L54" s="145">
-        <v>45818</v>
-      </c>
-      <c r="M54" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
       <c r="N54" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L54, H54&lt;1),M54), -1, IF(H54=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="24"/>
@@ -13426,10 +13454,10 @@
       <c r="EY54" s="24"/>
       <c r="EZ54" s="24"/>
     </row>
-    <row r="55" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="11"/>
       <c r="B55" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="48" t="s">
         <v>48</v>
@@ -13442,7 +13470,7 @@
         <v>103</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="27">
         <v>1</v>
@@ -13456,14 +13484,14 @@
         <v>45742</v>
       </c>
       <c r="M55" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H55 &lt;  _xlfn.DAYS(TODAY(), K55)/ _xlfn.DAYS(L55,K55), TODAY()&lt;=L55), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N55" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O55" s="39">
-        <f t="shared" ca="1" si="71"/>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L55, H55&lt;1),M55), -1, IF(H55=1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="P55" s="2"/>
@@ -13608,47 +13636,49 @@
       <c r="EY55" s="24"/>
       <c r="EZ55" s="24"/>
     </row>
-    <row r="56" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A56" s="11"/>
-      <c r="B56" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="48" t="s">
+      <c r="B56" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="66">
+      <c r="D56" s="89"/>
+      <c r="E56" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" s="91">
+        <v>1</v>
+      </c>
+      <c r="I56" s="93">
+        <v>45712</v>
+      </c>
+      <c r="J56" s="93">
+        <v>45733</v>
+      </c>
+      <c r="K56" s="88">
+        <v>45712</v>
+      </c>
+      <c r="L56" s="88">
+        <v>45714</v>
+      </c>
+      <c r="M56" s="75" t="b">
+        <f ca="1">IF(AND(H56 &lt;  _xlfn.DAYS(TODAY(), K56)/ _xlfn.DAYS(L56,K56), TODAY()&lt;=L56), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="80">
-        <v>45792</v>
-      </c>
-      <c r="L56" s="80">
-        <v>45809</v>
-      </c>
-      <c r="M56" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
       <c r="N56" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L56, H56&lt;1),M56), -1, IF(H56=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="24"/>
@@ -13792,47 +13822,49 @@
       <c r="EY56" s="24"/>
       <c r="EZ56" s="24"/>
     </row>
-    <row r="57" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="66">
+      <c r="B57" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="170" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="91">
+        <v>1</v>
+      </c>
+      <c r="I57" s="186">
+        <v>45712</v>
+      </c>
+      <c r="J57" s="186">
+        <v>45733</v>
+      </c>
+      <c r="K57" s="88">
+        <v>45712</v>
+      </c>
+      <c r="L57" s="88">
+        <v>45714</v>
+      </c>
+      <c r="M57" s="75" t="b">
+        <f ca="1">IF(AND(H57 &lt;  _xlfn.DAYS(TODAY(), K57)/ _xlfn.DAYS(L57,K57), TODAY()&lt;=L57), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="80">
-        <v>45796</v>
-      </c>
-      <c r="L57" s="80">
-        <v>45800</v>
-      </c>
-      <c r="M57" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
       <c r="N57" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L57, H57&lt;1),M57), -1, IF(H57=1, 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="24"/>
@@ -13976,47 +14008,47 @@
       <c r="EY57" s="24"/>
       <c r="EZ57" s="24"/>
     </row>
-    <row r="58" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="11"/>
-      <c r="B58" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="119" t="s">
+      <c r="B58" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="126">
+      <c r="H58" s="91">
+        <v>0.6</v>
+      </c>
+      <c r="I58" s="93">
+        <v>45714</v>
+      </c>
+      <c r="J58" s="93"/>
+      <c r="K58" s="88">
+        <v>45709</v>
+      </c>
+      <c r="L58" s="88">
+        <v>45731</v>
+      </c>
+      <c r="M58" s="75" t="b">
+        <f ca="1">IF(AND(H58 &lt;  _xlfn.DAYS(TODAY(), K58)/ _xlfn.DAYS(L58,K58), TODAY()&lt;=L58), TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="145">
-        <v>45818</v>
-      </c>
-      <c r="L58" s="145">
-        <v>45825</v>
-      </c>
-      <c r="M58" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
       <c r="N58" s="81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L58, H58&lt;1),M58), -1, IF(H58=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="24"/>
@@ -14160,47 +14192,46 @@
       <c r="EY58" s="24"/>
       <c r="EZ58" s="24"/>
     </row>
-    <row r="59" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:156" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="11"/>
-      <c r="B59" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="86">
+      <c r="B59" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="91">
         <v>0</v>
       </c>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="88">
-        <v>45826</v>
-      </c>
-      <c r="L59" s="88">
-        <v>45828</v>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93">
+        <f>Project_Start</f>
+        <v>45705</v>
+      </c>
+      <c r="L59" s="93">
+        <v>45716</v>
       </c>
       <c r="M59" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
+        <f ca="1">IF(AND(H59 &lt;  _xlfn.DAYS(TODAY(), K59)/ _xlfn.DAYS(L59,K59), TODAY()&lt;=L59), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="N59" s="81" t="b">
         <v>0</v>
       </c>
       <c r="O59" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(TODAY()&gt;L59, H59&lt;1),M59), -1, IF(H59=1, 1, 0))</f>
+        <v>-1</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="24"/>
@@ -14344,51 +14375,47 @@
       <c r="EY59" s="24"/>
       <c r="EZ59" s="24"/>
     </row>
-    <row r="60" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="11"/>
-      <c r="B60" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="82" t="s">
+      <c r="B60" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H60" s="86">
+      <c r="D60" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="H60" s="66">
         <v>0</v>
       </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="88">
-        <v>45831</v>
-      </c>
-      <c r="L60" s="88">
-        <v>45838</v>
-      </c>
-      <c r="M60" s="75" t="b">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="75" t="e">
+        <f ca="1">IF(AND(H60 &lt;  _xlfn.DAYS(TODAY(), K60)/ _xlfn.DAYS(L60,K60), TODAY()&lt;=L60), TRUE, FALSE)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N60" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="O60" s="39">
-        <f t="shared" ca="1" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <f t="shared" ref="P60:P69" si="73">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>8</v>
+      <c r="O60" s="39" t="e">
+        <f ca="1">IF(OR(AND(TODAY()&gt;L60, H60&lt;1),M60), -1, IF(H60=1, 1, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f t="shared" ref="P60:P69" si="71">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
       </c>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
@@ -14531,26 +14558,26 @@
       <c r="EY60" s="24"/>
       <c r="EZ60" s="24"/>
     </row>
-    <row r="61" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A61" s="11"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106" t="s">
+      <c r="B61" s="102"/>
+      <c r="C61" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="136"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="141"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="133"/>
       <c r="M61" s="62"/>
       <c r="N61" s="62"/>
       <c r="O61" s="12"/>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q61" s="24"/>
@@ -14694,26 +14721,26 @@
       <c r="EY61" s="24"/>
       <c r="EZ61" s="24"/>
     </row>
-    <row r="62" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="11"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="111" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="143"/>
-      <c r="L62" s="143"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
       <c r="M62" s="75"/>
       <c r="N62" s="75"/>
       <c r="O62" s="39"/>
       <c r="P62" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q62" s="24"/>
@@ -14857,26 +14884,26 @@
       <c r="EY62" s="24"/>
       <c r="EZ62" s="24"/>
     </row>
-    <row r="63" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A63" s="11"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="111" t="s">
+      <c r="B63" s="89"/>
+      <c r="C63" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="143"/>
-      <c r="L63" s="143"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="135"/>
       <c r="M63" s="75"/>
       <c r="N63" s="75"/>
       <c r="O63" s="39"/>
       <c r="P63" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q63" s="24"/>
@@ -15020,26 +15047,26 @@
       <c r="EY63" s="24"/>
       <c r="EZ63" s="24"/>
     </row>
-    <row r="64" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A64" s="11"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101" t="s">
+      <c r="B64" s="98"/>
+      <c r="C64" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="148"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="139"/>
       <c r="M64" s="75"/>
       <c r="N64" s="75"/>
       <c r="O64" s="39"/>
       <c r="P64" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q64" s="24"/>
@@ -15183,11 +15210,11 @@
       <c r="EY64" s="24"/>
       <c r="EZ64" s="24"/>
     </row>
-    <row r="65" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A65" s="11"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="48"/>
@@ -15202,7 +15229,7 @@
       <c r="N65" s="75"/>
       <c r="O65" s="39"/>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q65" s="24"/>
@@ -15346,11 +15373,11 @@
       <c r="EY65" s="24"/>
       <c r="EZ65" s="24"/>
     </row>
-    <row r="66" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="11"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="48"/>
@@ -15365,7 +15392,7 @@
       <c r="N66" s="75"/>
       <c r="O66" s="39"/>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q66" s="24"/>
@@ -15509,11 +15536,11 @@
       <c r="EY66" s="24"/>
       <c r="EZ66" s="24"/>
     </row>
-    <row r="67" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="11"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="48"/>
@@ -15528,7 +15555,7 @@
       <c r="N67" s="75"/>
       <c r="O67" s="39"/>
       <c r="P67" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q67" s="24"/>
@@ -15672,7 +15699,7 @@
       <c r="EY67" s="24"/>
       <c r="EZ67" s="24"/>
     </row>
-    <row r="68" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="11"/>
       <c r="B68" s="48"/>
       <c r="C68" s="45" t="s">
@@ -15691,7 +15718,7 @@
       <c r="N68" s="75"/>
       <c r="O68" s="39"/>
       <c r="P68" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q68" s="24"/>
@@ -15835,26 +15862,26 @@
       <c r="EY68" s="24"/>
       <c r="EZ68" s="24"/>
     </row>
-    <row r="69" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="110"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="139"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="106"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="131"/>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
       <c r="M69" s="75"/>
       <c r="N69" s="75"/>
       <c r="O69" s="39"/>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q69" s="29"/>
@@ -15998,26 +16025,26 @@
       <c r="EY69" s="29"/>
       <c r="EZ69" s="29"/>
     </row>
-    <row r="70" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="107" t="s">
+      <c r="B70" s="101"/>
+      <c r="C70" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="107"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="135"/>
-      <c r="J70" s="135"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
       <c r="M70" s="75"/>
       <c r="N70" s="75"/>
       <c r="O70" s="39"/>
       <c r="P70" s="2" t="str">
-        <f t="shared" ref="P70:P74" si="74">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="P70:P74" si="72">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="Q70" s="24"/>
@@ -16161,26 +16188,26 @@
       <c r="EY70" s="24"/>
       <c r="EZ70" s="24"/>
     </row>
-    <row r="71" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107" t="s">
+      <c r="B71" s="103"/>
+      <c r="C71" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="107"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="135"/>
-      <c r="J71" s="135"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
       <c r="M71" s="75"/>
       <c r="N71" s="75"/>
       <c r="O71" s="39"/>
       <c r="P71" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="Q71" s="24"/>
@@ -16324,26 +16351,26 @@
       <c r="EY71" s="24"/>
       <c r="EZ71" s="24"/>
     </row>
-    <row r="72" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="10"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108" t="s">
+      <c r="B72" s="104"/>
+      <c r="C72" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="138"/>
-      <c r="J72" s="142"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="149"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="140"/>
       <c r="M72" s="75"/>
       <c r="N72" s="75"/>
       <c r="O72" s="39"/>
       <c r="P72" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="Q72" s="24"/>
@@ -16487,7 +16514,7 @@
       <c r="EY72" s="24"/>
       <c r="EZ72" s="24"/>
     </row>
-    <row r="73" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A73" s="10"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
@@ -16504,7 +16531,7 @@
       <c r="N73" s="69"/>
       <c r="O73" s="12"/>
       <c r="P73" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="Q73" s="21"/>
@@ -16648,7 +16675,7 @@
       <c r="EY73" s="21"/>
       <c r="EZ73" s="21"/>
     </row>
-    <row r="74" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:156" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="11"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
@@ -16667,7 +16694,7 @@
       <c r="N74" s="72"/>
       <c r="O74" s="12"/>
       <c r="P74" s="3" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="Q74" s="30"/>
@@ -16816,6 +16843,9 @@
     <filterColumn colId="5">
       <filters>
         <filter val="BP"/>
+        <filter val="ES,TD"/>
+        <filter val="TD"/>
+        <filter val="TD, BP"/>
       </filters>
     </filterColumn>
     <filterColumn colId="13">
@@ -16825,36 +16855,11 @@
         <filter val="0"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:O58">
-      <sortCondition ref="K5:K74"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:O60">
+      <sortCondition descending="1" ref="K5:K74"/>
     </sortState>
   </autoFilter>
   <mergeCells count="41">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="BN4:BT4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="EM4:ES4"/>
     <mergeCell ref="ET4:EZ4"/>
     <mergeCell ref="AI1:AO1"/>
@@ -16871,9 +16876,34 @@
     <mergeCell ref="CI4:CO4"/>
     <mergeCell ref="CP4:CV4"/>
     <mergeCell ref="CW4:DC4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H36:H74 H7:H34">
+  <conditionalFormatting sqref="H7:H17 H19:H34 H36:H74">
     <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16897,31 +16927,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:EZ72">
-    <cfRule type="expression" dxfId="6" priority="164">
+    <cfRule type="expression" dxfId="7" priority="164">
       <formula>AND(TODAY()&gt;=Q$5, TODAY()&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:EZ26">
-    <cfRule type="expression" dxfId="5" priority="169">
+    <cfRule type="expression" dxfId="6" priority="169">
       <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="170" stopIfTrue="1">
       <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:EZ68">
-    <cfRule type="expression" dxfId="3" priority="167">
+    <cfRule type="expression" dxfId="4" priority="167">
       <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70:EZ72">
-    <cfRule type="expression" dxfId="1" priority="165">
+    <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="166" stopIfTrue="1">
       <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16964,7 +16994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:H74 H7:H34</xm:sqref>
+          <xm:sqref>H7:H17 H19:H34 H36:H74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16980,9 +17010,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="38">
         <f>DATE(2025,3,29)</f>
         <v>45745</v>
@@ -17056,42 +17086,42 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:8">
       <c r="H17" s="38"/>
     </row>
   </sheetData>
@@ -17102,113 +17132,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46C1742-B028-5D4B-B40E-405E37E7C659}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="66" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="66" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16384" width="66" style="158"/>
+    <col min="1" max="1" width="66" style="145"/>
+    <col min="2" max="2" width="32.1640625" style="145" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="144" customWidth="1"/>
+    <col min="4" max="16384" width="66" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="144"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="144"/>
     </row>
-    <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:3" ht="58">
+      <c r="A3" s="169" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="157"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="166"/>
     </row>
-    <row r="5" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="157" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="165" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="157"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="166"/>
     </row>
-    <row r="7" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="157" t="s">
+    <row r="7" spans="1:3" ht="42">
+      <c r="A7" s="167" t="s">
         <v>206</v>
       </c>
+      <c r="C7" s="144" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="157"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="167" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="157" t="s">
-        <v>207</v>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9" s="167" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="144" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="157"/>
+    <row r="10" spans="1:3" ht="36">
+      <c r="A10" s="167" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A11" s="157" t="s">
-        <v>208</v>
+    <row r="11" spans="1:3" ht="42">
+      <c r="A11" s="167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="157"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="167" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="13" spans="1:1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A13" s="157" t="s">
-        <v>209</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="165" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="157"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="166"/>
     </row>
-    <row r="15" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A15" s="157" t="s">
-        <v>210</v>
+    <row r="15" spans="1:3" ht="42">
+      <c r="A15" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="144" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="157"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A17" s="157" t="s">
-        <v>211</v>
+    <row r="17" spans="1:3" ht="36">
+      <c r="A17" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="157"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="166"/>
     </row>
-    <row r="19" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A19" s="157" t="s">
-        <v>212</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="165" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="157"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="166"/>
     </row>
-    <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A21" s="157" t="s">
-        <v>213</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="167" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="145" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="157"/>
+    <row r="22" spans="1:3" ht="42">
+      <c r="A22" s="167" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="144" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="157"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="145" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="157" t="s">
-        <v>203</v>
-      </c>
+    <row r="24" spans="1:3">
+      <c r="A24" s="144"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="166"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="167" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="145" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="166"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="166"/>
+    </row>
+    <row r="33" spans="1:3" ht="36">
+      <c r="A33" s="167" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21">
+      <c r="A34" s="167" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="144" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42">
+      <c r="A35" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="166"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="166"/>
+    </row>
+    <row r="40" spans="1:3" ht="42">
+      <c r="A40" s="167" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="144" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="166"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="165" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="166"/>
+    </row>
+    <row r="45" spans="1:3" ht="36">
+      <c r="A45" s="167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="167" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="166"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="165" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="166"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="167" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="168" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="144"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="144"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B52 B42:B50 B7:B40">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17220,114 +17466,114 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="87" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="16">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="31">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="205" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="7" customFormat="1" ht="31">
       <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="31">
       <c r="A11" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="31">
       <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="75" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="75">
       <c r="A16" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="37"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="37"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="37"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="37"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="37"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="37"/>
     </row>
   </sheetData>
@@ -17343,6 +17589,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17654,15 +17909,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17684,6 +17930,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17700,14 +17954,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Gantt onlinestss.com.xlsx
+++ b/Gantt onlinestss.com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discovery-air/Dropbox/Work/MUGI/SS/project/onlinestss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C237A-9F4B-DE47-8E77-40BEBC3C63C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785EC496-1752-0044-BC81-C7BFCBD0EE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="500" windowWidth="43100" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="7360" windowWidth="46080" windowHeight="23980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="256">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -3134,7 +3134,7 @@
   </sheetPr>
   <dimension ref="A1:EZ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
@@ -17134,8 +17134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46C1742-B028-5D4B-B40E-405E37E7C659}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66" defaultRowHeight="20"/>
@@ -17423,28 +17423,31 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="166"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" s="167" t="s">
         <v>233</v>
       </c>
+      <c r="B50" s="145" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" s="167" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2">
       <c r="A52" s="168" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" s="144"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2">
       <c r="A54" s="144"/>
     </row>
   </sheetData>
